--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="617" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF103517-7540-4E5B-8995-D1A602560028}"/>
+  <xr:revisionPtr revIDLastSave="748" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12FC9C0-154A-45B0-AB6F-BB3EDB4BED83}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -804,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE315A-F4FF-44A5-BD4C-9EF1E6AE5117}">
   <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -997,11 +997,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1635,50 +1635,56 @@
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>5954</v>
+      </c>
       <c r="D24" s="3">
         <v>5332</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>4803</v>
+      </c>
       <c r="H24" s="3">
         <v>3997</v>
       </c>
       <c r="I24" s="3"/>
       <c r="K24" s="3">
         <f>SUM(B24:E24)</f>
-        <v>5332</v>
+        <v>11286</v>
       </c>
       <c r="L24" s="3">
         <f>SUM(F24:I24)</f>
-        <v>3997</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>613</v>
+      </c>
       <c r="D25" s="3">
         <v>654</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>685</v>
+      </c>
       <c r="H25" s="3">
         <v>657</v>
       </c>
       <c r="I25" s="3"/>
       <c r="K25" s="3">
         <f>SUM(B25:E25)</f>
-        <v>654</v>
+        <v>1267</v>
       </c>
       <c r="L25" s="3">
         <f>SUM(F25:I25)</f>
-        <v>657</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1691,7 +1697,7 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="D26" s="4">
         <f>SUM(D24:D25)</f>
@@ -1707,7 +1713,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5488</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="20"/>
@@ -1720,36 +1726,39 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4">
         <f t="shared" si="20"/>
-        <v>5986</v>
+        <v>12553</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="20"/>
-        <v>4654</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>4463</v>
+      </c>
       <c r="D27" s="3">
         <v>4059</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>3702</v>
+      </c>
       <c r="H27" s="3">
         <v>3130</v>
       </c>
       <c r="I27" s="3"/>
       <c r="K27" s="3">
         <f>SUM(B27:E27)</f>
-        <v>4059</v>
+        <v>8522</v>
       </c>
       <c r="L27" s="3">
         <f>SUM(F27:I27)</f>
-        <v>3130</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1762,7 +1771,7 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="21"/>
@@ -1778,7 +1787,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="H28" s="4">
         <f>H26-H27</f>
@@ -1791,136 +1800,151 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4">
         <f t="shared" si="22"/>
-        <v>1927</v>
+        <v>4031</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="22"/>
-        <v>1524</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>485</v>
+      </c>
       <c r="D29" s="3">
         <v>462</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>461</v>
+      </c>
       <c r="H29" s="3">
         <v>426</v>
       </c>
       <c r="I29" s="3"/>
       <c r="K29" s="3">
         <f>SUM(B29:E29)</f>
-        <v>462</v>
+        <v>947</v>
       </c>
       <c r="L29" s="3">
         <f>SUM(F29:I29)</f>
-        <v>426</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>269</v>
+      </c>
       <c r="D30" s="3">
         <v>266</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>237</v>
+      </c>
       <c r="H30" s="3">
         <v>221</v>
       </c>
       <c r="I30" s="3"/>
       <c r="K30" s="3">
         <f>SUM(B30:E30)</f>
-        <v>266</v>
+        <v>535</v>
       </c>
       <c r="L30" s="3">
         <f>SUM(F30:I30)</f>
-        <v>221</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
       <c r="D31" s="3">
         <v>5</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>51</v>
+      </c>
       <c r="H31" s="3">
         <v>12</v>
       </c>
       <c r="I31" s="3"/>
       <c r="K31" s="3">
         <f>SUM(B31:E31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" s="3">
         <f>SUM(F31:I31)</f>
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>323</v>
+      </c>
       <c r="D32" s="3">
         <v>346</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>418</v>
+      </c>
       <c r="H32" s="3">
         <v>378</v>
       </c>
       <c r="I32" s="3"/>
       <c r="K32" s="3">
         <f>SUM(B32:E32)</f>
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="L32" s="3">
         <f>SUM(F32:I32)</f>
-        <v>378</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>187</v>
+      </c>
       <c r="D33" s="3">
         <v>186</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>165</v>
+      </c>
       <c r="H33" s="3">
         <v>127</v>
       </c>
       <c r="I33" s="3"/>
       <c r="K33" s="3">
         <f>SUM(B33:E33)</f>
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="L33" s="3">
         <f>SUM(F33:I33)</f>
-        <v>127</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1933,7 +1957,7 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>5729</v>
       </c>
       <c r="D34" s="4">
         <f>SUM(D29:D33)+D27</f>
@@ -1948,8 +1972,8 @@
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="G34" si="25">SUM(G29:G33)+G27</f>
+        <v>5034</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="24"/>
@@ -1962,11 +1986,11 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4">
         <f t="shared" si="24"/>
-        <v>5324</v>
+        <v>11053</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="24"/>
-        <v>4294</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1974,120 +1998,129 @@
         <v>14</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" ref="B35:C35" si="25">B26-B34</f>
+        <f t="shared" ref="B35:C35" si="26">B26-B34</f>
         <v>0</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>838</v>
       </c>
       <c r="D35" s="4">
         <f>D26-D34</f>
         <v>662</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:L35" si="26">E26-E34</f>
+        <f t="shared" ref="E35:L35" si="27">E26-E34</f>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="G35" si="28">G26-G34</f>
+        <v>454</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>360</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <f t="shared" si="26"/>
-        <v>662</v>
+        <f t="shared" si="27"/>
+        <v>1500</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="26"/>
-        <v>360</v>
+        <f t="shared" si="27"/>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>-192</v>
+      </c>
       <c r="D36" s="3">
         <v>-171</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>-95</v>
+      </c>
       <c r="H36" s="3">
         <v>-75</v>
       </c>
       <c r="I36" s="3"/>
       <c r="K36" s="3">
         <f>SUM(B36:E36)</f>
-        <v>-171</v>
+        <v>-363</v>
       </c>
       <c r="L36" s="3">
         <f>SUM(F36:I36)</f>
-        <v>-75</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>64</v>
+      </c>
       <c r="D37" s="3">
         <v>49</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>79</v>
+      </c>
       <c r="H37" s="3">
         <v>25</v>
       </c>
       <c r="I37" s="3"/>
       <c r="K37" s="3">
         <f>SUM(B37:E37)</f>
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="L37" s="3">
         <f>SUM(F37:I37)</f>
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
       <c r="H38" s="3">
         <v>4</v>
       </c>
       <c r="I38" s="3"/>
       <c r="K38" s="3">
         <f>SUM(B38:E38)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L38" s="3">
         <f>SUM(F38:I38)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2095,45 +2128,45 @@
         <v>18</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" ref="B39:C39" si="27">B35+B36+B37-B38</f>
+        <f t="shared" ref="B39:C39" si="29">B35+B36+B37-B38</f>
         <v>0</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>706</v>
       </c>
       <c r="D39" s="4">
         <f>D35+D36+D37-D38</f>
         <v>537</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" ref="E39:L39" si="28">E35+E36+E37-E38</f>
+        <f t="shared" ref="E39:L39" si="30">E35+E36+E37-E38</f>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>433</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>306</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
-        <f t="shared" si="28"/>
-        <v>537</v>
+        <f t="shared" si="30"/>
+        <v>1243</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="28"/>
-        <v>306</v>
+        <f t="shared" si="30"/>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2141,45 +2174,45 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="e">
-        <f t="shared" ref="B41:C41" si="29">B39/B44</f>
+        <f t="shared" ref="B41:C41" si="31">B39/B44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C41" s="2" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+      <c r="C41" s="2">
+        <f t="shared" si="31"/>
+        <v>0.52765321375186847</v>
       </c>
       <c r="D41" s="2">
         <f>D39/D44</f>
         <v>0.42822966507177035</v>
       </c>
       <c r="E41" s="2" t="e">
-        <f t="shared" ref="E41:L41" si="30">E39/E44</f>
+        <f t="shared" ref="E41:L41" si="32">E39/E44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="2" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="2" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="2">
+        <f t="shared" si="32"/>
+        <v>0.34474522292993631</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.22972972972972974</v>
       </c>
       <c r="I41" s="2" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
-        <f t="shared" si="30"/>
-        <v>0.42822966507177035</v>
+        <f t="shared" si="32"/>
+        <v>0.47955246913580246</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="30"/>
-        <v>0.22972972972972974</v>
+        <f t="shared" si="32"/>
+        <v>0.28554868624420404</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2187,83 +2220,95 @@
         <v>20</v>
       </c>
       <c r="B42" s="2" t="e">
-        <f t="shared" ref="B42:C42" si="31">B39/B45</f>
+        <f t="shared" ref="B42:C42" si="33">B39/B45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C42" s="2" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+      <c r="C42" s="2">
+        <f t="shared" si="33"/>
+        <v>0.52103321033210337</v>
       </c>
       <c r="D42" s="2">
         <f>D39/D45</f>
         <v>0.42822966507177035</v>
       </c>
       <c r="E42" s="2" t="e">
-        <f t="shared" ref="E42:L42" si="32">E39/E45</f>
+        <f t="shared" ref="E42:L42" si="34">E39/E45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="2" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="2" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+      <c r="G42" s="2">
+        <f t="shared" si="34"/>
+        <v>0.34365079365079365</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.22649888971132495</v>
       </c>
       <c r="I42" s="2" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
-        <f t="shared" si="32"/>
-        <v>0.42822966507177035</v>
+        <f t="shared" si="34"/>
+        <v>0.47642775009582217</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="32"/>
-        <v>0.22649888971132495</v>
+        <f t="shared" si="34"/>
+        <v>0.28303332056683261</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>22</v>
       </c>
+      <c r="C44">
+        <v>1338</v>
+      </c>
       <c r="D44">
         <v>1254</v>
       </c>
+      <c r="G44">
+        <v>1256</v>
+      </c>
       <c r="H44">
         <v>1332</v>
       </c>
       <c r="K44">
         <f>SUM(B44:E44)</f>
-        <v>1254</v>
+        <v>2592</v>
       </c>
       <c r="L44">
         <f>SUM(F44:I44)</f>
-        <v>1332</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
+      <c r="C45">
+        <v>1355</v>
+      </c>
       <c r="D45">
         <v>1254</v>
       </c>
+      <c r="G45">
+        <v>1260</v>
+      </c>
       <c r="H45">
         <v>1351</v>
       </c>
       <c r="K45">
         <f>SUM(B45:E45)</f>
-        <v>1254</v>
+        <v>2609</v>
       </c>
       <c r="L45">
         <f>SUM(F45:I45)</f>
-        <v>1351</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2285,1402 +2330,1612 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <f>1704-C50-B50</f>
-        <v>1704</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f>1083-G50-F50</f>
-        <v>1083</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
-        <f t="shared" ref="K49:K60" si="33">SUM(B49:E49)</f>
-        <v>1704</v>
-      </c>
-      <c r="L49" s="3">
-        <f t="shared" ref="L49:L60" si="34">SUM(F49:I49)</f>
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <f>276-C50-B50</f>
-        <v>276</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <f>315-G50-F50</f>
-        <v>315</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
-        <f t="shared" si="33"/>
-        <v>276</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" si="34"/>
-        <v>315</v>
+    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="str">
+        <f>B1</f>
+        <v>Q123</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" ref="C49:L49" si="35">C1</f>
+        <v>Q223</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q323</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q423</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q124</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q224</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q324</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Q424</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="35"/>
+        <v>2023</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="35"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <f>1196-B51</f>
+        <v>1196</v>
+      </c>
       <c r="D51" s="3">
-        <f>140-C51-B51</f>
-        <v>140</v>
+        <f>1704-C52-B52</f>
+        <v>1526</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3">
+        <f>840-F51</f>
+        <v>840</v>
+      </c>
       <c r="H51" s="3">
-        <f>139-G51-F51</f>
-        <v>139</v>
+        <f>1083-G52-F52</f>
+        <v>876</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="33"/>
-        <v>140</v>
+        <f t="shared" ref="K51:K62" si="36">SUM(B51:E51)</f>
+        <v>2722</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="34"/>
-        <v>139</v>
+        <f t="shared" ref="L51:L62" si="37">SUM(F51:I51)</f>
+        <v>1716</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3">
+        <f>178-B52</f>
+        <v>178</v>
+      </c>
       <c r="D52" s="3">
-        <f>21-C52-B52</f>
-        <v>21</v>
+        <f>276-C52-B52</f>
+        <v>98</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3">
+        <f>207-F52</f>
+        <v>207</v>
+      </c>
       <c r="H52" s="3">
-        <f>7-G52-F52</f>
-        <v>7</v>
+        <f>315-G52-F52</f>
+        <v>108</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="36"/>
+        <v>276</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="34"/>
-        <v>7</v>
+        <f t="shared" si="37"/>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3">
+        <f>92-B53</f>
+        <v>92</v>
+      </c>
       <c r="D53" s="3">
-        <f>-63-SUM(B53:C53)</f>
-        <v>-63</v>
+        <f>140-C53-B53</f>
+        <v>48</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3">
+        <f>92-F53</f>
+        <v>92</v>
+      </c>
       <c r="H53" s="3">
-        <f>-31-SUM(F53:G53)</f>
-        <v>-31</v>
+        <f>139-G53-F53</f>
+        <v>47</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3">
-        <f t="shared" si="33"/>
-        <v>-63</v>
+        <f t="shared" si="36"/>
+        <v>140</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="34"/>
-        <v>-31</v>
+        <f t="shared" si="37"/>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3">
+        <f>20-B54</f>
+        <v>20</v>
+      </c>
       <c r="D54" s="3">
-        <f>136-C54-B54</f>
-        <v>136</v>
+        <f>21-C54-B54</f>
+        <v>1</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <f>7-F54</f>
+        <v>7</v>
+      </c>
       <c r="H54" s="3">
-        <f>276-G54-F54</f>
-        <v>276</v>
+        <f>7-G54-F54</f>
+        <v>0</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3">
-        <f t="shared" si="33"/>
-        <v>136</v>
+        <f t="shared" si="36"/>
+        <v>21</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="34"/>
-        <v>276</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3">
+        <f>-46-B55</f>
+        <v>-46</v>
+      </c>
       <c r="D55" s="3">
-        <f>618-C55-B55</f>
-        <v>618</v>
+        <f>-63-SUM(B55:C55)</f>
+        <v>-17</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <f>-79-F55</f>
+        <v>-79</v>
+      </c>
       <c r="H55" s="3">
-        <f>52-G55-F55</f>
-        <v>52</v>
+        <f>-31-SUM(F55:G55)</f>
+        <v>48</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3">
-        <f t="shared" si="33"/>
-        <v>618</v>
+        <f t="shared" si="36"/>
+        <v>-63</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="34"/>
-        <v>52</v>
+        <f t="shared" si="37"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3">
+        <f>78-B56</f>
+        <v>78</v>
+      </c>
       <c r="D56" s="3">
-        <f>-319-C56-B56</f>
-        <v>-319</v>
+        <f>136-C56-B56</f>
+        <v>58</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3">
+        <f>130-F56</f>
+        <v>130</v>
+      </c>
       <c r="H56" s="3">
-        <f>-31-G56-F56</f>
-        <v>-31</v>
+        <f>276-G56-F56</f>
+        <v>146</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3">
-        <f t="shared" si="33"/>
-        <v>-319</v>
+        <f t="shared" si="36"/>
+        <v>136</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="34"/>
-        <v>-31</v>
+        <f t="shared" si="37"/>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <f>445-B57</f>
+        <v>445</v>
+      </c>
       <c r="D57" s="3">
-        <f>-1602-C57-B57</f>
-        <v>-1602</v>
+        <f>618-C57-B57</f>
+        <v>173</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3">
+        <f>105-F57</f>
+        <v>105</v>
+      </c>
       <c r="H57" s="3">
-        <f>482-G57-F57</f>
-        <v>482</v>
+        <f>52-G57-F57</f>
+        <v>-53</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3">
-        <f t="shared" si="33"/>
-        <v>-1602</v>
+        <f t="shared" si="36"/>
+        <v>618</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="34"/>
-        <v>482</v>
+        <f t="shared" si="37"/>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3">
+        <f>-188-B58</f>
+        <v>-188</v>
+      </c>
       <c r="D58" s="3">
-        <f>-1443-C58-B58</f>
-        <v>-1443</v>
+        <f>-319-C58-B58</f>
+        <v>-131</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3">
+        <f>-24-F58</f>
+        <v>-24</v>
+      </c>
       <c r="H58" s="3">
-        <f>-256-G58-F58</f>
-        <v>-256</v>
+        <f>-31-G58-F58</f>
+        <v>-7</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3">
-        <f t="shared" si="33"/>
-        <v>-1443</v>
+        <f t="shared" si="36"/>
+        <v>-319</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="34"/>
-        <v>-256</v>
+        <f t="shared" si="37"/>
+        <v>-31</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3">
+        <f>-1380-B59</f>
+        <v>-1380</v>
+      </c>
       <c r="D59" s="3">
-        <f>-101-C59-B59</f>
-        <v>-101</v>
+        <f>-1602-C59-B59</f>
+        <v>-222</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3">
+        <f>-136-F59</f>
+        <v>-136</v>
+      </c>
       <c r="H59" s="3">
-        <f>-1217-G59-F59</f>
-        <v>-1217</v>
+        <f>482-G59-F59</f>
+        <v>618</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3">
-        <f t="shared" si="33"/>
-        <v>-101</v>
+        <f t="shared" si="36"/>
+        <v>-1602</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="34"/>
-        <v>-1217</v>
+        <f t="shared" si="37"/>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3">
+        <f>-1379-B60</f>
+        <v>-1379</v>
+      </c>
       <c r="D60" s="3">
-        <f>25-C60-B60</f>
-        <v>25</v>
+        <f>-1443-C60-B60</f>
+        <v>-64</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="3">
+        <f>-495-F60</f>
+        <v>-495</v>
+      </c>
       <c r="H60" s="3">
-        <f>-543-G60-F60</f>
-        <v>-543</v>
+        <f>-256-G60-F60</f>
+        <v>239</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
+        <v>-1443</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="37"/>
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <f>202-B61</f>
+        <v>202</v>
+      </c>
+      <c r="D61" s="3">
+        <f>-101-C61-B61</f>
+        <v>-303</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f>-638-F61</f>
+        <v>-638</v>
+      </c>
+      <c r="H61" s="3">
+        <f>-1217-G61-F61</f>
+        <v>-579</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3">
+        <f t="shared" si="36"/>
+        <v>-101</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="37"/>
+        <v>-1217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3">
+        <f>-58-B62</f>
+        <v>-58</v>
+      </c>
+      <c r="D62" s="3">
+        <f>25-C62-B62</f>
+        <v>83</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <f>-524-F62</f>
+        <v>-524</v>
+      </c>
+      <c r="H62" s="3">
+        <f>-543-G62-F62</f>
+        <v>-19</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
-      <c r="L60" s="3">
-        <f t="shared" si="34"/>
+      <c r="L62" s="3">
+        <f t="shared" si="37"/>
         <v>-543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="4">
-        <f t="shared" ref="B61:C61" si="35">SUM(B49:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <f>SUM(D49:D60)</f>
-        <v>-608</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" ref="E61:L61" si="36">SUM(E49:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <f t="shared" si="36"/>
-        <v>276</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <f t="shared" si="36"/>
-        <v>-608</v>
-      </c>
-      <c r="L61" s="4">
-        <f t="shared" si="36"/>
-        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" ref="B63:C63" si="38">SUM(B51:B62)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="38"/>
+        <v>-840</v>
+      </c>
+      <c r="D63" s="4">
+        <f>SUM(D51:D62)</f>
+        <v>1250</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" ref="E63:L63" si="39">SUM(E51:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="39"/>
+        <v>-515</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="39"/>
+        <v>1424</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
+        <f t="shared" si="39"/>
+        <v>410</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="39"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="str">
+        <f>B49</f>
+        <v>Q123</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" ref="C65:L65" si="40">C49</f>
+        <v>Q223</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q323</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q423</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q124</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q224</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q324</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>Q424</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="40"/>
+        <v>2023</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="40"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3">
-        <v>4322</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <v>1801</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="K64" s="3">
-        <f t="shared" ref="K64:K69" si="37">SUM(B64:E64)</f>
-        <v>4322</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" ref="L64:L69" si="38">SUM(F64:I64)</f>
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3">
-        <v>133</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <v>212</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="K65" s="3">
-        <f t="shared" si="37"/>
-        <v>133</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="38"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3">
-        <v>24249</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <v>24062</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="K66" s="3">
-        <f t="shared" si="37"/>
-        <v>24249</v>
-      </c>
-      <c r="L66" s="3">
-        <f t="shared" si="38"/>
-        <v>24062</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3">
-        <v>380</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3">
-        <v>274</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="K67" s="3">
-        <f t="shared" si="37"/>
-        <v>380</v>
-      </c>
-      <c r="L67" s="3">
-        <f t="shared" si="38"/>
-        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3">
-        <v>5545</v>
-      </c>
-      <c r="E68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>4322</v>
+      </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="3">
+        <v>2002</v>
+      </c>
       <c r="H68" s="3">
-        <v>5930</v>
+        <v>1801</v>
       </c>
       <c r="I68" s="3"/>
       <c r="K68" s="3">
-        <f t="shared" si="37"/>
-        <v>5545</v>
+        <f>SUM(B68:E68)</f>
+        <v>4322</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="38"/>
-        <v>5930</v>
+        <f t="shared" ref="L68:L73" si="41">SUM(F68:I68)</f>
+        <v>3803</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3">
-        <v>1417</v>
-      </c>
-      <c r="E69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>133</v>
+      </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="G69">
+        <v>246</v>
+      </c>
       <c r="H69" s="3">
-        <v>1406</v>
+        <v>212</v>
       </c>
       <c r="I69" s="3"/>
       <c r="K69" s="3">
-        <f t="shared" si="37"/>
-        <v>1417</v>
+        <f>SUM(B69:E69)</f>
+        <v>133</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="38"/>
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="4">
-        <f t="shared" ref="B70:I70" si="39">SUM(B64:B69)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" si="39"/>
-        <v>36046</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
-        <f t="shared" si="39"/>
-        <v>33685</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4">
-        <f>SUM(K64:K69)</f>
-        <v>36046</v>
-      </c>
-      <c r="L70" s="4">
-        <f>SUM(L64:L69)</f>
-        <v>33685</v>
+        <f t="shared" si="41"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>24249</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3">
+        <v>23868</v>
+      </c>
+      <c r="H70" s="3">
+        <v>24062</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="K70" s="3">
+        <f>SUM(B70:E70)</f>
+        <v>24249</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="41"/>
+        <v>47930</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3">
-        <v>723</v>
-      </c>
-      <c r="E71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>380</v>
+      </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="3">
+        <v>230</v>
+      </c>
       <c r="H71" s="3">
-        <v>649</v>
+        <v>274</v>
       </c>
       <c r="I71" s="3"/>
       <c r="K71" s="3">
-        <f t="shared" ref="K71:K78" si="40">SUM(B71:E71)</f>
-        <v>723</v>
+        <f>SUM(B71:E71)</f>
+        <v>380</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" ref="L71:L78" si="41">SUM(F71:I71)</f>
-        <v>649</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="41"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3">
-        <v>1913</v>
-      </c>
-      <c r="E72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>5545</v>
+      </c>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="3">
+        <v>5951</v>
+      </c>
       <c r="H72" s="3">
-        <v>1980</v>
+        <v>5930</v>
       </c>
       <c r="I72" s="3"/>
       <c r="K72" s="3">
-        <f t="shared" si="40"/>
-        <v>1913</v>
+        <f>SUM(B72:E72)</f>
+        <v>5545</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="41"/>
-        <v>1980</v>
+        <v>11881</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3">
-        <v>479</v>
-      </c>
-      <c r="E73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <v>1417</v>
+      </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="3">
+        <v>1354</v>
+      </c>
       <c r="H73" s="3">
-        <v>532</v>
+        <v>1406</v>
       </c>
       <c r="I73" s="3"/>
       <c r="K73" s="3">
-        <f t="shared" si="40"/>
-        <v>479</v>
+        <f>SUM(B73:E73)</f>
+        <v>1417</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="41"/>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3">
-        <v>3614</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3">
-        <v>3615</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="K74" s="3">
-        <f t="shared" si="40"/>
-        <v>3614</v>
-      </c>
-      <c r="L74" s="3">
-        <f t="shared" si="41"/>
-        <v>3615</v>
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" ref="B74:I74" si="42">SUM(B68:B73)</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <f>SUM(D68:D73)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <f>SUM(E68:E73)</f>
+        <v>36046</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="42"/>
+        <v>33651</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="42"/>
+        <v>33685</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4">
+        <f>SUM(K68:K73)</f>
+        <v>36046</v>
+      </c>
+      <c r="L74" s="4">
+        <f>SUM(L68:L73)</f>
+        <v>67336</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3">
-        <v>1292</v>
-      </c>
-      <c r="E75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <v>723</v>
+      </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3">
+        <v>645</v>
+      </c>
       <c r="H75" s="3">
-        <v>1251</v>
+        <v>649</v>
       </c>
       <c r="I75" s="3"/>
       <c r="K75" s="3">
-        <f t="shared" si="40"/>
-        <v>1292</v>
+        <f t="shared" ref="K75:K82" si="43">SUM(B75:E75)</f>
+        <v>723</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="41"/>
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L75:L82" si="44">SUM(F75:I75)</f>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3">
-        <v>979</v>
-      </c>
-      <c r="E76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
+        <v>1913</v>
+      </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="3">
+        <v>1909</v>
+      </c>
       <c r="H76" s="3">
-        <v>957</v>
+        <v>1980</v>
       </c>
       <c r="I76" s="3"/>
       <c r="K76" s="3">
-        <f t="shared" si="40"/>
-        <v>979</v>
+        <f t="shared" si="43"/>
+        <v>1913</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="41"/>
-        <v>957</v>
+        <f t="shared" si="44"/>
+        <v>3889</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3">
-        <v>136</v>
-      </c>
-      <c r="E77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
+        <v>479</v>
+      </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="3">
+        <v>615</v>
+      </c>
       <c r="H77" s="3">
-        <v>159</v>
+        <v>532</v>
       </c>
       <c r="I77" s="3"/>
       <c r="K77" s="3">
-        <f t="shared" si="40"/>
-        <v>136</v>
+        <f t="shared" si="43"/>
+        <v>479</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="41"/>
-        <v>159</v>
+        <f t="shared" si="44"/>
+        <v>1147</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3">
-        <v>1085</v>
-      </c>
-      <c r="E78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <v>3614</v>
+      </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="3">
+        <v>3599</v>
+      </c>
       <c r="H78" s="3">
-        <v>1205</v>
+        <v>3615</v>
       </c>
       <c r="I78" s="3"/>
       <c r="K78" s="3">
-        <f t="shared" si="40"/>
-        <v>1085</v>
+        <f t="shared" si="43"/>
+        <v>3614</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="41"/>
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="4">
-        <f t="shared" ref="B79:C79" si="42">SUM(B70:B78)</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="4">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="4">
-        <f t="shared" ref="D79:I79" si="43">SUM(D70:D78)</f>
-        <v>46267</v>
-      </c>
-      <c r="E79" s="4">
+        <f t="shared" si="44"/>
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <v>1292</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <v>1247</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1251</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="K79" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
+        <v>1292</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="44"/>
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
+        <v>979</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3">
+        <v>942</v>
+      </c>
+      <c r="H80" s="3">
+        <v>957</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="K80" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
+        <v>979</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="44"/>
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <v>136</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3">
+        <v>133</v>
+      </c>
+      <c r="H81" s="3">
+        <v>159</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="K81" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="4">
-        <f t="shared" si="43"/>
-        <v>44033</v>
-      </c>
-      <c r="I79" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4">
-        <f>SUM(K70:K78)</f>
-        <v>46267</v>
-      </c>
-      <c r="L79" s="4">
-        <f>SUM(L70:L78)</f>
-        <v>44033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="44"/>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3">
-        <v>27326</v>
-      </c>
-      <c r="E82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
+        <v>1085</v>
+      </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="3">
+        <v>1218</v>
+      </c>
       <c r="H82" s="3">
-        <v>27300</v>
+        <v>1205</v>
       </c>
       <c r="I82" s="3"/>
       <c r="K82" s="3">
-        <f t="shared" ref="K82:K88" si="44">SUM(B82:E82)</f>
-        <v>27326</v>
+        <f t="shared" si="43"/>
+        <v>1085</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" ref="L82:L88" si="45">SUM(F82:I82)</f>
-        <v>27300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3">
-        <v>146</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3">
-        <v>48</v>
-      </c>
-      <c r="I83" s="3"/>
-      <c r="K83" s="3">
         <f t="shared" si="44"/>
-        <v>146</v>
-      </c>
-      <c r="L83" s="3">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" ref="B83:C83" si="45">SUM(B74:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
         <f t="shared" si="45"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3">
-        <v>3611</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3">
-        <v>2409</v>
-      </c>
-      <c r="I84" s="3"/>
-      <c r="K84" s="3">
-        <f t="shared" si="44"/>
-        <v>3611</v>
-      </c>
-      <c r="L84" s="3">
-        <f t="shared" si="45"/>
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3">
-        <v>35</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3">
-        <v>36</v>
-      </c>
-      <c r="I85" s="3"/>
-      <c r="K85" s="3">
-        <f t="shared" si="44"/>
-        <v>35</v>
-      </c>
-      <c r="L85" s="3">
-        <f t="shared" si="45"/>
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" ref="D83:I83" si="46">SUM(D74:D82)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" ref="E83" si="47">SUM(E74:E82)</f>
+        <v>46267</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="46"/>
+        <v>43959</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="46"/>
+        <v>44033</v>
+      </c>
+      <c r="I83" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4">
+        <f>SUM(K74:K82)</f>
+        <v>46267</v>
+      </c>
+      <c r="L83" s="4">
+        <f>SUM(L74:L82)</f>
+        <v>87992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3">
-        <v>476</v>
-      </c>
-      <c r="E86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
+        <v>27326</v>
+      </c>
       <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="3">
+        <v>26808</v>
+      </c>
       <c r="H86" s="3">
-        <v>450</v>
+        <v>27300</v>
       </c>
       <c r="I86" s="3"/>
       <c r="K86" s="3">
-        <f t="shared" si="44"/>
-        <v>476</v>
+        <f t="shared" ref="K86:K92" si="48">SUM(B86:E86)</f>
+        <v>27326</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="45"/>
-        <v>450</v>
+        <f t="shared" ref="L86:L92" si="49">SUM(F86:I86)</f>
+        <v>54108</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3">
-        <v>216</v>
-      </c>
-      <c r="E87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
+        <v>146</v>
+      </c>
       <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="G87" s="3">
+        <v>60</v>
+      </c>
       <c r="H87" s="3">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="I87" s="3"/>
       <c r="K87" s="3">
-        <f t="shared" si="44"/>
-        <v>216</v>
+        <f t="shared" si="48"/>
+        <v>146</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="45"/>
-        <v>145</v>
+        <f t="shared" si="49"/>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3">
-        <v>6307</v>
-      </c>
-      <c r="E88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
+        <v>3611</v>
+      </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="G88" s="3">
+        <v>2911</v>
+      </c>
       <c r="H88" s="3">
-        <v>5876</v>
+        <v>2409</v>
       </c>
       <c r="I88" s="3"/>
       <c r="K88" s="3">
-        <f t="shared" si="44"/>
-        <v>6307</v>
+        <f t="shared" si="48"/>
+        <v>3611</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="45"/>
-        <v>5876</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="4">
-        <f t="shared" ref="B89:C89" si="46">SUM(B82:B88)</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="4">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
-        <f>SUM(D82:D88)</f>
-        <v>38117</v>
-      </c>
-      <c r="E89" s="4">
-        <f t="shared" ref="E89:L89" si="47">SUM(E82:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="4">
-        <f t="shared" si="47"/>
-        <v>36264</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4">
-        <f t="shared" si="47"/>
-        <v>38117</v>
-      </c>
-      <c r="L89" s="4">
-        <f t="shared" si="47"/>
-        <v>36264</v>
+        <f t="shared" si="49"/>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <v>35</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3">
+        <v>44</v>
+      </c>
+      <c r="H89" s="3">
+        <v>36</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="K89" s="3">
+        <f t="shared" si="48"/>
+        <v>35</v>
+      </c>
+      <c r="L89" s="3">
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3">
-        <v>54</v>
-      </c>
-      <c r="E90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
+        <v>476</v>
+      </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="G90" s="3">
+        <v>443</v>
+      </c>
       <c r="H90" s="3">
-        <v>57</v>
+        <v>450</v>
       </c>
       <c r="I90" s="3"/>
       <c r="K90" s="3">
-        <f>SUM(B90:E90)</f>
-        <v>54</v>
+        <f t="shared" si="48"/>
+        <v>476</v>
       </c>
       <c r="L90" s="3">
-        <f>SUM(F90:I90)</f>
-        <v>57</v>
+        <f t="shared" si="49"/>
+        <v>893</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3">
+        <v>216</v>
+      </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="G91" s="3">
+        <v>178</v>
+      </c>
+      <c r="H91" s="3">
+        <v>145</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="K91" s="3">
-        <f>SUM(B91:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" s="4">
-        <f t="shared" ref="B92:C92" si="48">B79-B89-B90</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="4">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="4">
-        <f>D79-D89-D90</f>
-        <v>8096</v>
-      </c>
-      <c r="E92" s="4">
-        <f t="shared" ref="E92:L92" si="49">E79-E89-E90</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
+        <v>216</v>
+      </c>
+      <c r="L91" s="3">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <v>6307</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3">
+        <v>5853</v>
+      </c>
+      <c r="H92" s="3">
+        <v>5876</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="K92" s="3">
+        <f t="shared" si="48"/>
+        <v>6307</v>
+      </c>
+      <c r="L92" s="3">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
-        <f t="shared" si="49"/>
-        <v>7712</v>
-      </c>
-      <c r="I92" s="4">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4">
-        <f t="shared" si="49"/>
-        <v>8096</v>
-      </c>
-      <c r="L92" s="4">
-        <f t="shared" si="49"/>
-        <v>7712</v>
+        <v>11729</v>
       </c>
     </row>
     <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" ref="B93:C93" si="50">SUM(B86:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f>SUM(D86:D92)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <f>SUM(E86:E92)</f>
+        <v>38117</v>
+      </c>
+      <c r="F93" s="4">
+        <f t="shared" ref="E93:L93" si="51">SUM(F86:F92)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" si="51"/>
+        <v>36297</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" si="51"/>
+        <v>36264</v>
+      </c>
+      <c r="I93" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4">
+        <f t="shared" si="51"/>
+        <v>38117</v>
+      </c>
+      <c r="L93" s="4">
+        <f t="shared" si="51"/>
+        <v>72561</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3">
-        <v>25</v>
-      </c>
-      <c r="E94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
+        <v>54</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I94" s="3"/>
       <c r="K94" s="3">
-        <f t="shared" ref="K94:K99" si="50">SUM(B94:E94)</f>
-        <v>25</v>
+        <f>SUM(B94:E94)</f>
+        <v>54</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" ref="L94:L99" si="51">SUM(F94:I94)</f>
-        <v>25</v>
+        <f>SUM(F94:I94)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>54</v>
-      </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3">
-        <v>-865</v>
-      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3">
-        <v>-1376</v>
-      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="K95" s="3">
-        <f t="shared" si="50"/>
-        <v>-865</v>
-      </c>
-      <c r="L95" s="3">
-        <f t="shared" si="51"/>
-        <v>-1376</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3">
-        <v>1578</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3">
-        <v>1415</v>
-      </c>
-      <c r="I96" s="3"/>
-      <c r="K96" s="3">
-        <f t="shared" si="50"/>
-        <v>1578</v>
-      </c>
-      <c r="L96" s="3">
-        <f t="shared" si="51"/>
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3">
-        <v>9654</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3">
-        <v>10136</v>
-      </c>
-      <c r="I97" s="3"/>
-      <c r="K97" s="3">
-        <f t="shared" si="50"/>
-        <v>9654</v>
-      </c>
-      <c r="L97" s="3">
-        <f t="shared" si="51"/>
-        <v>10136</v>
-      </c>
+        <f>SUM(B95:E95)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="4">
+        <f t="shared" ref="B96:C96" si="52">B83-B93-B94</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f>D83-D93-D94</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" ref="E96:L96" si="53">E83-E93-E94</f>
+        <v>8096</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" si="53"/>
+        <v>7662</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" si="53"/>
+        <v>7712</v>
+      </c>
+      <c r="I96" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4">
+        <f t="shared" si="53"/>
+        <v>8096</v>
+      </c>
+      <c r="L96" s="4">
+        <f t="shared" si="53"/>
+        <v>15374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3">
-        <v>-2362</v>
-      </c>
-      <c r="E98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
+        <v>25</v>
+      </c>
       <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="3">
+        <v>25</v>
+      </c>
       <c r="H98" s="3">
-        <v>-2557</v>
+        <v>25</v>
       </c>
       <c r="I98" s="3"/>
       <c r="K98" s="3">
-        <f t="shared" si="50"/>
-        <v>-2362</v>
+        <f t="shared" ref="K98:K103" si="54">SUM(B98:E98)</f>
+        <v>25</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="51"/>
-        <v>-2557</v>
+        <f t="shared" ref="L98:L103" si="55">SUM(F98:I98)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3">
-        <v>66</v>
-      </c>
-      <c r="E99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
+        <v>-865</v>
+      </c>
       <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="G99" s="3">
+        <v>-1317</v>
+      </c>
       <c r="H99" s="3">
-        <v>69</v>
+        <v>-1376</v>
       </c>
       <c r="I99" s="3"/>
       <c r="K99" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
+        <v>-865</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="55"/>
+        <v>-2693</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
+        <v>1578</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3">
+        <v>1401</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1415</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="K100" s="3">
+        <f t="shared" si="54"/>
+        <v>1578</v>
+      </c>
+      <c r="L100" s="3">
+        <f t="shared" si="55"/>
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>9654</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3">
+        <v>9993</v>
+      </c>
+      <c r="H101" s="3">
+        <v>10136</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="K101" s="3">
+        <f t="shared" si="54"/>
+        <v>9654</v>
+      </c>
+      <c r="L101" s="3">
+        <f t="shared" si="55"/>
+        <v>20129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
+        <v>-2362</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3">
+        <v>-2564</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2557</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="K102" s="3">
+        <f t="shared" si="54"/>
+        <v>-2362</v>
+      </c>
+      <c r="L102" s="3">
+        <f t="shared" si="55"/>
+        <v>-5121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3">
         <v>66</v>
       </c>
-      <c r="L99" s="3">
-        <f t="shared" si="51"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3">
+        <v>64</v>
+      </c>
+      <c r="H103" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="I103" s="3"/>
+      <c r="K103" s="3">
+        <f t="shared" si="54"/>
+        <v>66</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="55"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B100" s="4">
-        <f t="shared" ref="B100:C100" si="52">SUM(B94:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="4">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="4">
-        <f>SUM(D94:D99)</f>
+      <c r="B104" s="4">
+        <f t="shared" ref="B104:C104" si="56">SUM(B98:B103)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <f>SUM(D98:D103)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" ref="E104:L104" si="57">SUM(E98:E103)</f>
         <v>8096</v>
       </c>
-      <c r="E100" s="4">
-        <f t="shared" ref="E100:L100" si="53">SUM(E94:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="4">
-        <f t="shared" si="53"/>
+      <c r="F104" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="57"/>
+        <v>7602</v>
+      </c>
+      <c r="H104" s="4">
+        <f t="shared" si="57"/>
         <v>7712</v>
       </c>
-      <c r="I100" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4">
-        <f t="shared" si="53"/>
+      <c r="I104" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4">
+        <f t="shared" si="57"/>
         <v>8096</v>
       </c>
-      <c r="L100" s="4">
-        <f t="shared" si="53"/>
-        <v>7712</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="L104" s="4">
+        <f t="shared" si="57"/>
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="4">
-        <f t="shared" ref="B101:C101" si="54">B100+B90+B89</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="4">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="4">
-        <f>D100+D90+D89</f>
+      <c r="B105" s="4">
+        <f t="shared" ref="B105:C105" si="58">B104+B94+B93</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <f>D104+D94+D93</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" ref="E105:L105" si="59">E104+E94+E93</f>
         <v>46267</v>
       </c>
-      <c r="E101" s="4">
-        <f t="shared" ref="E101:L101" si="55">E100+E90+E89</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="4">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="4">
-        <f t="shared" si="55"/>
+      <c r="F105" s="4">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <f t="shared" si="59"/>
+        <v>43899</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" si="59"/>
         <v>44033</v>
       </c>
-      <c r="I101" s="4">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4">
-        <f t="shared" si="55"/>
+      <c r="I105" s="4">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4">
+        <f t="shared" si="59"/>
         <v>46267</v>
       </c>
-      <c r="L101" s="4">
-        <f t="shared" si="55"/>
-        <v>44033</v>
+      <c r="L105" s="4">
+        <f t="shared" si="59"/>
+        <v>87932</v>
       </c>
     </row>
   </sheetData>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="748" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12FC9C0-154A-45B0-AB6F-BB3EDB4BED83}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1EBC24-DDBC-4684-8B2A-9C7596C872B5}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="model" sheetId="1" r:id="rId2"/>
     <sheet name="notes" sheetId="4" r:id="rId3"/>
-    <sheet name="M&amp;A" sheetId="3" r:id="rId4"/>
+    <sheet name="M&amp;A,Ptshp" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>Revenues</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t xml:space="preserve">FCF = outflow of $100M-$300M, previously inflow of $700M-$900M mainly due to decreased equipment deliveries and lower production levels. </t>
+  </si>
+  <si>
+    <t>Ptshp with Intelsat, large integrated satellite and terrestrial comms network, to provide farmers access to internet via ruggedized sat comms service. Multi-orbin internet access to connect CNH equipment working in remote locations and easy-to-use sat terminals for farm environment. Roll-out in Brazil (19% of ag acreage had internet access).</t>
   </si>
 </sst>
 </file>
@@ -999,9 +1002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G104" sqref="G104"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2892,11 +2895,11 @@
       </c>
       <c r="I68" s="3"/>
       <c r="K68" s="3">
-        <f>SUM(B68:E68)</f>
+        <f t="shared" ref="K68:K73" si="41">SUM(B68:E68)</f>
         <v>4322</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68:L73" si="41">SUM(F68:I68)</f>
+        <f t="shared" ref="L68:L73" si="42">SUM(F68:I68)</f>
         <v>3803</v>
       </c>
     </row>
@@ -2919,11 +2922,11 @@
       </c>
       <c r="I69" s="3"/>
       <c r="K69" s="3">
-        <f>SUM(B69:E69)</f>
+        <f t="shared" si="41"/>
         <v>133</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>458</v>
       </c>
     </row>
@@ -2946,11 +2949,11 @@
       </c>
       <c r="I70" s="3"/>
       <c r="K70" s="3">
-        <f>SUM(B70:E70)</f>
+        <f t="shared" si="41"/>
         <v>24249</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47930</v>
       </c>
     </row>
@@ -2973,11 +2976,11 @@
       </c>
       <c r="I71" s="3"/>
       <c r="K71" s="3">
-        <f>SUM(B71:E71)</f>
+        <f t="shared" si="41"/>
         <v>380</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>504</v>
       </c>
     </row>
@@ -3000,11 +3003,11 @@
       </c>
       <c r="I72" s="3"/>
       <c r="K72" s="3">
-        <f>SUM(B72:E72)</f>
+        <f t="shared" si="41"/>
         <v>5545</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11881</v>
       </c>
     </row>
@@ -3027,11 +3030,11 @@
       </c>
       <c r="I73" s="3"/>
       <c r="K73" s="3">
-        <f>SUM(B73:E73)</f>
+        <f t="shared" si="41"/>
         <v>1417</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2760</v>
       </c>
     </row>
@@ -3040,11 +3043,11 @@
         <v>31</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ref="B74:I74" si="42">SUM(B68:B73)</f>
+        <f t="shared" ref="B74:I74" si="43">SUM(B68:B73)</f>
         <v>0</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="D74" s="4">
@@ -3056,19 +3059,19 @@
         <v>36046</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33651</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33685</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J74" s="4"/>
@@ -3100,11 +3103,11 @@
       </c>
       <c r="I75" s="3"/>
       <c r="K75" s="3">
-        <f t="shared" ref="K75:K82" si="43">SUM(B75:E75)</f>
+        <f t="shared" ref="K75:K82" si="44">SUM(B75:E75)</f>
         <v>723</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" ref="L75:L82" si="44">SUM(F75:I75)</f>
+        <f t="shared" ref="L75:L82" si="45">SUM(F75:I75)</f>
         <v>1294</v>
       </c>
     </row>
@@ -3127,11 +3130,11 @@
       </c>
       <c r="I76" s="3"/>
       <c r="K76" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1913</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3889</v>
       </c>
     </row>
@@ -3154,11 +3157,11 @@
       </c>
       <c r="I77" s="3"/>
       <c r="K77" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>479</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1147</v>
       </c>
     </row>
@@ -3181,11 +3184,11 @@
       </c>
       <c r="I78" s="3"/>
       <c r="K78" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3614</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7214</v>
       </c>
     </row>
@@ -3208,11 +3211,11 @@
       </c>
       <c r="I79" s="3"/>
       <c r="K79" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1292</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2498</v>
       </c>
     </row>
@@ -3235,11 +3238,11 @@
       </c>
       <c r="I80" s="3"/>
       <c r="K80" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>979</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1899</v>
       </c>
     </row>
@@ -3262,11 +3265,11 @@
       </c>
       <c r="I81" s="3"/>
       <c r="K81" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>136</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>292</v>
       </c>
     </row>
@@ -3289,11 +3292,11 @@
       </c>
       <c r="I82" s="3"/>
       <c r="K82" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1085</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2423</v>
       </c>
     </row>
@@ -3302,35 +3305,35 @@
         <v>39</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" ref="B83:C83" si="45">SUM(B74:B82)</f>
+        <f t="shared" ref="B83:C83" si="46">SUM(B74:B82)</f>
         <v>0</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" ref="D83:I83" si="46">SUM(D74:D82)</f>
+        <f t="shared" ref="D83:I83" si="47">SUM(D74:D82)</f>
         <v>0</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" ref="E83" si="47">SUM(E74:E82)</f>
+        <f t="shared" ref="E83" si="48">SUM(E74:E82)</f>
         <v>46267</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>43959</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>44033</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J83" s="4"/>
@@ -3367,11 +3370,11 @@
       </c>
       <c r="I86" s="3"/>
       <c r="K86" s="3">
-        <f t="shared" ref="K86:K92" si="48">SUM(B86:E86)</f>
+        <f t="shared" ref="K86:K92" si="49">SUM(B86:E86)</f>
         <v>27326</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" ref="L86:L92" si="49">SUM(F86:I86)</f>
+        <f t="shared" ref="L86:L92" si="50">SUM(F86:I86)</f>
         <v>54108</v>
       </c>
     </row>
@@ -3394,11 +3397,11 @@
       </c>
       <c r="I87" s="3"/>
       <c r="K87" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>146</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>108</v>
       </c>
     </row>
@@ -3421,11 +3424,11 @@
       </c>
       <c r="I88" s="3"/>
       <c r="K88" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3611</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5320</v>
       </c>
     </row>
@@ -3448,11 +3451,11 @@
       </c>
       <c r="I89" s="3"/>
       <c r="K89" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>35</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>80</v>
       </c>
     </row>
@@ -3475,11 +3478,11 @@
       </c>
       <c r="I90" s="3"/>
       <c r="K90" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>476</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>893</v>
       </c>
     </row>
@@ -3502,11 +3505,11 @@
       </c>
       <c r="I91" s="3"/>
       <c r="K91" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>216</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>323</v>
       </c>
     </row>
@@ -3529,11 +3532,11 @@
       </c>
       <c r="I92" s="3"/>
       <c r="K92" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>6307</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>11729</v>
       </c>
     </row>
@@ -3542,11 +3545,11 @@
         <v>49</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" ref="B93:C93" si="50">SUM(B86:B92)</f>
+        <f t="shared" ref="B93:C93" si="51">SUM(B86:B92)</f>
         <v>0</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D93" s="4">
@@ -3558,28 +3561,28 @@
         <v>38117</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" ref="E93:L93" si="51">SUM(F86:F92)</f>
+        <f t="shared" ref="F93:L93" si="52">SUM(F86:F92)</f>
         <v>0</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>36297</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>36264</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>38117</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>72561</v>
       </c>
     </row>
@@ -3628,11 +3631,11 @@
         <v>51</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" ref="B96:C96" si="52">B83-B93-B94</f>
+        <f t="shared" ref="B96:C96" si="53">B83-B93-B94</f>
         <v>0</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D96" s="4">
@@ -3640,32 +3643,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" ref="E96:L96" si="53">E83-E93-E94</f>
+        <f t="shared" ref="E96:L96" si="54">E83-E93-E94</f>
         <v>8096</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7662</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7712</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8096</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15374</v>
       </c>
     </row>
@@ -3703,11 +3706,11 @@
       </c>
       <c r="I98" s="3"/>
       <c r="K98" s="3">
-        <f t="shared" ref="K98:K103" si="54">SUM(B98:E98)</f>
+        <f t="shared" ref="K98:K103" si="55">SUM(B98:E98)</f>
         <v>25</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" ref="L98:L103" si="55">SUM(F98:I98)</f>
+        <f t="shared" ref="L98:L103" si="56">SUM(F98:I98)</f>
         <v>50</v>
       </c>
     </row>
@@ -3730,11 +3733,11 @@
       </c>
       <c r="I99" s="3"/>
       <c r="K99" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-865</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-2693</v>
       </c>
     </row>
@@ -3757,11 +3760,11 @@
       </c>
       <c r="I100" s="3"/>
       <c r="K100" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1578</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2816</v>
       </c>
     </row>
@@ -3784,11 +3787,11 @@
       </c>
       <c r="I101" s="3"/>
       <c r="K101" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9654</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>20129</v>
       </c>
     </row>
@@ -3811,11 +3814,11 @@
       </c>
       <c r="I102" s="3"/>
       <c r="K102" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2362</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-5121</v>
       </c>
     </row>
@@ -3838,11 +3841,11 @@
       </c>
       <c r="I103" s="3"/>
       <c r="K103" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>66</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>133</v>
       </c>
     </row>
@@ -3851,11 +3854,11 @@
         <v>58</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" ref="B104:C104" si="56">SUM(B98:B103)</f>
+        <f t="shared" ref="B104:C104" si="57">SUM(B98:B103)</f>
         <v>0</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="D104" s="4">
@@ -3863,32 +3866,32 @@
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" ref="E104:L104" si="57">SUM(E98:E103)</f>
+        <f t="shared" ref="E104:L104" si="58">SUM(E98:E103)</f>
         <v>8096</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7602</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7712</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8096</v>
       </c>
       <c r="L104" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>15314</v>
       </c>
     </row>
@@ -3897,11 +3900,11 @@
         <v>59</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" ref="B105:C105" si="58">B104+B94+B93</f>
+        <f t="shared" ref="B105:C105" si="59">B104+B94+B93</f>
         <v>0</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="D105" s="4">
@@ -3909,32 +3912,32 @@
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" ref="E105:L105" si="59">E104+E94+E93</f>
+        <f t="shared" ref="E105:L105" si="60">E104+E94+E93</f>
         <v>46267</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>43899</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44033</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>46267</v>
       </c>
       <c r="L105" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>87932</v>
       </c>
     </row>
@@ -3947,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94513EC4-1B97-4D6C-8D6D-16D6671EAE05}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4019,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A4ED89-0403-4F67-9A5F-2AAFDE394116}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4031,19 +4034,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -4051,14 +4054,22 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>123</v>
       </c>
     </row>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="753" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1EBC24-DDBC-4684-8B2A-9C7596C872B5}"/>
+  <xr:revisionPtr revIDLastSave="762" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F23EC8C-EC0D-45E7-BE15-ED64401FB15F}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="model" sheetId="1" r:id="rId2"/>
     <sheet name="notes" sheetId="4" r:id="rId3"/>
-    <sheet name="M&amp;A,Ptshp" sheetId="3" r:id="rId4"/>
+    <sheet name="todo" sheetId="5" r:id="rId4"/>
+    <sheet name="M&amp;A,Ptshp" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>Revenues</t>
   </si>
@@ -468,6 +469,12 @@
   </si>
   <si>
     <t>Ptshp with Intelsat, large integrated satellite and terrestrial comms network, to provide farmers access to internet via ruggedized sat comms service. Multi-orbin internet access to connect CNH equipment working in remote locations and easy-to-use sat terminals for farm environment. Roll-out in Brazil (19% of ag acreage had internet access).</t>
+  </si>
+  <si>
+    <t>Fill in all quarters back to q122</t>
+  </si>
+  <si>
+    <t>De-merged from Iveco Group - starting Q122</t>
   </si>
 </sst>
 </file>
@@ -805,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE315A-F4FF-44A5-BD4C-9EF1E6AE5117}">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,176 +827,181 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>105</v>
+      <c r="D19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>108</v>
+      <c r="C24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>105</v>
+      <c r="D30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>118</v>
+      <c r="C34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3950,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94513EC4-1B97-4D6C-8D6D-16D6671EAE05}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4021,6 +4033,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8A0E6B-A220-4F07-99AE-595E7A5EC7D2}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A4ED89-0403-4F67-9A5F-2AAFDE394116}">
   <dimension ref="B2:C6"/>
   <sheetViews>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="762" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F23EC8C-EC0D-45E7-BE15-ED64401FB15F}"/>
+  <xr:revisionPtr revIDLastSave="1087" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F0F81C-EADC-49AD-86EF-DA93301142D2}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="3650" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18730" yWindow="3990" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -501,12 +501,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -521,13 +527,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE315A-F4FF-44A5-BD4C-9EF1E6AE5117}">
   <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1012,19 +1025,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0" style="8" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1050,91 +1064,131 @@
         <v>65</v>
       </c>
       <c r="K1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="L1" s="8">
         <v>2023</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="N1" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3">
+        <v>3927</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4890</v>
+      </c>
       <c r="D2" s="3">
         <v>4384</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <f>L2-D2-C2-B2</f>
+        <v>4947</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3373</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3913</v>
+      </c>
       <c r="H2" s="3">
         <v>3310</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K3" si="0">SUM(B2:E2)</f>
-        <v>4384</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" ref="L2:L3" si="1">SUM(F2:I2)</f>
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K2" s="6">
+        <v>17969</v>
+      </c>
+      <c r="L2" s="9">
+        <v>18148</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M3" si="0">SUM(B2:E2)</f>
+        <v>18148</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N3" si="1">SUM(F2:I2)</f>
+        <v>10596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>849</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1064</v>
+      </c>
       <c r="D3" s="3">
         <v>948</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3">
+        <f>L3-D3-C3-B3</f>
+        <v>1071</v>
+      </c>
+      <c r="F3" s="3">
+        <v>758</v>
+      </c>
+      <c r="G3" s="3">
+        <v>890</v>
+      </c>
       <c r="H3" s="3">
         <v>687</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
+        <v>3572</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3932</v>
+      </c>
+      <c r="M3" s="3">
         <f t="shared" si="0"/>
-        <v>948</v>
-      </c>
-      <c r="L3" s="3">
+        <v>3932</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="1"/>
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:C4" si="2">SUM(B2:B3)</f>
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5954</v>
       </c>
       <c r="D4" s="4">
         <f>SUM(D2:D3)</f>
         <v>5332</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:L4" si="3">SUM(E2:E3)</f>
-        <v>0</v>
+        <f t="shared" ref="E4:N4" si="3">SUM(E2:E3)</f>
+        <v>6018</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4131</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4803</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="3"/>
@@ -1147,92 +1201,134 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <f t="shared" si="3"/>
-        <v>5332</v>
-      </c>
-      <c r="L4" s="4">
+        <v>21541</v>
+      </c>
+      <c r="L4" s="10">
         <f t="shared" si="3"/>
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>22080</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="3"/>
+        <v>22080</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="3"/>
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>549</v>
+      </c>
+      <c r="C5" s="3">
+        <v>603</v>
+      </c>
       <c r="D5" s="3">
         <v>653</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <f>L5-D5-C5-B5</f>
+        <v>768</v>
+      </c>
+      <c r="F5" s="3">
+        <v>685</v>
+      </c>
+      <c r="G5" s="3">
+        <v>687</v>
+      </c>
       <c r="H5" s="3">
         <v>659</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <f t="shared" ref="K5:K6" si="4">SUM(B5:E5)</f>
-        <v>653</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ref="L5:L6" si="5">SUM(F5:I5)</f>
-        <v>659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K5" s="6">
+        <v>1996</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2573</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M6" si="4">SUM(B5:E5)</f>
+        <v>2573</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N6" si="5">SUM(F5:I5)</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <f>L6-D6-C6-B6</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-2</v>
+      </c>
       <c r="H6" s="3">
         <v>-2</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
+        <v>14</v>
+      </c>
+      <c r="L6" s="9">
+        <v>34</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
+        <v>34</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ref="B7:C7" si="6">SUM(B4:B6)</f>
-        <v>0</v>
+        <v>5342</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="D7" s="4">
         <f>SUM(D4:D6)</f>
         <v>5986</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:L7" si="7">SUM(E4:E6)</f>
-        <v>0</v>
+        <f t="shared" ref="E7:N7" si="7">SUM(E4:E6)</f>
+        <v>6792</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4818</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5488</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="7"/>
@@ -1245,14 +1341,22 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <f t="shared" si="7"/>
-        <v>5986</v>
-      </c>
-      <c r="L7" s="4">
+        <v>23551</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="7"/>
-        <v>4654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>24687</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="7"/>
+        <v>24687</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="7"/>
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1262,140 +1366,212 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>1488</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1872</v>
+      </c>
       <c r="D10" s="3">
         <v>1807</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="3">
+        <f>L10-D10-C10-B10</f>
+        <v>1990</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1442</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1739</v>
+      </c>
       <c r="H10" s="3">
         <v>1402</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <f t="shared" ref="K10:K13" si="8">SUM(B10:E10)</f>
-        <v>1807</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" ref="L10:L13" si="9">SUM(F10:I10)</f>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K10" s="6">
+        <v>6769</v>
+      </c>
+      <c r="L10" s="9">
+        <v>7157</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M13" si="8">SUM(B10:E10)</f>
+        <v>7157</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N13" si="9">SUM(F10:I10)</f>
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3">
+        <v>1347</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1676</v>
+      </c>
       <c r="D11" s="3">
         <v>1202</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3">
+        <f>L11-D11-C11-B11</f>
+        <v>1653</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1118</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1191</v>
+      </c>
       <c r="H11" s="3">
         <v>905</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
+        <v>5776</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5878</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="8"/>
-        <v>1202</v>
-      </c>
-      <c r="L11" s="3">
+        <v>5878</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="9"/>
-        <v>905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>730</v>
+      </c>
+      <c r="C12" s="3">
+        <v>850</v>
+      </c>
       <c r="D12" s="3">
         <v>830</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <f>L12-D12-C12-B12</f>
+        <v>768</v>
+      </c>
+      <c r="F12" s="3">
+        <v>482</v>
+      </c>
+      <c r="G12" s="3">
+        <v>559</v>
+      </c>
       <c r="H12" s="3">
         <v>582</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
+        <v>3738</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3178</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="8"/>
-        <v>830</v>
-      </c>
-      <c r="L12" s="3">
+        <v>3178</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="9"/>
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>362</v>
+      </c>
+      <c r="C13" s="3">
+        <v>492</v>
+      </c>
       <c r="D13" s="3">
         <v>545</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3">
+        <f>L13-D13-C13-B13</f>
+        <v>536</v>
+      </c>
+      <c r="F13" s="3">
+        <v>331</v>
+      </c>
+      <c r="G13" s="3">
+        <v>424</v>
+      </c>
       <c r="H13" s="3">
         <v>421</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
+        <v>1686</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1935</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="8"/>
-        <v>545</v>
-      </c>
-      <c r="L13" s="3">
+        <v>1935</v>
+      </c>
+      <c r="N13" s="3">
         <f t="shared" si="9"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" ref="B14:C14" si="10">SUM(B10:B13)</f>
-        <v>0</v>
+        <v>3927</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D10:D13)</f>
@@ -1403,15 +1579,15 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" ref="E14:I14" si="11">SUM(E10:E13)</f>
-        <v>0</v>
+        <v>4947</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3373</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3913</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="11"/>
@@ -1423,15 +1599,23 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <f t="shared" ref="K14:L14" si="12">SUM(K10:K13)</f>
-        <v>4384</v>
-      </c>
-      <c r="L14" s="4">
+        <f t="shared" ref="K14:N14" si="12">SUM(K10:K13)</f>
+        <v>17969</v>
+      </c>
+      <c r="L14" s="10">
         <f t="shared" si="12"/>
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>18148</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="12"/>
+        <v>18148</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="12"/>
+        <v>10596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1441,88 +1625,110 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3">
+        <v>4767</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5942</v>
+      </c>
       <c r="D16" s="3">
         <v>5322</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3">
+        <v>4120</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4789</v>
+      </c>
       <c r="H16" s="3">
         <v>3986</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="K16" s="6"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="3">
         <f>SUM(B16:E16)</f>
-        <v>5322</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" ref="L16:L17" si="13">SUM(F16:I16)</f>
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16031</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16:N17" si="13">SUM(F16:I16)</f>
+        <v>12895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <v>14</v>
+      </c>
       <c r="H17" s="3">
         <v>11</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="K17" s="6"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="3">
         <f>SUM(B17:E17)</f>
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ref="B18:C18" si="14">B16+B17</f>
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5954</v>
       </c>
       <c r="D18" s="4">
         <f>D16+D17</f>
         <v>5332</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18:L18" si="15">E16+E17</f>
+        <f t="shared" ref="E18:N18" si="15">E16+E17</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4131</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4803</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="15"/>
@@ -1535,92 +1741,120 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4">
         <f t="shared" si="15"/>
-        <v>5332</v>
-      </c>
-      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="15"/>
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="15"/>
+        <v>16062</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="15"/>
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3">
+        <v>402</v>
+      </c>
+      <c r="C19" s="3">
+        <v>449</v>
+      </c>
       <c r="D19" s="3">
         <v>491</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3">
+        <v>536</v>
+      </c>
+      <c r="G19" s="3">
+        <v>548</v>
+      </c>
       <c r="H19" s="3">
         <v>519</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="K19" s="6"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="3">
         <f>SUM(B19:E19)</f>
-        <v>491</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" ref="L19:L20" si="16">SUM(F19:I19)</f>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1342</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19:N20" si="16">SUM(F19:I19)</f>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <v>164</v>
+      </c>
+      <c r="C20" s="3">
+        <v>164</v>
+      </c>
       <c r="D20" s="3">
         <v>163</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3">
+        <v>151</v>
+      </c>
+      <c r="G20" s="3">
+        <v>137</v>
+      </c>
       <c r="H20" s="3">
         <v>138</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="K20" s="6"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3">
         <f>SUM(B20:E20)</f>
-        <v>163</v>
-      </c>
-      <c r="L20" s="3">
+        <v>491</v>
+      </c>
+      <c r="N20" s="3">
         <f t="shared" si="16"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ref="B21:C21" si="17">+B19+B20+B18</f>
-        <v>0</v>
+        <v>5342</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6567</v>
       </c>
       <c r="D21" s="4">
         <f>+D19+D20+D18</f>
         <v>5986</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:L21" si="18">+E19+E20+E18</f>
+        <f t="shared" ref="E21:N21" si="18">+E19+E20+E18</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4818</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5488</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="18"/>
@@ -1633,31 +1867,52 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4">
         <f t="shared" si="18"/>
-        <v>5986</v>
-      </c>
-      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
         <f t="shared" si="18"/>
-        <v>4654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="18"/>
+        <v>17895</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="18"/>
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="7"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K23" s="7"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
+      <c r="B24">
+        <v>4776</v>
+      </c>
       <c r="C24" s="3">
         <v>5954</v>
       </c>
       <c r="D24" s="3">
         <v>5332</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <f>L24-D24-C24-B24</f>
+        <v>6018</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4131</v>
+      </c>
       <c r="G24" s="3">
         <v>4803</v>
       </c>
@@ -1665,27 +1920,42 @@
         <v>3997</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="K24" s="3">
+      <c r="J24" s="3"/>
+      <c r="K24" s="6">
+        <v>21541</v>
+      </c>
+      <c r="L24" s="9">
+        <v>22080</v>
+      </c>
+      <c r="M24" s="3">
         <f>SUM(B24:E24)</f>
-        <v>11286</v>
-      </c>
-      <c r="L24" s="3">
+        <v>22080</v>
+      </c>
+      <c r="N24" s="3">
         <f>SUM(F24:I24)</f>
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
+      <c r="B25">
+        <v>566</v>
+      </c>
       <c r="C25" s="3">
         <v>613</v>
       </c>
       <c r="D25" s="3">
         <v>654</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <f>L25-D25-C25-B25</f>
+        <v>774</v>
+      </c>
+      <c r="F25" s="3">
+        <v>687</v>
+      </c>
       <c r="G25" s="3">
         <v>685</v>
       </c>
@@ -1693,22 +1963,29 @@
         <v>657</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="K25" s="3">
+      <c r="J25" s="3"/>
+      <c r="K25" s="6">
+        <v>2010</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2607</v>
+      </c>
+      <c r="M25" s="3">
         <f>SUM(B25:E25)</f>
-        <v>1267</v>
-      </c>
-      <c r="L25" s="3">
+        <v>2607</v>
+      </c>
+      <c r="N25" s="3">
         <f>SUM(F25:I25)</f>
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:C26" si="19">SUM(B24:B25)</f>
-        <v>0</v>
+        <v>5342</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="19"/>
@@ -1719,12 +1996,12 @@
         <v>5986</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" ref="E26:L26" si="20">SUM(E24:E25)</f>
-        <v>0</v>
+        <f t="shared" ref="E26:N26" si="20">SUM(E24:E25)</f>
+        <v>6792</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4818</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="20"/>
@@ -1740,26 +2017,42 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
+        <f t="shared" ref="K26" si="21">SUM(K24:K25)</f>
+        <v>23551</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="20"/>
-        <v>12553</v>
-      </c>
-      <c r="L26" s="4">
+        <v>24687</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="20"/>
-        <v>10142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24687</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="20"/>
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
+      <c r="B27">
+        <v>3611</v>
+      </c>
       <c r="C27" s="3">
         <v>4463</v>
       </c>
       <c r="D27" s="3">
         <v>4059</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3">
+        <f>L27-D27-C27-B27</f>
+        <v>4705</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3195</v>
+      </c>
       <c r="G27" s="3">
         <v>3702</v>
       </c>
@@ -1767,41 +2060,48 @@
         <v>3130</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="K27" s="3">
+      <c r="J27" s="3"/>
+      <c r="K27" s="6">
+        <v>16797</v>
+      </c>
+      <c r="L27" s="9">
+        <v>16838</v>
+      </c>
+      <c r="M27" s="3">
         <f>SUM(B27:E27)</f>
-        <v>8522</v>
-      </c>
-      <c r="L27" s="3">
+        <v>16838</v>
+      </c>
+      <c r="N27" s="3">
         <f>SUM(F27:I27)</f>
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" ref="B28:G28" si="21">B26-B27</f>
-        <v>0</v>
+        <f t="shared" ref="B28:G28" si="22">B26-B27</f>
+        <v>1731</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2104</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1927</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2087</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1623</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1786</v>
       </c>
       <c r="H28" s="4">
@@ -1809,31 +2109,47 @@
         <v>1524</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28:L28" si="22">I26-I27</f>
+        <f t="shared" ref="I28:N28" si="23">I26-I27</f>
         <v>0</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
-        <f t="shared" si="22"/>
-        <v>4031</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="22"/>
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K28" si="24">K26-K27</f>
+        <v>6754</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="23"/>
+        <v>7849</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="23"/>
+        <v>7849</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="23"/>
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
+      <c r="B29">
+        <v>438</v>
+      </c>
       <c r="C29" s="3">
         <v>485</v>
       </c>
       <c r="D29" s="3">
         <v>462</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="3">
+        <f t="shared" ref="E29:E33" si="25">L29-D29-C29-B29</f>
+        <v>478</v>
+      </c>
+      <c r="F29" s="3">
+        <v>411</v>
+      </c>
       <c r="G29" s="3">
         <v>461</v>
       </c>
@@ -1841,27 +2157,42 @@
         <v>426</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="K29" s="3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="6">
+        <v>1752</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1863</v>
+      </c>
+      <c r="M29" s="3">
         <f>SUM(B29:E29)</f>
-        <v>947</v>
-      </c>
-      <c r="L29" s="3">
+        <v>1863</v>
+      </c>
+      <c r="N29" s="3">
         <f>SUM(F29:I29)</f>
-        <v>887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
+      <c r="B30" s="4">
+        <v>231</v>
+      </c>
       <c r="C30" s="3">
         <v>269</v>
       </c>
       <c r="D30" s="3">
         <v>266</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="3">
+        <f t="shared" si="25"/>
+        <v>275</v>
+      </c>
+      <c r="F30" s="3">
+        <v>228</v>
+      </c>
       <c r="G30" s="3">
         <v>237</v>
       </c>
@@ -1869,27 +2200,42 @@
         <v>221</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="K30" s="3">
+      <c r="J30" s="3"/>
+      <c r="K30" s="6">
+        <v>866</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1041</v>
+      </c>
+      <c r="M30" s="3">
         <f>SUM(B30:E30)</f>
-        <v>535</v>
-      </c>
-      <c r="L30" s="3">
+        <v>1041</v>
+      </c>
+      <c r="N30" s="3">
         <f>SUM(F30:I30)</f>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="F31" s="3">
+        <v>31</v>
+      </c>
       <c r="G31" s="3">
         <v>51</v>
       </c>
@@ -1897,27 +2243,42 @@
         <v>12</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="K31" s="3">
+      <c r="J31" s="3"/>
+      <c r="K31" s="6">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
+        <v>67</v>
+      </c>
+      <c r="M31" s="3">
         <f>SUM(B31:E31)</f>
-        <v>7</v>
-      </c>
-      <c r="L31" s="3">
+        <v>67</v>
+      </c>
+      <c r="N31" s="3">
         <f>SUM(F31:I31)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
+      <c r="B32" s="4">
+        <v>272</v>
+      </c>
       <c r="C32" s="3">
         <v>323</v>
       </c>
       <c r="D32" s="3">
         <v>346</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="3">
+        <f t="shared" si="25"/>
+        <v>404</v>
+      </c>
+      <c r="F32" s="3">
+        <v>394</v>
+      </c>
       <c r="G32" s="3">
         <v>418</v>
       </c>
@@ -1925,27 +2286,42 @@
         <v>378</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="K32" s="3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="6">
+        <v>734</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1345</v>
+      </c>
+      <c r="M32" s="3">
         <f>SUM(B32:E32)</f>
-        <v>669</v>
-      </c>
-      <c r="L32" s="3">
+        <v>1345</v>
+      </c>
+      <c r="N32" s="3">
         <f>SUM(F32:I32)</f>
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
+      <c r="B33">
+        <v>163</v>
+      </c>
       <c r="C33" s="3">
         <v>187</v>
       </c>
       <c r="D33" s="3">
         <v>186</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="3">
+        <f t="shared" si="25"/>
+        <v>294</v>
+      </c>
+      <c r="F33" s="3">
+        <v>157</v>
+      </c>
       <c r="G33" s="3">
         <v>165</v>
       </c>
@@ -1953,25 +2329,32 @@
         <v>127</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="K33" s="3">
+      <c r="J33" s="3"/>
+      <c r="K33" s="6">
+        <v>689</v>
+      </c>
+      <c r="L33" s="9">
+        <v>830</v>
+      </c>
+      <c r="M33" s="3">
         <f>SUM(B33:E33)</f>
-        <v>373</v>
-      </c>
-      <c r="L33" s="3">
+        <v>830</v>
+      </c>
+      <c r="N33" s="3">
         <f>SUM(F33:I33)</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" ref="B34:C34" si="23">SUM(B29:B33)+B27</f>
-        <v>0</v>
+        <f t="shared" ref="B34:C34" si="26">SUM(B29:B33)+B27</f>
+        <v>4716</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5729</v>
       </c>
       <c r="D34" s="4">
@@ -1979,45 +2362,53 @@
         <v>5324</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" ref="E34:L34" si="24">SUM(E29:E33)+E27</f>
-        <v>0</v>
+        <f t="shared" ref="E34:N34" si="27">SUM(E29:E33)+E27</f>
+        <v>6215</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>4416</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34" si="25">SUM(G29:G33)+G27</f>
+        <f t="shared" ref="G34" si="28">SUM(G29:G33)+G27</f>
         <v>5034</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4294</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <f t="shared" si="24"/>
-        <v>11053</v>
-      </c>
-      <c r="L34" s="4">
-        <f t="shared" si="24"/>
-        <v>9328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K34:L34" si="29">SUM(K29:K33)+K27</f>
+        <v>20869</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="29"/>
+        <v>21984</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="27"/>
+        <v>21984</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="27"/>
+        <v>13744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" ref="B35:C35" si="26">B26-B34</f>
-        <v>0</v>
+        <f t="shared" ref="B35:C35" si="30">B26-B34</f>
+        <v>626</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>838</v>
       </c>
       <c r="D35" s="4">
@@ -2025,47 +2416,63 @@
         <v>662</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:L35" si="27">E26-E34</f>
-        <v>0</v>
+        <f t="shared" ref="E35:N35" si="31">E26-E34</f>
+        <v>577</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>402</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" ref="G35" si="28">G26-G34</f>
+        <f t="shared" ref="G35" si="32">G26-G34</f>
         <v>454</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>360</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <f t="shared" si="27"/>
-        <v>1500</v>
-      </c>
-      <c r="L35" s="4">
-        <f t="shared" si="27"/>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K35:L35" si="33">K26-K34</f>
+        <v>2682</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="33"/>
+        <v>2703</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="31"/>
+        <v>2703</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="31"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
+      <c r="B36" s="4">
+        <v>-173</v>
+      </c>
       <c r="C36" s="3">
         <v>-192</v>
       </c>
       <c r="D36" s="3">
         <v>-171</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="3">
+        <f t="shared" ref="E36:E38" si="34">L36-D36-C36-B36</f>
+        <v>-58</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-77</v>
+      </c>
       <c r="G36" s="3">
         <v>-95</v>
       </c>
@@ -2073,27 +2480,42 @@
         <v>-75</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="K36" s="3">
+      <c r="J36" s="3"/>
+      <c r="K36" s="6">
+        <v>-747</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-594</v>
+      </c>
+      <c r="M36" s="3">
         <f>SUM(B36:E36)</f>
-        <v>-363</v>
-      </c>
-      <c r="L36" s="3">
+        <v>-594</v>
+      </c>
+      <c r="N36" s="3">
         <f>SUM(F36:I36)</f>
-        <v>-170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
+      <c r="B37" s="4">
+        <v>33</v>
+      </c>
       <c r="C37" s="3">
         <v>64</v>
       </c>
       <c r="D37" s="3">
         <v>49</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="3">
+        <f t="shared" si="34"/>
+        <v>128</v>
+      </c>
+      <c r="F37" s="3">
+        <v>77</v>
+      </c>
       <c r="G37" s="3">
         <v>79</v>
       </c>
@@ -2101,27 +2523,42 @@
         <v>25</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="K37" s="3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="6">
+        <v>104</v>
+      </c>
+      <c r="L37" s="9">
+        <v>274</v>
+      </c>
+      <c r="M37" s="3">
         <f>SUM(B37:E37)</f>
-        <v>113</v>
-      </c>
-      <c r="L37" s="3">
+        <v>274</v>
+      </c>
+      <c r="N37" s="3">
         <f>SUM(F37:I37)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="3">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
       <c r="G38" s="3">
         <v>5</v>
       </c>
@@ -2129,25 +2566,32 @@
         <v>4</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="K38" s="3">
+      <c r="J38" s="3"/>
+      <c r="K38" s="6">
+        <v>10</v>
+      </c>
+      <c r="L38" s="9">
+        <v>12</v>
+      </c>
+      <c r="M38" s="3">
         <f>SUM(B38:E38)</f>
-        <v>7</v>
-      </c>
-      <c r="L38" s="3">
+        <v>12</v>
+      </c>
+      <c r="N38" s="3">
         <f>SUM(F38:I38)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" ref="B39:C39" si="29">B35+B36+B37-B38</f>
-        <v>0</v>
+        <f t="shared" ref="B39:C39" si="35">B35+B36+B37-B38</f>
+        <v>482</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>706</v>
       </c>
       <c r="D39" s="4">
@@ -2155,45 +2599,57 @@
         <v>537</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" ref="E39:L39" si="30">E35+E36+E37-E38</f>
-        <v>0</v>
+        <f t="shared" ref="E39:N39" si="36">E35+E36+E37-E38</f>
+        <v>646</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>401</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>433</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>306</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
-        <f t="shared" si="30"/>
-        <v>1243</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="30"/>
-        <v>739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K39" si="37">K35+K36+K37-K38</f>
+        <v>2029</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="36"/>
+        <v>2371</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="36"/>
+        <v>2371</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="36"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K40" s="7"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="e">
-        <f t="shared" ref="B41:C41" si="31">B39/B44</f>
-        <v>#DIV/0!</v>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:C41" si="38">B39/B44</f>
+        <v>0.35916542473919522</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0.52765321375186847</v>
       </c>
       <c r="D41" s="2">
@@ -2201,45 +2657,53 @@
         <v>0.42822966507177035</v>
       </c>
       <c r="E41" s="2" t="e">
-        <f t="shared" ref="E41:L41" si="32">E39/E44</f>
+        <f t="shared" ref="E41:N41" si="39">E39/E44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="2" t="e">
-        <f t="shared" si="32"/>
+      <c r="F41" s="2">
+        <f t="shared" si="39"/>
+        <v>0.31825396825396823</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="39"/>
+        <v>0.34474522292993631</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="39"/>
+        <v>0.22972972972972974</v>
+      </c>
+      <c r="I41" s="2" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="32"/>
-        <v>0.34474522292993631</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="32"/>
-        <v>0.22972972972972974</v>
-      </c>
-      <c r="I41" s="2" t="e">
-        <f t="shared" si="32"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="e">
+        <f t="shared" ref="K41:L41" si="40">K39/K44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
-        <f t="shared" si="32"/>
-        <v>0.47955246913580246</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="32"/>
-        <v>0.28554868624420404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="12" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="39"/>
+        <v>0.60269445856634474</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="39"/>
+        <v>0.29625779625779625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2" t="e">
-        <f t="shared" ref="B42:C42" si="33">B39/B45</f>
-        <v>#DIV/0!</v>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:C42" si="41">B39/B45</f>
+        <v>0.35467255334805003</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0.52103321033210337</v>
       </c>
       <c r="D42" s="2">
@@ -2247,164 +2711,221 @@
         <v>0.42822966507177035</v>
       </c>
       <c r="E42" s="2" t="e">
-        <f t="shared" ref="E42:L42" si="34">E39/E45</f>
+        <f t="shared" ref="E42:N42" si="42">E39/E45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="2" t="e">
-        <f t="shared" si="34"/>
+      <c r="F42" s="2">
+        <f t="shared" si="42"/>
+        <v>0.31475667189952905</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="42"/>
+        <v>0.34365079365079365</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="42"/>
+        <v>0.22649888971132495</v>
+      </c>
+      <c r="I42" s="2" t="e">
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="34"/>
-        <v>0.34365079365079365</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="34"/>
-        <v>0.22649888971132495</v>
-      </c>
-      <c r="I42" s="2" t="e">
-        <f t="shared" si="34"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="e">
+        <f t="shared" ref="K42:L42" si="43">K39/K45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2">
-        <f t="shared" si="34"/>
-        <v>0.47642775009582217</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="34"/>
-        <v>0.28303332056683261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L42" s="12" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="42"/>
+        <v>0.59753024193548387</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="42"/>
+        <v>0.29343629343629346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K43" s="7"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>22</v>
       </c>
+      <c r="B44">
+        <v>1342</v>
+      </c>
       <c r="C44">
         <v>1338</v>
       </c>
       <c r="D44">
         <v>1254</v>
       </c>
+      <c r="F44">
+        <v>1260</v>
+      </c>
       <c r="G44">
         <v>1256</v>
       </c>
       <c r="H44">
         <v>1332</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="7"/>
+      <c r="L44" s="11"/>
+      <c r="M44">
         <f>SUM(B44:E44)</f>
-        <v>2592</v>
-      </c>
-      <c r="L44">
+        <v>3934</v>
+      </c>
+      <c r="N44">
         <f>SUM(F44:I44)</f>
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
+      <c r="B45">
+        <v>1359</v>
+      </c>
       <c r="C45">
         <v>1355</v>
       </c>
       <c r="D45">
         <v>1254</v>
       </c>
+      <c r="F45">
+        <v>1274</v>
+      </c>
       <c r="G45">
         <v>1260</v>
       </c>
       <c r="H45">
         <v>1351</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="7"/>
+      <c r="L45" s="11"/>
+      <c r="M45">
         <f>SUM(B45:E45)</f>
-        <v>2609</v>
-      </c>
-      <c r="L45">
+        <v>3968</v>
+      </c>
+      <c r="N45">
         <f>SUM(F45:I45)</f>
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K46" s="7"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>23</v>
       </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="7"/>
+      <c r="L47" s="11"/>
+      <c r="M47">
         <f>SUM(B47:E47)</f>
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <f>SUM(F47:I47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K48" s="7"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="str">
         <f>B1</f>
         <v>Q123</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" ref="C49:L49" si="35">C1</f>
+        <f t="shared" ref="C49:N49" si="44">C1</f>
         <v>Q223</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q323</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q423</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q124</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q224</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q324</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>Q424</v>
       </c>
-      <c r="K49" s="1">
-        <f t="shared" si="35"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="1">
+        <f t="shared" si="44"/>
         <v>2023</v>
       </c>
-      <c r="L49" s="1">
-        <f t="shared" si="35"/>
+      <c r="N49" s="1">
+        <f t="shared" si="44"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K50" s="7"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3">
+        <v>486</v>
+      </c>
       <c r="C51" s="3">
         <f>1196-B51</f>
-        <v>1196</v>
+        <v>710</v>
       </c>
       <c r="D51" s="3">
         <f>1704-C52-B52</f>
         <v>1526</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="3">
+        <f>L51-D51-C51-B51</f>
+        <v>-339</v>
+      </c>
+      <c r="F51" s="3">
+        <v>402</v>
+      </c>
       <c r="G51" s="3">
         <f>840-F51</f>
-        <v>840</v>
+        <v>438</v>
       </c>
       <c r="H51" s="3">
         <f>1083-G52-F52</f>
@@ -2412,33 +2933,44 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3">
-        <f t="shared" ref="K51:K62" si="36">SUM(B51:E51)</f>
-        <v>2722</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" ref="L51:L62" si="37">SUM(F51:I51)</f>
+      <c r="K51" s="6"/>
+      <c r="L51" s="9">
+        <v>2383</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" ref="M51:M62" si="45">SUM(B51:E51)</f>
+        <v>2383</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" ref="N51:N62" si="46">SUM(F51:I51)</f>
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <v>86</v>
+      </c>
       <c r="C52" s="3">
         <f>178-B52</f>
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3">
         <f>276-C52-B52</f>
         <v>98</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="3">
+        <f t="shared" ref="E52:E62" si="47">L52-D52-C52-B52</f>
+        <v>101</v>
+      </c>
+      <c r="F52" s="3">
+        <v>103</v>
+      </c>
       <c r="G52" s="3">
         <f>207-F52</f>
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="H52" s="3">
         <f>315-G52-F52</f>
@@ -2446,33 +2978,44 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3">
-        <f t="shared" si="36"/>
-        <v>276</v>
-      </c>
-      <c r="L52" s="3">
-        <f t="shared" si="37"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="9">
+        <v>377</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="45"/>
+        <v>377</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="46"/>
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3">
+        <v>46</v>
+      </c>
       <c r="C53" s="3">
         <f>92-B53</f>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D53" s="3">
         <f>140-C53-B53</f>
         <v>48</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="E53" s="3">
+        <f t="shared" si="47"/>
+        <v>47</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45</v>
+      </c>
       <c r="G53" s="3">
         <f>92-F53</f>
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H53" s="3">
         <f>139-G53-F53</f>
@@ -2480,30 +3023,41 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <f t="shared" si="36"/>
-        <v>140</v>
-      </c>
-      <c r="L53" s="3">
-        <f t="shared" si="37"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="9">
+        <v>187</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="45"/>
+        <v>187</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="46"/>
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3">
+        <v>6</v>
+      </c>
       <c r="C54" s="3">
         <f>20-B54</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D54" s="3">
         <f>21-C54-B54</f>
         <v>1</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="3">
+        <f t="shared" si="47"/>
+        <v>-11</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
       <c r="G54" s="3">
         <f>7-F54</f>
         <v>7</v>
@@ -2514,33 +3068,44 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3">
-        <f t="shared" si="36"/>
-        <v>21</v>
-      </c>
-      <c r="L54" s="3">
-        <f t="shared" si="37"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="9">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>9</v>
+      </c>
       <c r="C55" s="3">
         <f>-46-B55</f>
-        <v>-46</v>
+        <v>-55</v>
       </c>
       <c r="D55" s="3">
         <f>-63-SUM(B55:C55)</f>
         <v>-17</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="3">
+        <f t="shared" si="47"/>
+        <v>-148</v>
+      </c>
+      <c r="F55" s="3">
+        <v>-77</v>
+      </c>
       <c r="G55" s="3">
         <f>-79-F55</f>
-        <v>-79</v>
+        <v>-2</v>
       </c>
       <c r="H55" s="3">
         <f>-31-SUM(F55:G55)</f>
@@ -2548,33 +3113,44 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3">
-        <f t="shared" si="36"/>
-        <v>-63</v>
-      </c>
-      <c r="L55" s="3">
-        <f t="shared" si="37"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="9">
+        <v>-211</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="45"/>
+        <v>-211</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="46"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3">
+        <v>32</v>
+      </c>
       <c r="C56" s="3">
         <f>78-B56</f>
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3">
         <f>136-C56-B56</f>
         <v>58</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="3">
+        <f t="shared" si="47"/>
+        <v>37</v>
+      </c>
+      <c r="F56" s="3">
+        <v>57</v>
+      </c>
       <c r="G56" s="3">
         <f>130-F56</f>
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="H56" s="3">
         <f>276-G56-F56</f>
@@ -2582,33 +3158,44 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <f t="shared" si="36"/>
-        <v>136</v>
-      </c>
-      <c r="L56" s="3">
-        <f t="shared" si="37"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="9">
+        <v>173</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="45"/>
+        <v>173</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="46"/>
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3">
+        <v>113</v>
+      </c>
       <c r="C57" s="3">
         <f>445-B57</f>
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="D57" s="3">
         <f>618-C57-B57</f>
         <v>173</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="E57" s="3">
+        <f t="shared" si="47"/>
+        <v>293</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-39</v>
+      </c>
       <c r="G57" s="3">
         <f>105-F57</f>
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="H57" s="3">
         <f>52-G57-F57</f>
@@ -2616,33 +3203,44 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3">
-        <f t="shared" si="36"/>
-        <v>618</v>
-      </c>
-      <c r="L57" s="3">
-        <f t="shared" si="37"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="9">
+        <v>911</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="45"/>
+        <v>911</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="46"/>
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3">
+        <v>-52</v>
+      </c>
       <c r="C58" s="3">
         <f>-188-B58</f>
-        <v>-188</v>
+        <v>-136</v>
       </c>
       <c r="D58" s="3">
         <f>-319-C58-B58</f>
         <v>-131</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="E58" s="3">
+        <f t="shared" si="47"/>
+        <v>-216</v>
+      </c>
+      <c r="F58" s="3">
+        <v>-18</v>
+      </c>
       <c r="G58" s="3">
         <f>-24-F58</f>
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="H58" s="3">
         <f>-31-G58-F58</f>
@@ -2650,33 +3248,44 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3">
-        <f t="shared" si="36"/>
-        <v>-319</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="37"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="9">
+        <v>-535</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="45"/>
+        <v>-535</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="46"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3">
+        <v>-355</v>
+      </c>
       <c r="C59" s="3">
         <f>-1380-B59</f>
-        <v>-1380</v>
+        <v>-1025</v>
       </c>
       <c r="D59" s="3">
         <f>-1602-C59-B59</f>
         <v>-222</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="E59" s="3">
+        <f t="shared" si="47"/>
+        <v>-666</v>
+      </c>
+      <c r="F59" s="3">
+        <v>-22</v>
+      </c>
       <c r="G59" s="3">
         <f>-136-F59</f>
-        <v>-136</v>
+        <v>-114</v>
       </c>
       <c r="H59" s="3">
         <f>482-G59-F59</f>
@@ -2684,33 +3293,44 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3">
-        <f t="shared" si="36"/>
-        <v>-1602</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="37"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="9">
+        <v>-2268</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="45"/>
+        <v>-2268</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="46"/>
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3">
+        <v>-1057</v>
+      </c>
       <c r="C60" s="3">
         <f>-1379-B60</f>
-        <v>-1379</v>
+        <v>-322</v>
       </c>
       <c r="D60" s="3">
         <f>-1443-C60-B60</f>
         <v>-64</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="E60" s="3">
+        <f t="shared" si="47"/>
+        <v>1184</v>
+      </c>
+      <c r="F60" s="3">
+        <v>-681</v>
+      </c>
       <c r="G60" s="3">
         <f>-495-F60</f>
-        <v>-495</v>
+        <v>186</v>
       </c>
       <c r="H60" s="3">
         <f>-256-G60-F60</f>
@@ -2718,33 +3338,44 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3">
-        <f t="shared" si="36"/>
-        <v>-1443</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="37"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="9">
+        <v>-259</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="45"/>
+        <v>-259</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="46"/>
         <v>-256</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3">
+        <v>172</v>
+      </c>
       <c r="C61" s="3">
         <f>202-B61</f>
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="D61" s="3">
         <f>-101-C61-B61</f>
         <v>-303</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="E61" s="3">
+        <f t="shared" si="47"/>
+        <v>-56</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-332</v>
+      </c>
       <c r="G61" s="3">
         <f>-638-F61</f>
-        <v>-638</v>
+        <v>-306</v>
       </c>
       <c r="H61" s="3">
         <f>-1217-G61-F61</f>
@@ -2752,33 +3383,44 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <f t="shared" si="36"/>
-        <v>-101</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="37"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="9">
+        <v>-157</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="45"/>
+        <v>-157</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="46"/>
         <v>-1217</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3">
+        <v>-187</v>
+      </c>
       <c r="C62" s="3">
         <f>-58-B62</f>
-        <v>-58</v>
+        <v>129</v>
       </c>
       <c r="D62" s="3">
         <f>25-C62-B62</f>
         <v>83</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="3">
+        <f t="shared" si="47"/>
+        <v>271</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-332</v>
+      </c>
       <c r="G62" s="3">
         <f>-524-F62</f>
-        <v>-524</v>
+        <v>-192</v>
       </c>
       <c r="H62" s="3">
         <f>-543-G62-F62</f>
@@ -2786,119 +3428,148 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3">
-        <f t="shared" si="36"/>
-        <v>25</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="37"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="9">
+        <v>296</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="45"/>
+        <v>296</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="46"/>
         <v>-543</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" ref="B63:C63" si="38">SUM(B51:B62)</f>
-        <v>0</v>
+        <f t="shared" ref="B63:C63" si="48">SUM(B51:B62)</f>
+        <v>-701</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="38"/>
-        <v>-840</v>
+        <f t="shared" si="48"/>
+        <v>-139</v>
       </c>
       <c r="D63" s="4">
         <f>SUM(D51:D62)</f>
         <v>1250</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" ref="E63:L63" si="39">SUM(E51:E62)</f>
+        <f t="shared" ref="E63:N63" si="49">SUM(E51:E62)</f>
+        <v>497</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="49"/>
+        <v>-894</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="49"/>
+        <v>379</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="49"/>
+        <v>1424</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="F63" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <f t="shared" si="39"/>
-        <v>-515</v>
-      </c>
-      <c r="H63" s="4">
-        <f t="shared" si="39"/>
-        <v>1424</v>
-      </c>
-      <c r="I63" s="4">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <f t="shared" si="39"/>
-        <v>410</v>
-      </c>
-      <c r="L63" s="4">
-        <f t="shared" si="39"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="10">
+        <f t="shared" si="49"/>
+        <v>907</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="49"/>
+        <v>907</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="49"/>
         <v>909</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K64" s="7"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="str">
         <f>B49</f>
         <v>Q123</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" ref="C65:L65" si="40">C49</f>
+        <f t="shared" ref="C65:N65" si="50">C49</f>
         <v>Q223</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q323</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q423</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q124</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q224</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q324</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Q424</v>
       </c>
-      <c r="K65" s="1">
-        <f t="shared" si="40"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="1">
+        <f t="shared" si="50"/>
         <v>2023</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" si="40"/>
+      <c r="N65" s="1">
+        <f t="shared" si="50"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K66" s="7"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K67" s="7"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="B68" s="3">
+        <v>3213</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3194</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2979</v>
+      </c>
       <c r="E68" s="3">
         <v>4322</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3">
+        <v>3236</v>
+      </c>
       <c r="G68" s="3">
         <v>2002</v>
       </c>
@@ -2906,26 +3577,37 @@
         <v>1801</v>
       </c>
       <c r="I68" s="3"/>
-      <c r="K68" s="3">
-        <f t="shared" ref="K68:K73" si="41">SUM(B68:E68)</f>
+      <c r="J68" s="3"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="3">
+        <f>E68</f>
         <v>4322</v>
       </c>
-      <c r="L68" s="3">
-        <f t="shared" ref="L68:L73" si="42">SUM(F68:I68)</f>
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N68" s="3">
+        <f t="shared" ref="N68:N73" si="51">SUM(F68:I68)</f>
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="B69">
+        <v>159</v>
+      </c>
+      <c r="C69">
+        <v>191</v>
+      </c>
+      <c r="D69" s="3">
+        <v>199</v>
+      </c>
       <c r="E69" s="3">
         <v>133</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3">
+        <v>155</v>
+      </c>
       <c r="G69">
         <v>246</v>
       </c>
@@ -2933,26 +3615,37 @@
         <v>212</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="K69" s="3">
-        <f t="shared" si="41"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="3">
+        <f t="shared" ref="M69:M73" si="52">E69</f>
         <v>133</v>
       </c>
-      <c r="L69" s="3">
-        <f t="shared" si="42"/>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N69" s="3">
+        <f t="shared" si="51"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="B70" s="3">
+        <v>19974</v>
+      </c>
+      <c r="C70" s="3">
+        <v>21541</v>
+      </c>
+      <c r="D70" s="3">
+        <v>22240</v>
+      </c>
       <c r="E70" s="3">
         <v>24249</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3">
+        <v>24120</v>
+      </c>
       <c r="G70" s="3">
         <v>23868</v>
       </c>
@@ -2960,26 +3653,37 @@
         <v>24062</v>
       </c>
       <c r="I70" s="3"/>
-      <c r="K70" s="3">
-        <f t="shared" si="41"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="3">
+        <f t="shared" si="52"/>
         <v>24249</v>
       </c>
-      <c r="L70" s="3">
-        <f t="shared" si="42"/>
-        <v>47930</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N70" s="3">
+        <f t="shared" si="51"/>
+        <v>72050</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="B71" s="3">
+        <v>255</v>
+      </c>
+      <c r="C71" s="3">
+        <v>260</v>
+      </c>
+      <c r="D71" s="3">
+        <v>229</v>
+      </c>
       <c r="E71" s="3">
         <v>380</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3">
+        <v>230</v>
+      </c>
       <c r="G71" s="3">
         <v>230</v>
       </c>
@@ -2987,26 +3691,37 @@
         <v>274</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="K71" s="3">
-        <f t="shared" si="41"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="3">
+        <f t="shared" si="52"/>
         <v>380</v>
       </c>
-      <c r="L71" s="3">
-        <f t="shared" si="42"/>
-        <v>504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N71" s="3">
+        <f t="shared" si="51"/>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="3">
+        <v>5983</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6411</v>
+      </c>
+      <c r="D72" s="3">
+        <v>6447</v>
+      </c>
       <c r="E72" s="3">
         <v>5545</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3">
+        <v>6189</v>
+      </c>
       <c r="G72" s="3">
         <v>5951</v>
       </c>
@@ -3014,26 +3729,37 @@
         <v>5930</v>
       </c>
       <c r="I72" s="3"/>
-      <c r="K72" s="3">
-        <f t="shared" si="41"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="3">
+        <f t="shared" si="52"/>
         <v>5545</v>
       </c>
-      <c r="L72" s="3">
-        <f t="shared" si="42"/>
-        <v>11881</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N72" s="3">
+        <f t="shared" si="51"/>
+        <v>18070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="B73" s="3">
+        <v>1470</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1458</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1454</v>
+      </c>
       <c r="E73" s="3">
         <v>1417</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3">
+        <v>1374</v>
+      </c>
       <c r="G73" s="3">
         <v>1354</v>
       </c>
@@ -3041,72 +3767,85 @@
         <v>1406</v>
       </c>
       <c r="I73" s="3"/>
-      <c r="K73" s="3">
-        <f t="shared" si="41"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="3">
+        <f t="shared" si="52"/>
         <v>1417</v>
       </c>
-      <c r="L73" s="3">
-        <f t="shared" si="42"/>
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N73" s="3">
+        <f t="shared" si="51"/>
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" ref="B74:I74" si="43">SUM(B68:B73)</f>
-        <v>0</v>
+        <f t="shared" ref="B74:I74" si="53">SUM(B68:B73)</f>
+        <v>31054</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>33055</v>
       </c>
       <c r="D74" s="4">
         <f>SUM(D68:D73)</f>
-        <v>0</v>
+        <v>33548</v>
       </c>
       <c r="E74" s="4">
         <f>SUM(E68:E73)</f>
         <v>36046</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
+        <v>35304</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="53"/>
+        <v>33651</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="53"/>
+        <v>33685</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="G74" s="4">
-        <f t="shared" si="43"/>
-        <v>33651</v>
-      </c>
-      <c r="H74" s="4">
-        <f t="shared" si="43"/>
-        <v>33685</v>
-      </c>
-      <c r="I74" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="4">
-        <f>SUM(K68:K73)</f>
+      <c r="K74" s="6"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="4">
+        <f>SUM(M68:M73)</f>
         <v>36046</v>
       </c>
-      <c r="L74" s="4">
-        <f>SUM(L68:L73)</f>
-        <v>67336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N74" s="4">
+        <f>SUM(N68:N73)</f>
+        <v>102640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="3">
+        <v>792</v>
+      </c>
+      <c r="C75" s="3">
+        <v>731</v>
+      </c>
+      <c r="D75" s="3">
+        <v>706</v>
+      </c>
       <c r="E75" s="3">
         <v>723</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3">
+        <v>723</v>
+      </c>
       <c r="G75" s="3">
         <v>645</v>
       </c>
@@ -3114,26 +3853,37 @@
         <v>649</v>
       </c>
       <c r="I75" s="3"/>
-      <c r="K75" s="3">
-        <f t="shared" ref="K75:K82" si="44">SUM(B75:E75)</f>
+      <c r="J75" s="3"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="3">
+        <f t="shared" ref="M75:M82" si="54">E75</f>
         <v>723</v>
       </c>
-      <c r="L75" s="3">
-        <f t="shared" ref="L75:L82" si="45">SUM(F75:I75)</f>
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N75" s="3">
+        <f t="shared" ref="N75:N82" si="55">SUM(F75:I75)</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="B76" s="3">
+        <v>1574</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1643</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1681</v>
+      </c>
       <c r="E76" s="3">
         <v>1913</v>
       </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3">
+        <v>1903</v>
+      </c>
       <c r="G76" s="3">
         <v>1909</v>
       </c>
@@ -3141,26 +3891,37 @@
         <v>1980</v>
       </c>
       <c r="I76" s="3"/>
-      <c r="K76" s="3">
-        <f t="shared" si="44"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="3">
+        <f t="shared" si="54"/>
         <v>1913</v>
       </c>
-      <c r="L76" s="3">
-        <f t="shared" si="45"/>
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N76" s="3">
+        <f t="shared" si="55"/>
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="3">
+        <v>357</v>
+      </c>
+      <c r="C77" s="3">
+        <v>405</v>
+      </c>
+      <c r="D77" s="3">
+        <v>477</v>
+      </c>
       <c r="E77" s="3">
-        <v>479</v>
-      </c>
-      <c r="F77" s="3"/>
+        <v>563</v>
+      </c>
+      <c r="F77" s="3">
+        <v>559</v>
+      </c>
       <c r="G77" s="3">
         <v>615</v>
       </c>
@@ -3168,26 +3929,37 @@
         <v>532</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="K77" s="3">
-        <f t="shared" si="44"/>
-        <v>479</v>
-      </c>
-      <c r="L77" s="3">
-        <f t="shared" si="45"/>
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J77" s="3"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="3">
+        <f t="shared" si="54"/>
+        <v>563</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="55"/>
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="B78" s="3">
+        <v>3514</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3490</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3490</v>
+      </c>
       <c r="E78" s="3">
         <v>3614</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3">
+        <v>3603</v>
+      </c>
       <c r="G78" s="3">
         <v>3599</v>
       </c>
@@ -3195,26 +3967,37 @@
         <v>3615</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="K78" s="3">
-        <f t="shared" si="44"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="3">
+        <f t="shared" si="54"/>
         <v>3614</v>
       </c>
-      <c r="L78" s="3">
-        <f t="shared" si="45"/>
-        <v>7214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N78" s="3">
+        <f t="shared" si="55"/>
+        <v>10817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="B79" s="3">
+        <v>1199</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1229</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1237</v>
+      </c>
       <c r="E79" s="3">
         <v>1292</v>
       </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3">
+        <v>1265</v>
+      </c>
       <c r="G79" s="3">
         <v>1247</v>
       </c>
@@ -3222,26 +4005,37 @@
         <v>1251</v>
       </c>
       <c r="I79" s="3"/>
-      <c r="K79" s="3">
-        <f t="shared" si="44"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="3">
+        <f t="shared" si="54"/>
         <v>1292</v>
       </c>
-      <c r="L79" s="3">
-        <f t="shared" si="45"/>
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N79" s="3">
+        <f t="shared" si="55"/>
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="B80" s="3">
+        <v>434</v>
+      </c>
+      <c r="C80" s="3">
+        <v>587</v>
+      </c>
+      <c r="D80" s="3">
+        <v>704</v>
+      </c>
       <c r="E80" s="3">
         <v>979</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3">
+        <v>977</v>
+      </c>
       <c r="G80" s="3">
         <v>942</v>
       </c>
@@ -3249,26 +4043,37 @@
         <v>957</v>
       </c>
       <c r="I80" s="3"/>
-      <c r="K80" s="3">
-        <f t="shared" si="44"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="3">
+        <f t="shared" si="54"/>
         <v>979</v>
       </c>
-      <c r="L80" s="3">
-        <f t="shared" si="45"/>
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N80" s="3">
+        <f t="shared" si="55"/>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="B81" s="3">
+        <v>179</v>
+      </c>
+      <c r="C81" s="3">
+        <v>195</v>
+      </c>
+      <c r="D81" s="3">
+        <v>163</v>
+      </c>
       <c r="E81" s="3">
         <v>136</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3">
+        <v>103</v>
+      </c>
       <c r="G81" s="3">
         <v>133</v>
       </c>
@@ -3276,26 +4081,37 @@
         <v>159</v>
       </c>
       <c r="I81" s="3"/>
-      <c r="K81" s="3">
-        <f t="shared" si="44"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="3">
+        <f t="shared" si="54"/>
         <v>136</v>
       </c>
-      <c r="L81" s="3">
-        <f t="shared" si="45"/>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N81" s="3">
+        <f t="shared" si="55"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="B82" s="3">
+        <v>1463</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1352</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1035</v>
+      </c>
       <c r="E82" s="3">
         <v>1085</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3">
+        <v>1289</v>
+      </c>
       <c r="G82" s="3">
         <v>1218</v>
       </c>
@@ -3303,77 +4119,95 @@
         <v>1205</v>
       </c>
       <c r="I82" s="3"/>
-      <c r="K82" s="3">
-        <f t="shared" si="44"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="3">
+        <f t="shared" si="54"/>
         <v>1085</v>
       </c>
-      <c r="L82" s="3">
-        <f t="shared" si="45"/>
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N82" s="3">
+        <f t="shared" si="55"/>
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" ref="B83:C83" si="46">SUM(B74:B82)</f>
+        <f t="shared" ref="B83:C83" si="56">SUM(B74:B82)</f>
+        <v>40566</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="56"/>
+        <v>42687</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" ref="D83:I83" si="57">SUM(D74:D82)</f>
+        <v>43041</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" ref="E83" si="58">SUM(E74:E82)</f>
+        <v>46351</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="57"/>
+        <v>45726</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="57"/>
+        <v>43959</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="57"/>
+        <v>44033</v>
+      </c>
+      <c r="I83" s="4">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="C83" s="4">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
-        <f t="shared" ref="D83:I83" si="47">SUM(D74:D82)</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <f t="shared" ref="E83" si="48">SUM(E74:E82)</f>
-        <v>46267</v>
-      </c>
-      <c r="F83" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <f t="shared" si="47"/>
-        <v>43959</v>
-      </c>
-      <c r="H83" s="4">
-        <f t="shared" si="47"/>
-        <v>44033</v>
-      </c>
-      <c r="I83" s="4">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
       <c r="J83" s="4"/>
-      <c r="K83" s="4">
-        <f>SUM(K74:K82)</f>
-        <v>46267</v>
-      </c>
-      <c r="L83" s="4">
-        <f>SUM(L74:L82)</f>
-        <v>87992</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K83" s="6"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="4">
+        <f>SUM(M74:M82)</f>
+        <v>46351</v>
+      </c>
+      <c r="N83" s="4">
+        <f>SUM(N74:N82)</f>
+        <v>133718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K84" s="7"/>
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="3">
+        <v>23552</v>
+      </c>
+      <c r="C86" s="3">
+        <v>24870</v>
+      </c>
+      <c r="D86" s="3">
+        <v>24958</v>
+      </c>
       <c r="E86" s="3">
         <v>27326</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3">
+        <v>27780</v>
+      </c>
       <c r="G86" s="3">
         <v>26808</v>
       </c>
@@ -3381,26 +4215,35 @@
         <v>27300</v>
       </c>
       <c r="I86" s="3"/>
-      <c r="K86" s="3">
-        <f t="shared" ref="K86:K92" si="49">SUM(B86:E86)</f>
+      <c r="J86" s="3"/>
+      <c r="M86" s="3">
+        <f t="shared" ref="M86:M92" si="59">E86</f>
         <v>27326</v>
       </c>
-      <c r="L86" s="3">
-        <f t="shared" ref="L86:L92" si="50">SUM(F86:I86)</f>
-        <v>54108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N86" s="3">
+        <f t="shared" ref="N86:N92" si="60">SUM(F86:I86)</f>
+        <v>81888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="3">
+        <v>57</v>
+      </c>
+      <c r="C87" s="3">
+        <v>111</v>
+      </c>
+      <c r="D87" s="3">
+        <v>76</v>
+      </c>
       <c r="E87" s="3">
         <v>146</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3">
+        <v>70</v>
+      </c>
       <c r="G87" s="3">
         <v>60</v>
       </c>
@@ -3408,26 +4251,35 @@
         <v>48</v>
       </c>
       <c r="I87" s="3"/>
-      <c r="K87" s="3">
-        <f t="shared" si="49"/>
+      <c r="J87" s="3"/>
+      <c r="M87" s="3">
+        <f t="shared" si="59"/>
         <v>146</v>
       </c>
-      <c r="L87" s="3">
-        <f t="shared" si="50"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N87" s="3">
+        <f t="shared" si="60"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="B88" s="3">
+        <v>3897</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3937</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3574</v>
+      </c>
       <c r="E88" s="3">
         <v>3611</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3">
+        <v>3225</v>
+      </c>
       <c r="G88" s="3">
         <v>2911</v>
       </c>
@@ -3435,26 +4287,35 @@
         <v>2409</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="K88" s="3">
-        <f t="shared" si="49"/>
+      <c r="J88" s="3"/>
+      <c r="M88" s="3">
+        <f t="shared" si="59"/>
         <v>3611</v>
       </c>
-      <c r="L88" s="3">
-        <f t="shared" si="50"/>
-        <v>5320</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N88" s="3">
+        <f t="shared" si="60"/>
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="B89" s="3">
+        <v>44</v>
+      </c>
+      <c r="C89" s="3">
+        <v>37</v>
+      </c>
+      <c r="D89" s="3">
+        <v>26</v>
+      </c>
       <c r="E89" s="3">
         <v>35</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3">
+        <v>39</v>
+      </c>
       <c r="G89" s="3">
         <v>44</v>
       </c>
@@ -3462,26 +4323,35 @@
         <v>36</v>
       </c>
       <c r="I89" s="3"/>
-      <c r="K89" s="3">
-        <f t="shared" si="49"/>
+      <c r="J89" s="3"/>
+      <c r="M89" s="3">
+        <f t="shared" si="59"/>
         <v>35</v>
       </c>
-      <c r="L89" s="3">
-        <f t="shared" si="50"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N89" s="3">
+        <f t="shared" si="60"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="B90" s="3">
+        <v>449</v>
+      </c>
+      <c r="C90" s="3">
+        <v>442</v>
+      </c>
+      <c r="D90" s="3">
+        <v>421</v>
+      </c>
       <c r="E90" s="3">
         <v>476</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>458</v>
+      </c>
       <c r="G90" s="3">
         <v>443</v>
       </c>
@@ -3489,26 +4359,35 @@
         <v>450</v>
       </c>
       <c r="I90" s="3"/>
-      <c r="K90" s="3">
-        <f t="shared" si="49"/>
+      <c r="J90" s="3"/>
+      <c r="M90" s="3">
+        <f t="shared" si="59"/>
         <v>476</v>
       </c>
-      <c r="L90" s="3">
-        <f t="shared" si="50"/>
-        <v>893</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N90" s="3">
+        <f t="shared" si="60"/>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="B91" s="3">
+        <v>177</v>
+      </c>
+      <c r="C91" s="3">
+        <v>243</v>
+      </c>
+      <c r="D91" s="3">
+        <v>246</v>
+      </c>
       <c r="E91" s="3">
         <v>216</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3">
+        <v>175</v>
+      </c>
       <c r="G91" s="3">
         <v>178</v>
       </c>
@@ -3516,26 +4395,35 @@
         <v>145</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="K91" s="3">
-        <f t="shared" si="49"/>
+      <c r="J91" s="3"/>
+      <c r="M91" s="3">
+        <f t="shared" si="59"/>
         <v>216</v>
       </c>
-      <c r="L91" s="3">
-        <f t="shared" si="50"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N91" s="3">
+        <f t="shared" si="60"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="B92" s="3">
+        <v>4939</v>
+      </c>
+      <c r="C92" s="3">
+        <v>5417</v>
+      </c>
+      <c r="D92" s="3">
+        <v>5625</v>
+      </c>
       <c r="E92" s="3">
         <v>6307</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3">
+        <v>5967</v>
+      </c>
       <c r="G92" s="3">
         <v>5853</v>
       </c>
@@ -3543,87 +4431,99 @@
         <v>5876</v>
       </c>
       <c r="I92" s="3"/>
-      <c r="K92" s="3">
-        <f t="shared" si="49"/>
+      <c r="J92" s="3"/>
+      <c r="M92" s="3">
+        <f t="shared" si="59"/>
         <v>6307</v>
       </c>
-      <c r="L92" s="3">
-        <f t="shared" si="50"/>
-        <v>11729</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N92" s="3">
+        <f t="shared" si="60"/>
+        <v>17696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" ref="B93:C93" si="51">SUM(B86:B92)</f>
-        <v>0</v>
+        <f t="shared" ref="B93:C93" si="61">SUM(B86:B92)</f>
+        <v>33115</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>35057</v>
       </c>
       <c r="D93" s="4">
         <f>SUM(D86:D92)</f>
-        <v>0</v>
+        <v>34926</v>
       </c>
       <c r="E93" s="4">
         <f>SUM(E86:E92)</f>
         <v>38117</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" ref="F93:L93" si="52">SUM(F86:F92)</f>
+        <f t="shared" ref="F93:N93" si="62">SUM(F86:F92)</f>
+        <v>37714</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" si="62"/>
+        <v>36297</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" si="62"/>
+        <v>36264</v>
+      </c>
+      <c r="I93" s="4">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="G93" s="4">
-        <f t="shared" si="52"/>
-        <v>36297</v>
-      </c>
-      <c r="H93" s="4">
-        <f t="shared" si="52"/>
-        <v>36264</v>
-      </c>
-      <c r="I93" s="4">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
       <c r="J93" s="4"/>
-      <c r="K93" s="4">
-        <f t="shared" si="52"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="4">
+        <f t="shared" si="62"/>
         <v>38117</v>
       </c>
-      <c r="L93" s="4">
-        <f t="shared" si="52"/>
-        <v>72561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N93" s="4">
+        <f t="shared" si="62"/>
+        <v>110275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="B94" s="3">
+        <v>52</v>
+      </c>
+      <c r="C94" s="3">
+        <v>55</v>
+      </c>
+      <c r="D94" s="3">
+        <v>58</v>
+      </c>
       <c r="E94" s="3">
         <v>54</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3">
+        <v>57</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
         <v>57</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="K94" s="3">
-        <f>SUM(B94:E94)</f>
+      <c r="J94" s="3"/>
+      <c r="M94" s="3">
+        <f t="shared" ref="M94:M95" si="63">E94</f>
         <v>54</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <f>SUM(F94:I94)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3632,59 +4532,59 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="K95" s="3">
-        <f>SUM(B95:E95)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" ref="B96:C96" si="53">B83-B93-B94</f>
-        <v>0</v>
+        <f t="shared" ref="B96:C96" si="64">B83-B93-B94</f>
+        <v>7399</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>7575</v>
       </c>
       <c r="D96" s="4">
         <f>D83-D93-D94</f>
+        <v>8057</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" ref="E96:N96" si="65">E83-E93-E94</f>
+        <v>8180</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" si="65"/>
+        <v>7955</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" si="65"/>
+        <v>7662</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" si="65"/>
+        <v>7712</v>
+      </c>
+      <c r="I96" s="4">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="E96" s="4">
-        <f t="shared" ref="E96:L96" si="54">E83-E93-E94</f>
-        <v>8096</v>
-      </c>
-      <c r="F96" s="4">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
-        <f t="shared" si="54"/>
-        <v>7662</v>
-      </c>
-      <c r="H96" s="4">
-        <f t="shared" si="54"/>
-        <v>7712</v>
-      </c>
-      <c r="I96" s="4">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
       <c r="J96" s="4"/>
-      <c r="K96" s="4">
-        <f t="shared" si="54"/>
-        <v>8096</v>
-      </c>
-      <c r="L96" s="4">
-        <f t="shared" si="54"/>
-        <v>15374</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K96" s="4"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="4">
+        <f t="shared" si="65"/>
+        <v>8180</v>
+      </c>
+      <c r="N96" s="4">
+        <f t="shared" si="65"/>
+        <v>23329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>52</v>
       </c>
@@ -3696,20 +4596,30 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J97" s="4"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="B98" s="3">
+        <v>25</v>
+      </c>
+      <c r="C98" s="3">
+        <v>25</v>
+      </c>
+      <c r="D98" s="3">
+        <v>25</v>
+      </c>
       <c r="E98" s="3">
         <v>25</v>
       </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>25</v>
+      </c>
       <c r="G98" s="3">
         <v>25</v>
       </c>
@@ -3717,26 +4627,35 @@
         <v>25</v>
       </c>
       <c r="I98" s="3"/>
-      <c r="K98" s="3">
-        <f t="shared" ref="K98:K103" si="55">SUM(B98:E98)</f>
+      <c r="J98" s="3"/>
+      <c r="M98" s="3">
+        <f t="shared" ref="M98:M103" si="66">E98</f>
         <v>25</v>
       </c>
-      <c r="L98" s="3">
-        <f t="shared" ref="L98:L103" si="56">SUM(F98:I98)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N98" s="3">
+        <f t="shared" ref="N98:N103" si="67">SUM(F98:I98)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>54</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="B99" s="3">
+        <v>-301</v>
+      </c>
+      <c r="C99" s="3">
+        <v>-382</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-437</v>
+      </c>
       <c r="E99" s="3">
         <v>-865</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3">
+        <v>-1276</v>
+      </c>
       <c r="G99" s="3">
         <v>-1317</v>
       </c>
@@ -3744,26 +4663,35 @@
         <v>-1376</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="K99" s="3">
-        <f t="shared" si="55"/>
+      <c r="J99" s="3"/>
+      <c r="M99" s="3">
+        <f t="shared" si="66"/>
         <v>-865</v>
       </c>
-      <c r="L99" s="3">
-        <f t="shared" si="56"/>
-        <v>-2693</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N99" s="3">
+        <f t="shared" si="67"/>
+        <v>-3969</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>55</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="B100" s="3">
+        <v>1528</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1563</v>
+      </c>
       <c r="E100" s="3">
         <v>1578</v>
       </c>
-      <c r="F100" s="3"/>
+      <c r="F100" s="3">
+        <v>1415</v>
+      </c>
       <c r="G100" s="3">
         <v>1401</v>
       </c>
@@ -3771,26 +4699,35 @@
         <v>1415</v>
       </c>
       <c r="I100" s="3"/>
-      <c r="K100" s="3">
-        <f t="shared" si="55"/>
+      <c r="J100" s="3"/>
+      <c r="M100" s="3">
+        <f t="shared" si="66"/>
         <v>1578</v>
       </c>
-      <c r="L100" s="3">
-        <f t="shared" si="56"/>
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N100" s="3">
+        <f t="shared" si="67"/>
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="B101" s="3">
+        <v>8388</v>
+      </c>
+      <c r="C101" s="3">
+        <v>8567</v>
+      </c>
+      <c r="D101" s="3">
+        <v>9134</v>
+      </c>
       <c r="E101" s="3">
         <v>9654</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3">
+        <v>10151</v>
+      </c>
       <c r="G101" s="3">
         <v>9993</v>
       </c>
@@ -3798,26 +4735,35 @@
         <v>10136</v>
       </c>
       <c r="I101" s="3"/>
-      <c r="K101" s="3">
-        <f t="shared" si="55"/>
+      <c r="J101" s="3"/>
+      <c r="M101" s="3">
+        <f t="shared" si="66"/>
         <v>9654</v>
       </c>
-      <c r="L101" s="3">
-        <f t="shared" si="56"/>
-        <v>20129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N101" s="3">
+        <f t="shared" si="67"/>
+        <v>30280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>57</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="B102" s="3">
+        <v>-2316</v>
+      </c>
+      <c r="C102" s="3">
+        <v>-2246</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
       <c r="E102" s="3">
         <v>-2362</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3">
+        <v>-2423</v>
+      </c>
       <c r="G102" s="3">
         <v>-2564</v>
       </c>
@@ -3825,26 +4771,35 @@
         <v>-2557</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="K102" s="3">
-        <f t="shared" si="55"/>
+      <c r="J102" s="3"/>
+      <c r="M102" s="3">
+        <f t="shared" si="66"/>
         <v>-2362</v>
       </c>
-      <c r="L102" s="3">
-        <f t="shared" si="56"/>
-        <v>-5121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N102" s="3">
+        <f t="shared" si="67"/>
+        <v>-7544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="B103" s="3">
+        <v>75</v>
+      </c>
+      <c r="C103" s="3">
+        <v>75</v>
+      </c>
+      <c r="D103" s="3">
+        <v>72</v>
+      </c>
       <c r="E103" s="3">
         <v>66</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>63</v>
+      </c>
       <c r="G103" s="3">
         <v>64</v>
       </c>
@@ -3852,105 +4807,110 @@
         <v>69</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="K103" s="3">
-        <f t="shared" si="55"/>
+      <c r="J103" s="3"/>
+      <c r="M103" s="3">
+        <f t="shared" si="66"/>
         <v>66</v>
       </c>
-      <c r="L103" s="3">
-        <f t="shared" si="56"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N103" s="3">
+        <f t="shared" si="67"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" ref="B104:C104" si="57">SUM(B98:B103)</f>
-        <v>0</v>
+        <f t="shared" ref="B104:C104" si="68">SUM(B98:B103)</f>
+        <v>7399</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>7575</v>
       </c>
       <c r="D104" s="4">
         <f>SUM(D98:D103)</f>
+        <v>8057</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" ref="E104:N104" si="69">SUM(E98:E103)</f>
+        <v>8096</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="69"/>
+        <v>7955</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="69"/>
+        <v>7602</v>
+      </c>
+      <c r="H104" s="4">
+        <f t="shared" si="69"/>
+        <v>7712</v>
+      </c>
+      <c r="I104" s="4">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="E104" s="4">
-        <f t="shared" ref="E104:L104" si="58">SUM(E98:E103)</f>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="4">
+        <f t="shared" si="69"/>
         <v>8096</v>
       </c>
-      <c r="F104" s="4">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <f t="shared" si="58"/>
-        <v>7602</v>
-      </c>
-      <c r="H104" s="4">
-        <f t="shared" si="58"/>
-        <v>7712</v>
-      </c>
-      <c r="I104" s="4">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4">
-        <f t="shared" si="58"/>
-        <v>8096</v>
-      </c>
-      <c r="L104" s="4">
-        <f t="shared" si="58"/>
-        <v>15314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N104" s="4">
+        <f t="shared" si="69"/>
+        <v>23269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" ref="B105:C105" si="59">B104+B94+B93</f>
-        <v>0</v>
+        <f t="shared" ref="B105:C105" si="70">B104+B94+B93</f>
+        <v>40566</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>42687</v>
       </c>
       <c r="D105" s="4">
         <f>D104+D94+D93</f>
+        <v>43041</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" ref="E105:N105" si="71">E104+E94+E93</f>
+        <v>46267</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="71"/>
+        <v>45726</v>
+      </c>
+      <c r="G105" s="4">
+        <f t="shared" si="71"/>
+        <v>43899</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" si="71"/>
+        <v>44033</v>
+      </c>
+      <c r="I105" s="4">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="E105" s="4">
-        <f t="shared" ref="E105:L105" si="60">E104+E94+E93</f>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="4">
+        <f t="shared" si="71"/>
         <v>46267</v>
       </c>
-      <c r="F105" s="4">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
-        <f t="shared" si="60"/>
-        <v>43899</v>
-      </c>
-      <c r="H105" s="4">
-        <f t="shared" si="60"/>
-        <v>44033</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4">
-        <f t="shared" si="60"/>
-        <v>46267</v>
-      </c>
-      <c r="L105" s="4">
-        <f t="shared" si="60"/>
-        <v>87932</v>
+      <c r="N105" s="4">
+        <f t="shared" si="71"/>
+        <v>133658</v>
       </c>
     </row>
   </sheetData>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1087" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F0F81C-EADC-49AD-86EF-DA93301142D2}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B924C7EE-2C81-4696-BFE6-8A920000A929}"/>
   <bookViews>
-    <workbookView xWindow="18730" yWindow="3990" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22750" yWindow="4020" windowWidth="15080" windowHeight="15850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="149">
   <si>
     <t>Revenues</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>De-merged from Iveco Group - starting Q122</t>
+  </si>
+  <si>
+    <t>Purchased Specialty Enterprises, LLC, manufacturer of spray booms and spray boom accessories. $50M.</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Purchased 90% of Sampierana S.p.A. for $100M. Italian company specializing in the development, manufacture, and commercialization of earthmoving machines, undercarriages, and spare parts.</t>
+  </si>
+  <si>
+    <t>Purchased 100% of cap stock of Raven Industries, Inc. - total $2.1B. Based in Sioux Falls, SD. 3 business divisions: Applied Tech (precision ag tech), Engineered Films, and Aerostar. Engineered Films and Aerostar were held for sale.</t>
   </si>
 </sst>
 </file>
@@ -527,19 +539,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,15 +1037,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1066,7 +1076,7 @@
       <c r="K1" s="1">
         <v>2022</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="6">
         <v>2023</v>
       </c>
       <c r="M1" s="1">
@@ -1104,10 +1114,10 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>17969</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>18148</v>
       </c>
       <c r="M2" s="3">
@@ -1147,10 +1157,10 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>3572</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>3932</v>
       </c>
       <c r="M3" s="3">
@@ -1203,7 +1213,7 @@
         <f t="shared" si="3"/>
         <v>21541</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <f t="shared" si="3"/>
         <v>22080</v>
       </c>
@@ -1244,10 +1254,10 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>1996</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>2573</v>
       </c>
       <c r="M5" s="3">
@@ -1287,10 +1297,10 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>14</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>34</v>
       </c>
       <c r="M6" s="3">
@@ -1343,7 +1353,7 @@
         <f t="shared" si="7"/>
         <v>23551</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f t="shared" si="7"/>
         <v>24687</v>
       </c>
@@ -1366,8 +1376,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
@@ -1384,8 +1394,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
@@ -1417,10 +1427,10 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>6769</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>7157</v>
       </c>
       <c r="M10" s="3">
@@ -1460,10 +1470,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>5776</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>5878</v>
       </c>
       <c r="M11" s="3">
@@ -1503,10 +1513,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>3738</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>3178</v>
       </c>
       <c r="M12" s="3">
@@ -1546,10 +1556,10 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>1686</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>1935</v>
       </c>
       <c r="M13" s="3">
@@ -1602,7 +1612,7 @@
         <f t="shared" ref="K14:N14" si="12">SUM(K10:K13)</f>
         <v>17969</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <f t="shared" si="12"/>
         <v>18148</v>
       </c>
@@ -1625,8 +1635,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="3"/>
       <c r="N15" s="4"/>
     </row>
@@ -1655,8 +1665,8 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="3">
         <f>SUM(B16:E16)</f>
         <v>16031</v>
@@ -1691,8 +1701,8 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="3">
         <f>SUM(B17:E17)</f>
         <v>31</v>
@@ -1743,7 +1753,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -1781,8 +1791,8 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="3">
         <f>SUM(B19:E19)</f>
         <v>1342</v>
@@ -1817,8 +1827,8 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="3">
         <f>SUM(B20:E20)</f>
         <v>491</v>
@@ -1869,7 +1879,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -1883,15 +1893,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="7"/>
-      <c r="L22" s="11"/>
+      <c r="K22"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="11"/>
+      <c r="K23"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -1921,10 +1931,10 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>21541</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="7">
         <v>22080</v>
       </c>
       <c r="M24" s="3">
@@ -1964,10 +1974,10 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>2010</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <v>2607</v>
       </c>
       <c r="M25" s="3">
@@ -2020,7 +2030,7 @@
         <f t="shared" ref="K26" si="21">SUM(K24:K25)</f>
         <v>23551</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="8">
         <f t="shared" si="20"/>
         <v>24687</v>
       </c>
@@ -2061,10 +2071,10 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>16797</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="7">
         <v>16838</v>
       </c>
       <c r="M27" s="3">
@@ -2117,7 +2127,7 @@
         <f t="shared" ref="K28" si="24">K26-K27</f>
         <v>6754</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="8">
         <f t="shared" si="23"/>
         <v>7849</v>
       </c>
@@ -2158,10 +2168,10 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>1752</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="7">
         <v>1863</v>
       </c>
       <c r="M29" s="3">
@@ -2201,10 +2211,10 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>866</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="7">
         <v>1041</v>
       </c>
       <c r="M30" s="3">
@@ -2244,10 +2254,10 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>31</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="7">
         <v>67</v>
       </c>
       <c r="M31" s="3">
@@ -2287,10 +2297,10 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <v>734</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="7">
         <v>1345</v>
       </c>
       <c r="M32" s="3">
@@ -2330,10 +2340,10 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="6">
+      <c r="K33" s="3">
         <v>689</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="7">
         <v>830</v>
       </c>
       <c r="M33" s="3">
@@ -2386,7 +2396,7 @@
         <f t="shared" ref="K34:L34" si="29">SUM(K29:K33)+K27</f>
         <v>20869</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="8">
         <f t="shared" si="29"/>
         <v>21984</v>
       </c>
@@ -2440,7 +2450,7 @@
         <f t="shared" ref="K35:L35" si="33">K26-K34</f>
         <v>2682</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="8">
         <f t="shared" si="33"/>
         <v>2703</v>
       </c>
@@ -2481,10 +2491,10 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>-747</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="7">
         <v>-594</v>
       </c>
       <c r="M36" s="3">
@@ -2524,10 +2534,10 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>104</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="7">
         <v>274</v>
       </c>
       <c r="M37" s="3">
@@ -2567,10 +2577,10 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>10</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="7">
         <v>12</v>
       </c>
       <c r="M38" s="3">
@@ -2623,7 +2633,7 @@
         <f t="shared" ref="K39" si="37">K35+K36+K37-K38</f>
         <v>2029</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="8">
         <f t="shared" si="36"/>
         <v>2371</v>
       </c>
@@ -2637,8 +2647,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K40" s="7"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -2681,7 +2690,7 @@
         <f t="shared" ref="K41:L41" si="40">K39/K44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="12" t="e">
+      <c r="L41" s="10" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -2735,7 +2744,7 @@
         <f t="shared" ref="K42:L42" si="43">K39/K45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="12" t="e">
+      <c r="L42" s="10" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
@@ -2749,8 +2758,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K43" s="7"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -2774,8 +2782,7 @@
       <c r="H44">
         <v>1332</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="11"/>
+      <c r="L44" s="9"/>
       <c r="M44">
         <f>SUM(B44:E44)</f>
         <v>3934</v>
@@ -2807,8 +2814,7 @@
       <c r="H45">
         <v>1351</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="11"/>
+      <c r="L45" s="9"/>
       <c r="M45">
         <f>SUM(B45:E45)</f>
         <v>3968</v>
@@ -2819,8 +2825,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K46" s="7"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -2838,8 +2843,7 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="11"/>
+      <c r="L47" s="9"/>
       <c r="M47">
         <f>SUM(B47:E47)</f>
         <v>0</v>
@@ -2850,8 +2854,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K48" s="7"/>
-      <c r="L48" s="11"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="str">
@@ -2886,8 +2889,8 @@
         <f t="shared" si="44"/>
         <v>Q424</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="11"/>
+      <c r="K49"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="1">
         <f t="shared" si="44"/>
         <v>2023</v>
@@ -2898,8 +2901,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K50" s="7"/>
-      <c r="L50" s="11"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -2933,8 +2935,8 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="9">
+      <c r="K51" s="3"/>
+      <c r="L51" s="7">
         <v>2383</v>
       </c>
       <c r="M51" s="3">
@@ -2978,8 +2980,8 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="9">
+      <c r="K52" s="3"/>
+      <c r="L52" s="7">
         <v>377</v>
       </c>
       <c r="M52" s="3">
@@ -3023,8 +3025,8 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="9">
+      <c r="K53" s="3"/>
+      <c r="L53" s="7">
         <v>187</v>
       </c>
       <c r="M53" s="3">
@@ -3068,8 +3070,8 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="9">
+      <c r="K54" s="3"/>
+      <c r="L54" s="7">
         <v>10</v>
       </c>
       <c r="M54" s="3">
@@ -3113,8 +3115,8 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="9">
+      <c r="K55" s="3"/>
+      <c r="L55" s="7">
         <v>-211</v>
       </c>
       <c r="M55" s="3">
@@ -3158,8 +3160,8 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="9">
+      <c r="K56" s="3"/>
+      <c r="L56" s="7">
         <v>173</v>
       </c>
       <c r="M56" s="3">
@@ -3203,8 +3205,8 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="9">
+      <c r="K57" s="3"/>
+      <c r="L57" s="7">
         <v>911</v>
       </c>
       <c r="M57" s="3">
@@ -3248,8 +3250,8 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="9">
+      <c r="K58" s="3"/>
+      <c r="L58" s="7">
         <v>-535</v>
       </c>
       <c r="M58" s="3">
@@ -3293,8 +3295,8 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="9">
+      <c r="K59" s="3"/>
+      <c r="L59" s="7">
         <v>-2268</v>
       </c>
       <c r="M59" s="3">
@@ -3338,8 +3340,8 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="9">
+      <c r="K60" s="3"/>
+      <c r="L60" s="7">
         <v>-259</v>
       </c>
       <c r="M60" s="3">
@@ -3383,8 +3385,8 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="9">
+      <c r="K61" s="3"/>
+      <c r="L61" s="7">
         <v>-157</v>
       </c>
       <c r="M61" s="3">
@@ -3428,8 +3430,8 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="9">
+      <c r="K62" s="3"/>
+      <c r="L62" s="7">
         <v>296</v>
       </c>
       <c r="M62" s="3">
@@ -3478,8 +3480,8 @@
         <v>0</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="10">
+      <c r="K63" s="3"/>
+      <c r="L63" s="8">
         <f t="shared" si="49"/>
         <v>907</v>
       </c>
@@ -3493,8 +3495,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K64" s="7"/>
-      <c r="L64" s="11"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="str">
@@ -3529,8 +3530,8 @@
         <f t="shared" si="50"/>
         <v>Q424</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="11"/>
+      <c r="K65"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="1">
         <f t="shared" si="50"/>
         <v>2023</v>
@@ -3541,15 +3542,14 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K66" s="7"/>
-      <c r="L66" s="11"/>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="11"/>
+      <c r="K67"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -3578,8 +3578,7 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="11"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="3">
         <f>E68</f>
         <v>4322</v>
@@ -3616,8 +3615,7 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="11"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="3">
         <f t="shared" ref="M69:M73" si="52">E69</f>
         <v>133</v>
@@ -3654,8 +3652,7 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="11"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="3">
         <f t="shared" si="52"/>
         <v>24249</v>
@@ -3692,8 +3689,7 @@
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="11"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="3">
         <f t="shared" si="52"/>
         <v>380</v>
@@ -3730,8 +3726,7 @@
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="11"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="3">
         <f t="shared" si="52"/>
         <v>5545</v>
@@ -3768,8 +3763,7 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="11"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="3">
         <f t="shared" si="52"/>
         <v>1417</v>
@@ -3816,8 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="9"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="7"/>
       <c r="M74" s="4">
         <f>SUM(M68:M73)</f>
         <v>36046</v>
@@ -3854,8 +3848,7 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="11"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="3">
         <f t="shared" ref="M75:M82" si="54">E75</f>
         <v>723</v>
@@ -3892,8 +3885,8 @@
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="11"/>
+      <c r="K76"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="3">
         <f t="shared" si="54"/>
         <v>1913</v>
@@ -3930,8 +3923,7 @@
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="11"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="3">
         <f t="shared" si="54"/>
         <v>563</v>
@@ -3968,8 +3960,7 @@
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="11"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="3">
         <f t="shared" si="54"/>
         <v>3614</v>
@@ -4006,8 +3997,7 @@
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="11"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="3">
         <f t="shared" si="54"/>
         <v>1292</v>
@@ -4044,8 +4034,7 @@
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="11"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="3">
         <f t="shared" si="54"/>
         <v>979</v>
@@ -4082,8 +4071,7 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="11"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="3">
         <f t="shared" si="54"/>
         <v>136</v>
@@ -4120,8 +4108,7 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="11"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="3">
         <f t="shared" si="54"/>
         <v>1085</v>
@@ -4168,8 +4155,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="4"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="9"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="7"/>
       <c r="M83" s="4">
         <f>SUM(M74:M82)</f>
         <v>46351</v>
@@ -4180,14 +4167,13 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K84" s="7"/>
-      <c r="L84" s="11"/>
+      <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L85" s="8"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -4479,7 +4465,7 @@
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="10"/>
+      <c r="L93" s="8"/>
       <c r="M93" s="4">
         <f t="shared" si="62"/>
         <v>38117</v>
@@ -4515,7 +4501,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="M94" s="3">
-        <f t="shared" ref="M94:M95" si="63">E94</f>
+        <f t="shared" ref="M94" si="63">E94</f>
         <v>54</v>
       </c>
       <c r="N94" s="3">
@@ -4574,7 +4560,7 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="8"/>
       <c r="M96" s="4">
         <f t="shared" si="65"/>
         <v>8180</v>
@@ -4597,7 +4583,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="L97" s="8"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
@@ -4855,7 +4841,7 @@
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="10"/>
+      <c r="L104" s="8"/>
       <c r="M104" s="4">
         <f t="shared" si="69"/>
         <v>8096</v>
@@ -4903,7 +4889,7 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="10"/>
+      <c r="L105" s="8"/>
       <c r="M105" s="4">
         <f t="shared" si="71"/>
         <v>46267</v>
@@ -5014,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A4ED89-0403-4F67-9A5F-2AAFDE394116}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5065,6 +5051,30 @@
         <v>123</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1096" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B924C7EE-2C81-4696-BFE6-8A920000A929}"/>
+  <xr:revisionPtr revIDLastSave="1106" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706A8081-6CBB-46FA-800C-5378CD8DD3AF}"/>
   <bookViews>
-    <workbookView xWindow="22750" yWindow="4020" windowWidth="15080" windowHeight="15850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>Revenues</t>
   </si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>Purchased 100% of cap stock of Raven Industries, Inc. - total $2.1B. Based in Sioux Falls, SD. 3 business divisions: Applied Tech (precision ag tech), Engineered Films, and Aerostar. Engineered Films and Aerostar were held for sale.</t>
+  </si>
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -551,6 +563,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F76" sqref="F76"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,343 +1063,381 @@
     <col min="12" max="12" width="0" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1">
+      <c r="J2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="1">
         <v>2022</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L2" s="6">
         <v>2023</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M2" s="1">
         <v>2023</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N2" s="1">
         <v>2024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3927</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4890</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4384</v>
-      </c>
-      <c r="E2" s="3">
-        <f>L2-D2-C2-B2</f>
-        <v>4947</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3373</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3913</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3310</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>17969</v>
-      </c>
-      <c r="L2" s="7">
-        <v>18148</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" ref="M2:M3" si="0">SUM(B2:E2)</f>
-        <v>18148</v>
-      </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N3" si="1">SUM(F2:I2)</f>
-        <v>10596</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3">
-        <v>849</v>
+        <v>3927</v>
       </c>
       <c r="C3" s="3">
-        <v>1064</v>
+        <v>4890</v>
       </c>
       <c r="D3" s="3">
-        <v>948</v>
+        <v>4384</v>
       </c>
       <c r="E3" s="3">
         <f>L3-D3-C3-B3</f>
+        <v>4947</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3373</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3913</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3310</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="3">
+        <v>17969</v>
+      </c>
+      <c r="L3" s="7">
+        <v>18148</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M4" si="0">SUM(B3:E3)</f>
+        <v>18148</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N4" si="1">SUM(F3:I3)</f>
+        <v>10596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3">
+        <v>849</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1064</v>
+      </c>
+      <c r="D4" s="3">
+        <v>948</v>
+      </c>
+      <c r="E4" s="3">
+        <f>L4-D4-C4-B4</f>
         <v>1071</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>758</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>890</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>687</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="3">
         <v>3572</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L4" s="7">
         <v>3932</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>3932</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="1"/>
         <v>2335</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:C4" si="2">SUM(B2:B3)</f>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:C5" si="2">SUM(B3:B4)</f>
         <v>4776</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <f t="shared" si="2"/>
         <v>5954</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUM(D2:D3)</f>
+      <c r="D5" s="4">
+        <f>SUM(D3:D4)</f>
         <v>5332</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:N4" si="3">SUM(E2:E3)</f>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:N5" si="3">SUM(E3:E4)</f>
         <v>6018</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
         <v>4131</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
         <v>4803</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
         <v>3997</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="J5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>21541</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L5" s="8">
         <f t="shared" si="3"/>
         <v>22080</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="4">
         <f t="shared" si="3"/>
         <v>22080</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="4">
         <f t="shared" si="3"/>
         <v>12931</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3">
-        <v>549</v>
-      </c>
-      <c r="C5" s="3">
-        <v>603</v>
-      </c>
-      <c r="D5" s="3">
-        <v>653</v>
-      </c>
-      <c r="E5" s="3">
-        <f>L5-D5-C5-B5</f>
-        <v>768</v>
-      </c>
-      <c r="F5" s="3">
-        <v>685</v>
-      </c>
-      <c r="G5" s="3">
-        <v>687</v>
-      </c>
-      <c r="H5" s="3">
-        <v>659</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>1996</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2573</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M5:M6" si="4">SUM(B5:E5)</f>
-        <v>2573</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:N6" si="5">SUM(F5:I5)</f>
-        <v>2031</v>
-      </c>
-    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3">
-        <v>17</v>
+        <v>549</v>
       </c>
       <c r="C6" s="3">
-        <v>10</v>
+        <v>603</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="E6" s="3">
         <f>L6-D6-C6-B6</f>
+        <v>768</v>
+      </c>
+      <c r="F6" s="3">
+        <v>685</v>
+      </c>
+      <c r="G6" s="3">
+        <v>687</v>
+      </c>
+      <c r="H6" s="3">
+        <v>659</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1996</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2573</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" ref="M6:M7" si="4">SUM(B6:E6)</f>
+        <v>2573</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6:N7" si="5">SUM(F6:I6)</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f>L7-D7-C7-B7</f>
         <v>6</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="3">
         <v>-2</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="3">
         <v>14</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="7">
         <v>34</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="3">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" ref="B7:C7" si="6">SUM(B4:B6)</f>
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:C8" si="6">SUM(B5:B7)</f>
         <v>5342</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <f t="shared" si="6"/>
         <v>6567</v>
       </c>
-      <c r="D7" s="4">
-        <f>SUM(D4:D6)</f>
+      <c r="D8" s="4">
+        <f>SUM(D5:D7)</f>
         <v>5986</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:N7" si="7">SUM(E4:E6)</f>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:N8" si="7">SUM(E5:E7)</f>
         <v>6792</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="7"/>
         <v>4818</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <f t="shared" si="7"/>
         <v>5488</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <f t="shared" si="7"/>
         <v>4654</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="J8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="7"/>
         <v>23551</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="7"/>
         <v>24687</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="7"/>
         <v>24687</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="4">
         <f t="shared" si="7"/>
         <v>14960</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1393,3508 +1446,3739 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="7"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1488</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1872</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1807</v>
-      </c>
-      <c r="E10" s="3">
-        <f>L10-D10-C10-B10</f>
-        <v>1990</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1442</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1739</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1402</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>6769</v>
-      </c>
-      <c r="L10" s="7">
-        <v>7157</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10:M13" si="8">SUM(B10:E10)</f>
-        <v>7157</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10:N13" si="9">SUM(F10:I10)</f>
-        <v>4583</v>
-      </c>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3">
-        <v>1347</v>
+        <v>1488</v>
       </c>
       <c r="C11" s="3">
-        <v>1676</v>
+        <v>1872</v>
       </c>
       <c r="D11" s="3">
-        <v>1202</v>
+        <v>1807</v>
       </c>
       <c r="E11" s="3">
         <f>L11-D11-C11-B11</f>
+        <v>1990</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1442</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1739</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1402</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6769</v>
+      </c>
+      <c r="L11" s="7">
+        <v>7157</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ref="M11:M14" si="8">SUM(B11:E11)</f>
+        <v>7157</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11:N14" si="9">SUM(F11:I11)</f>
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1347</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1676</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1202</v>
+      </c>
+      <c r="E12" s="3">
+        <f>L12-D12-C12-B12</f>
         <v>1653</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>1118</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>1191</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>905</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="3">
         <v>5776</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="7">
         <v>5878</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="8"/>
         <v>5878</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="9"/>
         <v>3214</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>730</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>850</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>830</v>
       </c>
-      <c r="E12" s="3">
-        <f>L12-D12-C12-B12</f>
+      <c r="E13" s="3">
+        <f>L13-D13-C13-B13</f>
         <v>768</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>482</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>559</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>582</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="I13" s="3"/>
+      <c r="J13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="3">
         <v>3738</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="7">
         <v>3178</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="8"/>
         <v>3178</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="9"/>
         <v>1623</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>362</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>492</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>545</v>
       </c>
-      <c r="E13" s="3">
-        <f>L13-D13-C13-B13</f>
+      <c r="E14" s="3">
+        <f>L14-D14-C14-B14</f>
         <v>536</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>331</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>424</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>421</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="3">
         <v>1686</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L14" s="7">
         <v>1935</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="8"/>
         <v>1935</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="9"/>
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:C14" si="10">SUM(B10:B13)</f>
+      <c r="B15" s="4">
+        <f t="shared" ref="B15:C15" si="10">SUM(B11:B14)</f>
         <v>3927</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <f t="shared" si="10"/>
         <v>4890</v>
       </c>
-      <c r="D14" s="4">
-        <f>SUM(D10:D13)</f>
+      <c r="D15" s="4">
+        <f>SUM(D11:D14)</f>
         <v>4384</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:I14" si="11">SUM(E10:E13)</f>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:I15" si="11">SUM(E11:E14)</f>
         <v>4947</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="11"/>
         <v>3373</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="11"/>
         <v>3913</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <f t="shared" si="11"/>
         <v>3310</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <f t="shared" ref="K14:N14" si="12">SUM(K10:K13)</f>
+      <c r="J15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:N15" si="12">SUM(K11:K14)</f>
         <v>17969</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="12"/>
         <v>18148</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M15" s="4">
         <f t="shared" si="12"/>
         <v>18148</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N15" s="4">
         <f t="shared" si="12"/>
         <v>10596</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4767</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5942</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5322</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>4120</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4789</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3986</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="3">
-        <f>SUM(B16:E16)</f>
-        <v>16031</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" ref="N16:N17" si="13">SUM(F16:I16)</f>
-        <v>12895</v>
-      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3">
-        <v>9</v>
+        <v>4767</v>
       </c>
       <c r="C17" s="3">
-        <v>12</v>
+        <v>5942</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>5322</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>11</v>
+        <v>4120</v>
       </c>
       <c r="G17" s="3">
-        <v>14</v>
+        <v>4789</v>
       </c>
       <c r="H17" s="3">
-        <v>11</v>
+        <v>3986</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="7"/>
       <c r="M17" s="3">
         <f>SUM(B17:E17)</f>
+        <v>16031</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ref="N17:N18" si="13">SUM(F17:I17)</f>
+        <v>12895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="3">
+        <f>SUM(B18:E18)</f>
         <v>31</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="4">
-        <f t="shared" ref="B18:C18" si="14">B16+B17</f>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19:C19" si="14">B17+B18</f>
         <v>4776</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <f t="shared" si="14"/>
         <v>5954</v>
       </c>
-      <c r="D18" s="4">
-        <f>D16+D17</f>
+      <c r="D19" s="4">
+        <f>D17+D18</f>
         <v>5332</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" ref="E18:N18" si="15">E16+E17</f>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:N19" si="15">E17+E18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="15"/>
         <v>4131</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="15"/>
         <v>4803</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <f t="shared" si="15"/>
         <v>3997</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="J19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M19" s="4">
         <f t="shared" si="15"/>
         <v>16062</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="4">
         <f t="shared" si="15"/>
         <v>12931</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3">
-        <v>402</v>
-      </c>
-      <c r="C19" s="3">
-        <v>449</v>
-      </c>
-      <c r="D19" s="3">
-        <v>491</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>536</v>
-      </c>
-      <c r="G19" s="3">
-        <v>548</v>
-      </c>
-      <c r="H19" s="3">
-        <v>519</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="3">
-        <f>SUM(B19:E19)</f>
-        <v>1342</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" ref="N19:N20" si="16">SUM(F19:I19)</f>
-        <v>1603</v>
-      </c>
-    </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="C20" s="3">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="D20" s="3">
-        <v>163</v>
+        <v>491</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <v>151</v>
+        <v>536</v>
       </c>
       <c r="G20" s="3">
-        <v>137</v>
+        <v>548</v>
       </c>
       <c r="H20" s="3">
-        <v>138</v>
+        <v>519</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="7"/>
       <c r="M20" s="3">
         <f>SUM(B20:E20)</f>
+        <v>1342</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20:N21" si="16">SUM(F20:I20)</f>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="3">
+        <v>164</v>
+      </c>
+      <c r="C21" s="3">
+        <v>164</v>
+      </c>
+      <c r="D21" s="3">
+        <v>163</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>151</v>
+      </c>
+      <c r="G21" s="3">
+        <v>137</v>
+      </c>
+      <c r="H21" s="3">
+        <v>138</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3">
+        <f>SUM(B21:E21)</f>
         <v>491</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="16"/>
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="4">
-        <f t="shared" ref="B21:C21" si="17">+B19+B20+B18</f>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:C22" si="17">+B20+B21+B19</f>
         <v>5342</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <f t="shared" si="17"/>
         <v>6567</v>
       </c>
-      <c r="D21" s="4">
-        <f>+D19+D20+D18</f>
+      <c r="D22" s="4">
+        <f>+D20+D21+D19</f>
         <v>5986</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" ref="E21:N21" si="18">+E19+E20+E18</f>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:N22" si="18">+E20+E21+E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="18"/>
         <v>4818</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <f t="shared" si="18"/>
         <v>5488</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <f t="shared" si="18"/>
         <v>4654</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="J22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="4">
         <f t="shared" si="18"/>
         <v>17895</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="4">
         <f t="shared" si="18"/>
         <v>14960</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K22"/>
-      <c r="L22" s="9"/>
-    </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
+      <c r="J23" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>4776</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5954</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5332</v>
-      </c>
-      <c r="E24" s="3">
-        <f>L24-D24-C24-B24</f>
-        <v>6018</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4131</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4803</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3997</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>21541</v>
-      </c>
-      <c r="L24" s="7">
-        <v>22080</v>
-      </c>
-      <c r="M24" s="3">
-        <f>SUM(B24:E24)</f>
-        <v>22080</v>
-      </c>
-      <c r="N24" s="3">
-        <f>SUM(F24:I24)</f>
-        <v>12931</v>
-      </c>
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>566</v>
+        <v>4776</v>
       </c>
       <c r="C25" s="3">
-        <v>613</v>
+        <v>5954</v>
       </c>
       <c r="D25" s="3">
-        <v>654</v>
+        <v>5332</v>
       </c>
       <c r="E25" s="3">
         <f>L25-D25-C25-B25</f>
-        <v>774</v>
+        <v>6018</v>
       </c>
       <c r="F25" s="3">
-        <v>687</v>
+        <v>4131</v>
       </c>
       <c r="G25" s="3">
-        <v>685</v>
+        <v>4803</v>
       </c>
       <c r="H25" s="3">
-        <v>657</v>
+        <v>3997</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K25" s="3">
-        <v>2010</v>
+        <v>21541</v>
       </c>
       <c r="L25" s="7">
-        <v>2607</v>
+        <v>22080</v>
       </c>
       <c r="M25" s="3">
         <f>SUM(B25:E25)</f>
-        <v>2607</v>
+        <v>22080</v>
       </c>
       <c r="N25" s="3">
         <f>SUM(F25:I25)</f>
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>566</v>
+      </c>
+      <c r="C26" s="3">
+        <v>613</v>
+      </c>
+      <c r="D26" s="3">
+        <v>654</v>
+      </c>
+      <c r="E26" s="3">
+        <f>L26-D26-C26-B26</f>
+        <v>774</v>
+      </c>
+      <c r="F26" s="3">
+        <v>687</v>
+      </c>
+      <c r="G26" s="3">
+        <v>685</v>
+      </c>
+      <c r="H26" s="3">
+        <v>657</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L26" s="7">
+        <v>2607</v>
+      </c>
+      <c r="M26" s="3">
+        <f>SUM(B26:E26)</f>
+        <v>2607</v>
+      </c>
+      <c r="N26" s="3">
+        <f>SUM(F26:I26)</f>
         <v>2029</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4">
-        <f t="shared" ref="B26:C26" si="19">SUM(B24:B25)</f>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:C27" si="19">SUM(B25:B26)</f>
         <v>5342</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <f t="shared" si="19"/>
         <v>6567</v>
       </c>
-      <c r="D26" s="4">
-        <f>SUM(D24:D25)</f>
+      <c r="D27" s="4">
+        <f>SUM(D25:D26)</f>
         <v>5986</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" ref="E26:N26" si="20">SUM(E24:E25)</f>
+      <c r="E27" s="4">
+        <f t="shared" ref="E27:N27" si="20">SUM(E25:E26)</f>
         <v>6792</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="20"/>
         <v>4818</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <f t="shared" si="20"/>
         <v>5488</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <f t="shared" si="20"/>
         <v>4654</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <f t="shared" ref="K26" si="21">SUM(K24:K25)</f>
+      <c r="J27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" ref="K27" si="21">SUM(K25:K26)</f>
         <v>23551</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L27" s="8">
         <f t="shared" si="20"/>
         <v>24687</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M27" s="4">
         <f t="shared" si="20"/>
         <v>24687</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N27" s="4">
         <f t="shared" si="20"/>
         <v>14960</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>3611</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>4463</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>4059</v>
       </c>
-      <c r="E27" s="3">
-        <f>L27-D27-C27-B27</f>
+      <c r="E28" s="3">
+        <f>L28-D28-C28-B28</f>
         <v>4705</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>3195</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>3702</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>3130</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="3">
         <v>16797</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L28" s="7">
         <v>16838</v>
       </c>
-      <c r="M27" s="3">
-        <f>SUM(B27:E27)</f>
+      <c r="M28" s="3">
+        <f>SUM(B28:E28)</f>
         <v>16838</v>
       </c>
-      <c r="N27" s="3">
-        <f>SUM(F27:I27)</f>
+      <c r="N28" s="3">
+        <f>SUM(F28:I28)</f>
         <v>10027</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="4">
-        <f t="shared" ref="B28:G28" si="22">B26-B27</f>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:G29" si="22">B27-B28</f>
         <v>1731</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <f t="shared" si="22"/>
         <v>2104</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="4">
         <f t="shared" si="22"/>
         <v>1927</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="22"/>
         <v>2087</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="22"/>
         <v>1623</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <f t="shared" si="22"/>
         <v>1786</v>
       </c>
-      <c r="H28" s="4">
-        <f>H26-H27</f>
+      <c r="H29" s="4">
+        <f>H27-H28</f>
         <v>1524</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" ref="I28:N28" si="23">I26-I27</f>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:N29" si="23">I27-I28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
-        <f t="shared" ref="K28" si="24">K26-K27</f>
+      <c r="J29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29" si="24">K27-K28</f>
         <v>6754</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L29" s="8">
         <f t="shared" si="23"/>
         <v>7849</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M29" s="4">
         <f t="shared" si="23"/>
         <v>7849</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N29" s="4">
         <f t="shared" si="23"/>
         <v>4933</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>438</v>
-      </c>
-      <c r="C29" s="3">
-        <v>485</v>
-      </c>
-      <c r="D29" s="3">
-        <v>462</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" ref="E29:E33" si="25">L29-D29-C29-B29</f>
-        <v>478</v>
-      </c>
-      <c r="F29" s="3">
-        <v>411</v>
-      </c>
-      <c r="G29" s="3">
-        <v>461</v>
-      </c>
-      <c r="H29" s="3">
-        <v>426</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>1752</v>
-      </c>
-      <c r="L29" s="7">
-        <v>1863</v>
-      </c>
-      <c r="M29" s="3">
-        <f>SUM(B29:E29)</f>
-        <v>1863</v>
-      </c>
-      <c r="N29" s="3">
-        <f>SUM(F29:I29)</f>
-        <v>1298</v>
-      </c>
-    </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>438</v>
+      </c>
+      <c r="C30" s="3">
+        <v>485</v>
+      </c>
+      <c r="D30" s="3">
+        <v>462</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ref="E30:E34" si="25">L30-D30-C30-B30</f>
+        <v>478</v>
+      </c>
+      <c r="F30" s="3">
+        <v>411</v>
+      </c>
+      <c r="G30" s="3">
+        <v>461</v>
+      </c>
+      <c r="H30" s="3">
+        <v>426</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1752</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1863</v>
+      </c>
+      <c r="M30" s="3">
+        <f>SUM(B30:E30)</f>
+        <v>1863</v>
+      </c>
+      <c r="N30" s="3">
+        <f>SUM(F30:I30)</f>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>231</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>269</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>266</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <f t="shared" si="25"/>
         <v>275</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>228</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>237</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>221</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
+      <c r="I31" s="3"/>
+      <c r="J31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="3">
         <v>866</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L31" s="7">
         <v>1041</v>
       </c>
-      <c r="M30" s="3">
-        <f>SUM(B30:E30)</f>
+      <c r="M31" s="3">
+        <f>SUM(B31:E31)</f>
         <v>1041</v>
       </c>
-      <c r="N30" s="3">
-        <f>SUM(F30:I30)</f>
+      <c r="N31" s="3">
+        <f>SUM(F31:I31)</f>
         <v>686</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="25"/>
         <v>59</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>31</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>51</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>12</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
+      <c r="I32" s="3"/>
+      <c r="J32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="3">
         <v>31</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L32" s="7">
         <v>67</v>
       </c>
-      <c r="M31" s="3">
-        <f>SUM(B31:E31)</f>
+      <c r="M32" s="3">
+        <f>SUM(B32:E32)</f>
         <v>67</v>
       </c>
-      <c r="N31" s="3">
-        <f>SUM(F31:I31)</f>
+      <c r="N32" s="3">
+        <f>SUM(F32:I32)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>272</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>323</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>346</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="25"/>
         <v>404</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>394</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>418</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="3">
         <v>378</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
+      <c r="I33" s="3"/>
+      <c r="J33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="3">
         <v>734</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L33" s="7">
         <v>1345</v>
       </c>
-      <c r="M32" s="3">
-        <f>SUM(B32:E32)</f>
+      <c r="M33" s="3">
+        <f>SUM(B33:E33)</f>
         <v>1345</v>
       </c>
-      <c r="N32" s="3">
-        <f>SUM(F32:I32)</f>
+      <c r="N33" s="3">
+        <f>SUM(F33:I33)</f>
         <v>1190</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>163</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>187</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>186</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <f t="shared" si="25"/>
         <v>294</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>157</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>165</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <v>127</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
+      <c r="I34" s="3"/>
+      <c r="J34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="3">
         <v>689</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L34" s="7">
         <v>830</v>
       </c>
-      <c r="M33" s="3">
-        <f>SUM(B33:E33)</f>
+      <c r="M34" s="3">
+        <f>SUM(B34:E34)</f>
         <v>830</v>
       </c>
-      <c r="N33" s="3">
-        <f>SUM(F33:I33)</f>
+      <c r="N34" s="3">
+        <f>SUM(F34:I34)</f>
         <v>449</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="4">
-        <f t="shared" ref="B34:C34" si="26">SUM(B29:B33)+B27</f>
+      <c r="B35" s="4">
+        <f t="shared" ref="B35:C35" si="26">SUM(B30:B34)+B28</f>
         <v>4716</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <f t="shared" si="26"/>
         <v>5729</v>
       </c>
-      <c r="D34" s="4">
-        <f>SUM(D29:D33)+D27</f>
+      <c r="D35" s="4">
+        <f>SUM(D30:D34)+D28</f>
         <v>5324</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" ref="E34:N34" si="27">SUM(E29:E33)+E27</f>
+      <c r="E35" s="4">
+        <f t="shared" ref="E35:N35" si="27">SUM(E30:E34)+E28</f>
         <v>6215</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <f t="shared" si="27"/>
         <v>4416</v>
       </c>
-      <c r="G34" s="4">
-        <f t="shared" ref="G34" si="28">SUM(G29:G33)+G27</f>
+      <c r="G35" s="4">
+        <f t="shared" ref="G35" si="28">SUM(G30:G34)+G28</f>
         <v>5034</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="27"/>
         <v>4294</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
-        <f t="shared" ref="K34:L34" si="29">SUM(K29:K33)+K27</f>
+      <c r="J35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" ref="K35:L35" si="29">SUM(K30:K34)+K28</f>
         <v>20869</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L35" s="8">
         <f t="shared" si="29"/>
         <v>21984</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="4">
         <f t="shared" si="27"/>
         <v>21984</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <f t="shared" si="27"/>
         <v>13744</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4">
-        <f t="shared" ref="B35:C35" si="30">B26-B34</f>
+      <c r="B36" s="4">
+        <f t="shared" ref="B36:C36" si="30">B27-B35</f>
         <v>626</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
         <f t="shared" si="30"/>
         <v>838</v>
       </c>
-      <c r="D35" s="4">
-        <f>D26-D34</f>
+      <c r="D36" s="4">
+        <f>D27-D35</f>
         <v>662</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" ref="E35:N35" si="31">E26-E34</f>
+      <c r="E36" s="4">
+        <f t="shared" ref="E36:N36" si="31">E27-E35</f>
         <v>577</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <f t="shared" si="31"/>
         <v>402</v>
       </c>
-      <c r="G35" s="4">
-        <f t="shared" ref="G35" si="32">G26-G34</f>
+      <c r="G36" s="4">
+        <f t="shared" ref="G36" si="32">G27-G35</f>
         <v>454</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <f t="shared" si="31"/>
         <v>360</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35:L35" si="33">K26-K34</f>
+      <c r="J36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" ref="K36:L36" si="33">K27-K35</f>
         <v>2682</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L36" s="8">
         <f t="shared" si="33"/>
         <v>2703</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="4">
         <f t="shared" si="31"/>
         <v>2703</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <f t="shared" si="31"/>
         <v>1216</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-173</v>
-      </c>
-      <c r="C36" s="3">
-        <v>-192</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-171</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" ref="E36:E38" si="34">L36-D36-C36-B36</f>
-        <v>-58</v>
-      </c>
-      <c r="F36" s="3">
-        <v>-77</v>
-      </c>
-      <c r="G36" s="3">
-        <v>-95</v>
-      </c>
-      <c r="H36" s="3">
-        <v>-75</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
-        <v>-747</v>
-      </c>
-      <c r="L36" s="7">
-        <v>-594</v>
-      </c>
-      <c r="M36" s="3">
-        <f>SUM(B36:E36)</f>
-        <v>-594</v>
-      </c>
-      <c r="N36" s="3">
-        <f>SUM(F36:I36)</f>
-        <v>-247</v>
-      </c>
-    </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-173</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-192</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-171</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ref="E37:E39" si="34">L37-D37-C37-B37</f>
+        <v>-58</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-77</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-95</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-75</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-747</v>
+      </c>
+      <c r="L37" s="7">
+        <v>-594</v>
+      </c>
+      <c r="M37" s="3">
+        <f>SUM(B37:E37)</f>
+        <v>-594</v>
+      </c>
+      <c r="N37" s="3">
+        <f>SUM(F37:I37)</f>
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4">
         <v>33</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="3">
         <v>64</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>49</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="3">
         <f t="shared" si="34"/>
         <v>128</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <v>77</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="3">
         <v>79</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H38" s="3">
         <v>25</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
+      <c r="I38" s="3"/>
+      <c r="J38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="3">
         <v>104</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L38" s="7">
         <v>274</v>
       </c>
-      <c r="M37" s="3">
-        <f>SUM(B37:E37)</f>
+      <c r="M38" s="3">
+        <f>SUM(B38:E38)</f>
         <v>274</v>
       </c>
-      <c r="N37" s="3">
-        <f>SUM(F37:I37)</f>
+      <c r="N38" s="3">
+        <f>SUM(F38:I38)</f>
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>4</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="3">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H39" s="3">
         <v>4</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
+      <c r="I39" s="3"/>
+      <c r="J39" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="3">
         <v>10</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L39" s="7">
         <v>12</v>
       </c>
-      <c r="M38" s="3">
-        <f>SUM(B38:E38)</f>
+      <c r="M39" s="3">
+        <f>SUM(B39:E39)</f>
         <v>12</v>
       </c>
-      <c r="N38" s="3">
-        <f>SUM(F38:I38)</f>
+      <c r="N39" s="3">
+        <f>SUM(F39:I39)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4">
-        <f t="shared" ref="B39:C39" si="35">B35+B36+B37-B38</f>
+      <c r="B40" s="4">
+        <f t="shared" ref="B40:C40" si="35">B36+B37+B38-B39</f>
         <v>482</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C40" s="4">
         <f t="shared" si="35"/>
         <v>706</v>
       </c>
-      <c r="D39" s="4">
-        <f>D35+D36+D37-D38</f>
+      <c r="D40" s="4">
+        <f>D36+D37+D38-D39</f>
         <v>537</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:N39" si="36">E35+E36+E37-E38</f>
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:N40" si="36">E36+E37+E38-E39</f>
         <v>646</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <f t="shared" si="36"/>
         <v>401</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="36"/>
         <v>433</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <f t="shared" si="36"/>
         <v>306</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
-        <f t="shared" ref="K39" si="37">K35+K36+K37-K38</f>
+      <c r="J40" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" ref="K40" si="37">K36+K37+K38-K39</f>
         <v>2029</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L40" s="8">
         <f t="shared" si="36"/>
         <v>2371</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M40" s="4">
         <f t="shared" si="36"/>
         <v>2371</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <f t="shared" si="36"/>
         <v>1140</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2">
-        <f t="shared" ref="B41:C41" si="38">B39/B44</f>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:C42" si="38">B40/B45</f>
         <v>0.35916542473919522</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <f t="shared" si="38"/>
         <v>0.52765321375186847</v>
       </c>
-      <c r="D41" s="2">
-        <f>D39/D44</f>
+      <c r="D42" s="2">
+        <f>D40/D45</f>
         <v>0.42822966507177035</v>
       </c>
-      <c r="E41" s="2" t="e">
-        <f t="shared" ref="E41:N41" si="39">E39/E44</f>
+      <c r="E42" s="2" t="e">
+        <f t="shared" ref="E42:N42" si="39">E40/E45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="39"/>
         <v>0.31825396825396823</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <f t="shared" si="39"/>
         <v>0.34474522292993631</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="2">
         <f t="shared" si="39"/>
         <v>0.22972972972972974</v>
       </c>
-      <c r="I41" s="2" t="e">
+      <c r="I42" s="2" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2" t="e">
-        <f t="shared" ref="K41:L41" si="40">K39/K44</f>
+      <c r="J42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" s="2" t="e">
+        <f t="shared" ref="K42:L42" si="40">K40/K45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="10" t="e">
+      <c r="L42" s="10" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="39"/>
         <v>0.60269445856634474</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="39"/>
         <v>0.29625779625779625</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2">
-        <f t="shared" ref="B42:C42" si="41">B39/B45</f>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:C43" si="41">B40/B46</f>
         <v>0.35467255334805003</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <f t="shared" si="41"/>
         <v>0.52103321033210337</v>
       </c>
-      <c r="D42" s="2">
-        <f>D39/D45</f>
+      <c r="D43" s="2">
+        <f>D40/D46</f>
         <v>0.42822966507177035</v>
       </c>
-      <c r="E42" s="2" t="e">
-        <f t="shared" ref="E42:N42" si="42">E39/E45</f>
+      <c r="E43" s="2" t="e">
+        <f t="shared" ref="E43:N43" si="42">E40/E46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="42"/>
         <v>0.31475667189952905</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="2">
         <f t="shared" si="42"/>
         <v>0.34365079365079365</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <f t="shared" si="42"/>
         <v>0.22649888971132495</v>
       </c>
-      <c r="I42" s="2" t="e">
+      <c r="I43" s="2" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2" t="e">
-        <f t="shared" ref="K42:L42" si="43">K39/K45</f>
+      <c r="J43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" s="2" t="e">
+        <f t="shared" ref="K43:L43" si="43">K40/K46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="10" t="e">
+      <c r="L43" s="10" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="42"/>
         <v>0.59753024193548387</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N43" s="2">
         <f t="shared" si="42"/>
         <v>0.29343629343629346</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L43" s="9"/>
-    </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>1342</v>
-      </c>
-      <c r="C44">
-        <v>1338</v>
-      </c>
-      <c r="D44">
-        <v>1254</v>
-      </c>
-      <c r="F44">
-        <v>1260</v>
-      </c>
-      <c r="G44">
-        <v>1256</v>
-      </c>
-      <c r="H44">
-        <v>1332</v>
+      <c r="J44" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="L44" s="9"/>
-      <c r="M44">
-        <f>SUM(B44:E44)</f>
-        <v>3934</v>
-      </c>
-      <c r="N44">
-        <f>SUM(F44:I44)</f>
-        <v>3848</v>
-      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="C45">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="D45">
         <v>1254</v>
       </c>
       <c r="F45">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="G45">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="H45">
-        <v>1351</v>
+        <v>1332</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45">
         <f>SUM(B45:E45)</f>
-        <v>3968</v>
+        <v>3934</v>
       </c>
       <c r="N45">
         <f>SUM(F45:I45)</f>
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>1359</v>
+      </c>
+      <c r="C46">
+        <v>1355</v>
+      </c>
+      <c r="D46">
+        <v>1254</v>
+      </c>
+      <c r="F46">
+        <v>1274</v>
+      </c>
+      <c r="G46">
+        <v>1260</v>
+      </c>
+      <c r="H46">
+        <v>1351</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46">
+        <f>SUM(B46:E46)</f>
+        <v>3968</v>
+      </c>
+      <c r="N46">
+        <f>SUM(F46:I46)</f>
         <v>3885</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L46" s="9"/>
-    </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="J47" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>23</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>0</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>0</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47">
-        <f>SUM(B47:E47)</f>
+      <c r="J48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48">
+        <f>SUM(B48:E48)</f>
         <v>0</v>
       </c>
-      <c r="N47">
-        <f>SUM(F47:I47)</f>
+      <c r="N48">
+        <f>SUM(F48:I48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="str">
-        <f>B1</f>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J49" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="str">
+        <f>B2</f>
         <v>Q123</v>
       </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" ref="C49:N49" si="44">C1</f>
+      <c r="C50" s="1" t="str">
+        <f t="shared" ref="C50:N50" si="44">C2</f>
         <v>Q223</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q323</v>
       </c>
-      <c r="E49" s="1" t="str">
+      <c r="E50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q423</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="F50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q124</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="G50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q224</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q324</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I50" s="1" t="str">
         <f t="shared" si="44"/>
         <v>Q424</v>
       </c>
-      <c r="K49"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="1">
+      <c r="J50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="1">
         <f t="shared" si="44"/>
         <v>2023</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N50" s="1">
         <f t="shared" si="44"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L50" s="9"/>
-    </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="3">
-        <v>486</v>
-      </c>
-      <c r="C51" s="3">
-        <f>1196-B51</f>
-        <v>710</v>
-      </c>
-      <c r="D51" s="3">
-        <f>1704-C52-B52</f>
-        <v>1526</v>
-      </c>
-      <c r="E51" s="3">
-        <f>L51-D51-C51-B51</f>
-        <v>-339</v>
-      </c>
-      <c r="F51" s="3">
-        <v>402</v>
-      </c>
-      <c r="G51" s="3">
-        <f>840-F51</f>
-        <v>438</v>
-      </c>
-      <c r="H51" s="3">
-        <f>1083-G52-F52</f>
-        <v>876</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="7">
-        <v>2383</v>
-      </c>
-      <c r="M51" s="3">
-        <f t="shared" ref="M51:M62" si="45">SUM(B51:E51)</f>
-        <v>2383</v>
-      </c>
-      <c r="N51" s="3">
-        <f t="shared" ref="N51:N62" si="46">SUM(F51:I51)</f>
-        <v>1716</v>
-      </c>
+      <c r="J51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
-        <v>86</v>
+        <v>486</v>
       </c>
       <c r="C52" s="3">
-        <f>178-B52</f>
-        <v>92</v>
+        <f>1196-B52</f>
+        <v>710</v>
       </c>
       <c r="D52" s="3">
-        <f>276-C52-B52</f>
-        <v>98</v>
+        <f>1704-C53-B53</f>
+        <v>1526</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:E62" si="47">L52-D52-C52-B52</f>
-        <v>101</v>
+        <f>L52-D52-C52-B52</f>
+        <v>-339</v>
       </c>
       <c r="F52" s="3">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="G52" s="3">
-        <f>207-F52</f>
-        <v>104</v>
+        <f>840-F52</f>
+        <v>438</v>
       </c>
       <c r="H52" s="3">
-        <f>315-G52-F52</f>
-        <v>108</v>
+        <f>1083-G53-F53</f>
+        <v>876</v>
       </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="7">
+        <v>2383</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" ref="M52:M63" si="45">SUM(B52:E52)</f>
+        <v>2383</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" ref="N52:N63" si="46">SUM(F52:I52)</f>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="3">
+        <v>86</v>
+      </c>
+      <c r="C53" s="3">
+        <f>178-B53</f>
+        <v>92</v>
+      </c>
+      <c r="D53" s="3">
+        <f>276-C53-B53</f>
+        <v>98</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ref="E53:E63" si="47">L53-D53-C53-B53</f>
+        <v>101</v>
+      </c>
+      <c r="F53" s="3">
+        <v>103</v>
+      </c>
+      <c r="G53" s="3">
+        <f>207-F53</f>
+        <v>104</v>
+      </c>
+      <c r="H53" s="3">
+        <f>315-G53-F53</f>
+        <v>108</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="7">
         <v>377</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M53" s="3">
         <f t="shared" si="45"/>
         <v>377</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N53" s="3">
         <f t="shared" si="46"/>
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>46</v>
       </c>
-      <c r="C53" s="3">
-        <f>92-B53</f>
+      <c r="C54" s="3">
+        <f>92-B54</f>
         <v>46</v>
       </c>
-      <c r="D53" s="3">
-        <f>140-C53-B53</f>
+      <c r="D54" s="3">
+        <f>140-C54-B54</f>
         <v>48</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="3">
         <f t="shared" si="47"/>
         <v>47</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="3">
         <v>45</v>
       </c>
-      <c r="G53" s="3">
-        <f>92-F53</f>
+      <c r="G54" s="3">
+        <f>92-F54</f>
         <v>47</v>
       </c>
-      <c r="H53" s="3">
-        <f>139-G53-F53</f>
+      <c r="H54" s="3">
+        <f>139-G54-F54</f>
         <v>47</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="7">
+      <c r="I54" s="3"/>
+      <c r="J54" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="7">
         <v>187</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <f t="shared" si="45"/>
         <v>187</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="3">
         <f t="shared" si="46"/>
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>6</v>
       </c>
-      <c r="C54" s="3">
-        <f>20-B54</f>
+      <c r="C55" s="3">
+        <f>20-B55</f>
         <v>14</v>
       </c>
-      <c r="D54" s="3">
-        <f>21-C54-B54</f>
+      <c r="D55" s="3">
+        <f>21-C55-B55</f>
         <v>1</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <f t="shared" si="47"/>
         <v>-11</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3">
-        <f>7-F54</f>
+      <c r="G55" s="3">
+        <f>7-F55</f>
         <v>7</v>
       </c>
-      <c r="H54" s="3">
-        <f>7-G54-F54</f>
+      <c r="H55" s="3">
+        <f>7-G55-F55</f>
         <v>0</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="7">
+      <c r="I55" s="3"/>
+      <c r="J55" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="7">
         <v>10</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N55" s="3">
         <f t="shared" si="46"/>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>9</v>
       </c>
-      <c r="C55" s="3">
-        <f>-46-B55</f>
+      <c r="C56" s="3">
+        <f>-46-B56</f>
         <v>-55</v>
       </c>
-      <c r="D55" s="3">
-        <f>-63-SUM(B55:C55)</f>
+      <c r="D56" s="3">
+        <f>-63-SUM(B56:C56)</f>
         <v>-17</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <f t="shared" si="47"/>
         <v>-148</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>-77</v>
       </c>
-      <c r="G55" s="3">
-        <f>-79-F55</f>
+      <c r="G56" s="3">
+        <f>-79-F56</f>
         <v>-2</v>
       </c>
-      <c r="H55" s="3">
-        <f>-31-SUM(F55:G55)</f>
+      <c r="H56" s="3">
+        <f>-31-SUM(F56:G56)</f>
         <v>48</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="7">
+      <c r="I56" s="3"/>
+      <c r="J56" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="7">
         <v>-211</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M56" s="3">
         <f t="shared" si="45"/>
         <v>-211</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N56" s="3">
         <f t="shared" si="46"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>32</v>
       </c>
-      <c r="C56" s="3">
-        <f>78-B56</f>
+      <c r="C57" s="3">
+        <f>78-B57</f>
         <v>46</v>
       </c>
-      <c r="D56" s="3">
-        <f>136-C56-B56</f>
+      <c r="D57" s="3">
+        <f>136-C57-B57</f>
         <v>58</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="3">
         <f t="shared" si="47"/>
         <v>37</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>57</v>
       </c>
-      <c r="G56" s="3">
-        <f>130-F56</f>
+      <c r="G57" s="3">
+        <f>130-F57</f>
         <v>73</v>
       </c>
-      <c r="H56" s="3">
-        <f>276-G56-F56</f>
+      <c r="H57" s="3">
+        <f>276-G57-F57</f>
         <v>146</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="7">
+      <c r="I57" s="3"/>
+      <c r="J57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="7">
         <v>173</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M57" s="3">
         <f t="shared" si="45"/>
         <v>173</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N57" s="3">
         <f t="shared" si="46"/>
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>113</v>
       </c>
-      <c r="C57" s="3">
-        <f>445-B57</f>
+      <c r="C58" s="3">
+        <f>445-B58</f>
         <v>332</v>
       </c>
-      <c r="D57" s="3">
-        <f>618-C57-B57</f>
+      <c r="D58" s="3">
+        <f>618-C58-B58</f>
         <v>173</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="3">
         <f t="shared" si="47"/>
         <v>293</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="3">
         <v>-39</v>
       </c>
-      <c r="G57" s="3">
-        <f>105-F57</f>
+      <c r="G58" s="3">
+        <f>105-F58</f>
         <v>144</v>
       </c>
-      <c r="H57" s="3">
-        <f>52-G57-F57</f>
+      <c r="H58" s="3">
+        <f>52-G58-F58</f>
         <v>-53</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="7">
+      <c r="I58" s="3"/>
+      <c r="J58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="7">
         <v>911</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M58" s="3">
         <f t="shared" si="45"/>
         <v>911</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N58" s="3">
         <f t="shared" si="46"/>
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>-52</v>
       </c>
-      <c r="C58" s="3">
-        <f>-188-B58</f>
+      <c r="C59" s="3">
+        <f>-188-B59</f>
         <v>-136</v>
       </c>
-      <c r="D58" s="3">
-        <f>-319-C58-B58</f>
+      <c r="D59" s="3">
+        <f>-319-C59-B59</f>
         <v>-131</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <f t="shared" si="47"/>
         <v>-216</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <v>-18</v>
       </c>
-      <c r="G58" s="3">
-        <f>-24-F58</f>
+      <c r="G59" s="3">
+        <f>-24-F59</f>
         <v>-6</v>
       </c>
-      <c r="H58" s="3">
-        <f>-31-G58-F58</f>
+      <c r="H59" s="3">
+        <f>-31-G59-F59</f>
         <v>-7</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="7">
+      <c r="I59" s="3"/>
+      <c r="J59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="7">
         <v>-535</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M59" s="3">
         <f t="shared" si="45"/>
         <v>-535</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N59" s="3">
         <f t="shared" si="46"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>-355</v>
       </c>
-      <c r="C59" s="3">
-        <f>-1380-B59</f>
+      <c r="C60" s="3">
+        <f>-1380-B60</f>
         <v>-1025</v>
       </c>
-      <c r="D59" s="3">
-        <f>-1602-C59-B59</f>
+      <c r="D60" s="3">
+        <f>-1602-C60-B60</f>
         <v>-222</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="3">
         <f t="shared" si="47"/>
         <v>-666</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="3">
         <v>-22</v>
       </c>
-      <c r="G59" s="3">
-        <f>-136-F59</f>
+      <c r="G60" s="3">
+        <f>-136-F60</f>
         <v>-114</v>
       </c>
-      <c r="H59" s="3">
-        <f>482-G59-F59</f>
+      <c r="H60" s="3">
+        <f>482-G60-F60</f>
         <v>618</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="7">
+      <c r="I60" s="3"/>
+      <c r="J60" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="7">
         <v>-2268</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M60" s="3">
         <f t="shared" si="45"/>
         <v>-2268</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N60" s="3">
         <f t="shared" si="46"/>
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B61" s="3">
         <v>-1057</v>
       </c>
-      <c r="C60" s="3">
-        <f>-1379-B60</f>
+      <c r="C61" s="3">
+        <f>-1379-B61</f>
         <v>-322</v>
       </c>
-      <c r="D60" s="3">
-        <f>-1443-C60-B60</f>
+      <c r="D61" s="3">
+        <f>-1443-C61-B61</f>
         <v>-64</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <f t="shared" si="47"/>
         <v>1184</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>-681</v>
       </c>
-      <c r="G60" s="3">
-        <f>-495-F60</f>
+      <c r="G61" s="3">
+        <f>-495-F61</f>
         <v>186</v>
       </c>
-      <c r="H60" s="3">
-        <f>-256-G60-F60</f>
+      <c r="H61" s="3">
+        <f>-256-G61-F61</f>
         <v>239</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="7">
+      <c r="I61" s="3"/>
+      <c r="J61" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="7">
         <v>-259</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M61" s="3">
         <f t="shared" si="45"/>
         <v>-259</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N61" s="3">
         <f t="shared" si="46"/>
         <v>-256</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B62" s="3">
         <v>172</v>
       </c>
-      <c r="C61" s="3">
-        <f>202-B61</f>
+      <c r="C62" s="3">
+        <f>202-B62</f>
         <v>30</v>
       </c>
-      <c r="D61" s="3">
-        <f>-101-C61-B61</f>
+      <c r="D62" s="3">
+        <f>-101-C62-B62</f>
         <v>-303</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="3">
         <f t="shared" si="47"/>
         <v>-56</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="3">
         <v>-332</v>
       </c>
-      <c r="G61" s="3">
-        <f>-638-F61</f>
+      <c r="G62" s="3">
+        <f>-638-F62</f>
         <v>-306</v>
       </c>
-      <c r="H61" s="3">
-        <f>-1217-G61-F61</f>
+      <c r="H62" s="3">
+        <f>-1217-G62-F62</f>
         <v>-579</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="7">
+      <c r="I62" s="3"/>
+      <c r="J62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="7">
         <v>-157</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M62" s="3">
         <f t="shared" si="45"/>
         <v>-157</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N62" s="3">
         <f t="shared" si="46"/>
         <v>-1217</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B63" s="3">
         <v>-187</v>
       </c>
-      <c r="C62" s="3">
-        <f>-58-B62</f>
+      <c r="C63" s="3">
+        <f>-58-B63</f>
         <v>129</v>
       </c>
-      <c r="D62" s="3">
-        <f>25-C62-B62</f>
+      <c r="D63" s="3">
+        <f>25-C63-B63</f>
         <v>83</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="3">
         <f t="shared" si="47"/>
         <v>271</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="3">
         <v>-332</v>
       </c>
-      <c r="G62" s="3">
-        <f>-524-F62</f>
+      <c r="G63" s="3">
+        <f>-524-F63</f>
         <v>-192</v>
       </c>
-      <c r="H62" s="3">
-        <f>-543-G62-F62</f>
+      <c r="H63" s="3">
+        <f>-543-G63-F63</f>
         <v>-19</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="7">
+      <c r="I63" s="3"/>
+      <c r="J63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="7">
         <v>296</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M63" s="3">
         <f t="shared" si="45"/>
         <v>296</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N63" s="3">
         <f t="shared" si="46"/>
         <v>-543</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="4">
-        <f t="shared" ref="B63:C63" si="48">SUM(B51:B62)</f>
+      <c r="B64" s="4">
+        <f t="shared" ref="B64:C64" si="48">SUM(B52:B63)</f>
         <v>-701</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <f t="shared" si="48"/>
         <v>-139</v>
       </c>
-      <c r="D63" s="4">
-        <f>SUM(D51:D62)</f>
+      <c r="D64" s="4">
+        <f>SUM(D52:D63)</f>
         <v>1250</v>
       </c>
-      <c r="E63" s="4">
-        <f t="shared" ref="E63:N63" si="49">SUM(E51:E62)</f>
+      <c r="E64" s="4">
+        <f t="shared" ref="E64:N64" si="49">SUM(E52:E63)</f>
         <v>497</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <f t="shared" si="49"/>
         <v>-894</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <f t="shared" si="49"/>
         <v>379</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <f t="shared" si="49"/>
         <v>1424</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="8">
+      <c r="J64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="8">
         <f t="shared" si="49"/>
         <v>907</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M64" s="4">
         <f t="shared" si="49"/>
         <v>907</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N64" s="4">
         <f t="shared" si="49"/>
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="str">
-        <f>B49</f>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J65" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="str">
+        <f>B50</f>
         <v>Q123</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" ref="C65:N65" si="50">C49</f>
+      <c r="C66" s="1" t="str">
+        <f t="shared" ref="C66:N66" si="50">C50</f>
         <v>Q223</v>
       </c>
-      <c r="D65" s="1" t="str">
+      <c r="D66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q323</v>
       </c>
-      <c r="E65" s="1" t="str">
+      <c r="E66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q423</v>
       </c>
-      <c r="F65" s="1" t="str">
+      <c r="F66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q124</v>
       </c>
-      <c r="G65" s="1" t="str">
+      <c r="G66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q224</v>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="H66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q324</v>
       </c>
-      <c r="I65" s="1" t="str">
+      <c r="I66" s="1" t="str">
         <f t="shared" si="50"/>
         <v>Q424</v>
       </c>
-      <c r="K65"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="1">
+      <c r="J66" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="1">
         <f t="shared" si="50"/>
         <v>2023</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N66" s="1">
         <f t="shared" si="50"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J67" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K67"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="3">
-        <v>3213</v>
-      </c>
-      <c r="C68" s="3">
-        <v>3194</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2979</v>
-      </c>
-      <c r="E68" s="3">
-        <v>4322</v>
-      </c>
-      <c r="F68" s="3">
-        <v>3236</v>
-      </c>
-      <c r="G68" s="3">
-        <v>2002</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1801</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="3">
-        <f>E68</f>
-        <v>4322</v>
-      </c>
-      <c r="N68" s="3">
-        <f t="shared" ref="N68:N73" si="51">SUM(F68:I68)</f>
-        <v>7039</v>
-      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69">
-        <v>159</v>
-      </c>
-      <c r="C69">
-        <v>191</v>
+        <v>25</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3213</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3194</v>
       </c>
       <c r="D69" s="3">
-        <v>199</v>
+        <v>2979</v>
       </c>
       <c r="E69" s="3">
-        <v>133</v>
+        <v>4322</v>
       </c>
       <c r="F69" s="3">
-        <v>155</v>
-      </c>
-      <c r="G69">
-        <v>246</v>
+        <v>3236</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2002</v>
       </c>
       <c r="H69" s="3">
-        <v>212</v>
+        <v>1801</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L69" s="9"/>
       <c r="M69" s="3">
-        <f t="shared" ref="M69:M73" si="52">E69</f>
+        <f>E69</f>
+        <v>4322</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" ref="N69:N74" si="51">SUM(F69:I69)</f>
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>159</v>
+      </c>
+      <c r="C70">
+        <v>191</v>
+      </c>
+      <c r="D70" s="3">
+        <v>199</v>
+      </c>
+      <c r="E70" s="3">
         <v>133</v>
       </c>
-      <c r="N69" s="3">
+      <c r="F70" s="3">
+        <v>155</v>
+      </c>
+      <c r="G70">
+        <v>246</v>
+      </c>
+      <c r="H70" s="3">
+        <v>212</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="3">
+        <f t="shared" ref="M70:M74" si="52">E70</f>
+        <v>133</v>
+      </c>
+      <c r="N70" s="3">
         <f t="shared" si="51"/>
         <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="3">
-        <v>19974</v>
-      </c>
-      <c r="C70" s="3">
-        <v>21541</v>
-      </c>
-      <c r="D70" s="3">
-        <v>22240</v>
-      </c>
-      <c r="E70" s="3">
-        <v>24249</v>
-      </c>
-      <c r="F70" s="3">
-        <v>24120</v>
-      </c>
-      <c r="G70" s="3">
-        <v>23868</v>
-      </c>
-      <c r="H70" s="3">
-        <v>24062</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="3">
-        <f t="shared" si="52"/>
-        <v>24249</v>
-      </c>
-      <c r="N70" s="3">
-        <f t="shared" si="51"/>
-        <v>72050</v>
-      </c>
-    </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3">
-        <v>255</v>
+        <v>19974</v>
       </c>
       <c r="C71" s="3">
-        <v>260</v>
+        <v>21541</v>
       </c>
       <c r="D71" s="3">
-        <v>229</v>
+        <v>22240</v>
       </c>
       <c r="E71" s="3">
-        <v>380</v>
+        <v>24249</v>
       </c>
       <c r="F71" s="3">
-        <v>230</v>
+        <v>24120</v>
       </c>
       <c r="G71" s="3">
-        <v>230</v>
+        <v>23868</v>
       </c>
       <c r="H71" s="3">
-        <v>274</v>
+        <v>24062</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L71" s="9"/>
       <c r="M71" s="3">
         <f t="shared" si="52"/>
-        <v>380</v>
+        <v>24249</v>
       </c>
       <c r="N71" s="3">
         <f t="shared" si="51"/>
-        <v>734</v>
+        <v>72050</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72" s="3">
-        <v>5983</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3">
-        <v>6411</v>
+        <v>260</v>
       </c>
       <c r="D72" s="3">
-        <v>6447</v>
+        <v>229</v>
       </c>
       <c r="E72" s="3">
-        <v>5545</v>
+        <v>380</v>
       </c>
       <c r="F72" s="3">
-        <v>6189</v>
+        <v>230</v>
       </c>
       <c r="G72" s="3">
-        <v>5951</v>
+        <v>230</v>
       </c>
       <c r="H72" s="3">
-        <v>5930</v>
+        <v>274</v>
       </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L72" s="9"/>
       <c r="M72" s="3">
         <f t="shared" si="52"/>
-        <v>5545</v>
+        <v>380</v>
       </c>
       <c r="N72" s="3">
         <f t="shared" si="51"/>
-        <v>18070</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3">
-        <v>1470</v>
+        <v>5983</v>
       </c>
       <c r="C73" s="3">
-        <v>1458</v>
+        <v>6411</v>
       </c>
       <c r="D73" s="3">
-        <v>1454</v>
+        <v>6447</v>
       </c>
       <c r="E73" s="3">
-        <v>1417</v>
+        <v>5545</v>
       </c>
       <c r="F73" s="3">
-        <v>1374</v>
+        <v>6189</v>
       </c>
       <c r="G73" s="3">
-        <v>1354</v>
+        <v>5951</v>
       </c>
       <c r="H73" s="3">
-        <v>1406</v>
+        <v>5930</v>
       </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L73" s="9"/>
       <c r="M73" s="3">
         <f t="shared" si="52"/>
-        <v>1417</v>
+        <v>5545</v>
       </c>
       <c r="N73" s="3">
         <f t="shared" si="51"/>
+        <v>18070</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1470</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1458</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1454</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1417</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1374</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1354</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1406</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="3">
+        <f t="shared" si="52"/>
+        <v>1417</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="51"/>
         <v>4134</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="4">
-        <f t="shared" ref="B74:I74" si="53">SUM(B68:B73)</f>
+      <c r="B75" s="4">
+        <f t="shared" ref="B75:I75" si="53">SUM(B69:B74)</f>
         <v>31054</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C75" s="4">
         <f t="shared" si="53"/>
         <v>33055</v>
       </c>
-      <c r="D74" s="4">
-        <f>SUM(D68:D73)</f>
+      <c r="D75" s="4">
+        <f>SUM(D69:D74)</f>
         <v>33548</v>
       </c>
-      <c r="E74" s="4">
-        <f>SUM(E68:E73)</f>
+      <c r="E75" s="4">
+        <f>SUM(E69:E74)</f>
         <v>36046</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F75" s="4">
         <f t="shared" si="53"/>
         <v>35304</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G75" s="4">
         <f t="shared" si="53"/>
         <v>33651</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H75" s="4">
         <f t="shared" si="53"/>
         <v>33685</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I75" s="4">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="4">
-        <f>SUM(M68:M73)</f>
+      <c r="J75" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="4">
+        <f>SUM(M69:M74)</f>
         <v>36046</v>
       </c>
-      <c r="N74" s="4">
-        <f>SUM(N68:N73)</f>
+      <c r="N75" s="4">
+        <f>SUM(N69:N74)</f>
         <v>102640</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B76" s="3">
         <v>792</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C76" s="3">
         <v>731</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="3">
         <v>706</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="3">
         <v>723</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F76" s="3">
         <v>723</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G76" s="3">
         <v>645</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H76" s="3">
         <v>649</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="3">
-        <f t="shared" ref="M75:M82" si="54">E75</f>
-        <v>723</v>
-      </c>
-      <c r="N75" s="3">
-        <f t="shared" ref="N75:N82" si="55">SUM(F75:I75)</f>
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1574</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1643</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1681</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1913</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1903</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1909</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1980</v>
-      </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76"/>
+      <c r="J76" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L76" s="9"/>
       <c r="M76" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="M76:M83" si="54">E76</f>
+        <v>723</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" ref="N76:N83" si="55">SUM(F76:I76)</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1574</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1643</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1681</v>
+      </c>
+      <c r="E77" s="3">
         <v>1913</v>
       </c>
-      <c r="N76" s="3">
-        <f t="shared" si="55"/>
-        <v>5792</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="3">
-        <v>357</v>
-      </c>
-      <c r="C77" s="3">
-        <v>405</v>
-      </c>
-      <c r="D77" s="3">
-        <v>477</v>
-      </c>
-      <c r="E77" s="3">
-        <v>563</v>
-      </c>
       <c r="F77" s="3">
-        <v>559</v>
+        <v>1903</v>
       </c>
       <c r="G77" s="3">
-        <v>615</v>
+        <v>1909</v>
       </c>
       <c r="H77" s="3">
-        <v>532</v>
+        <v>1980</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K77"/>
       <c r="L77" s="9"/>
       <c r="M77" s="3">
         <f t="shared" si="54"/>
-        <v>563</v>
+        <v>1913</v>
       </c>
       <c r="N77" s="3">
         <f t="shared" si="55"/>
-        <v>1706</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B78" s="3">
-        <v>3514</v>
+        <v>357</v>
       </c>
       <c r="C78" s="3">
-        <v>3490</v>
+        <v>405</v>
       </c>
       <c r="D78" s="3">
-        <v>3490</v>
+        <v>477</v>
       </c>
       <c r="E78" s="3">
-        <v>3614</v>
+        <v>563</v>
       </c>
       <c r="F78" s="3">
-        <v>3603</v>
+        <v>559</v>
       </c>
       <c r="G78" s="3">
-        <v>3599</v>
+        <v>615</v>
       </c>
       <c r="H78" s="3">
-        <v>3615</v>
+        <v>532</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L78" s="9"/>
       <c r="M78" s="3">
         <f t="shared" si="54"/>
-        <v>3614</v>
+        <v>563</v>
       </c>
       <c r="N78" s="3">
         <f t="shared" si="55"/>
-        <v>10817</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="3">
-        <v>1199</v>
+        <v>3514</v>
       </c>
       <c r="C79" s="3">
-        <v>1229</v>
+        <v>3490</v>
       </c>
       <c r="D79" s="3">
-        <v>1237</v>
+        <v>3490</v>
       </c>
       <c r="E79" s="3">
-        <v>1292</v>
+        <v>3614</v>
       </c>
       <c r="F79" s="3">
-        <v>1265</v>
+        <v>3603</v>
       </c>
       <c r="G79" s="3">
-        <v>1247</v>
+        <v>3599</v>
       </c>
       <c r="H79" s="3">
-        <v>1251</v>
+        <v>3615</v>
       </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L79" s="9"/>
       <c r="M79" s="3">
         <f t="shared" si="54"/>
-        <v>1292</v>
+        <v>3614</v>
       </c>
       <c r="N79" s="3">
         <f t="shared" si="55"/>
-        <v>3763</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="3">
-        <v>434</v>
+        <v>1199</v>
       </c>
       <c r="C80" s="3">
-        <v>587</v>
+        <v>1229</v>
       </c>
       <c r="D80" s="3">
-        <v>704</v>
+        <v>1237</v>
       </c>
       <c r="E80" s="3">
-        <v>979</v>
+        <v>1292</v>
       </c>
       <c r="F80" s="3">
-        <v>977</v>
+        <v>1265</v>
       </c>
       <c r="G80" s="3">
-        <v>942</v>
+        <v>1247</v>
       </c>
       <c r="H80" s="3">
-        <v>957</v>
+        <v>1251</v>
       </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L80" s="9"/>
       <c r="M80" s="3">
         <f t="shared" si="54"/>
-        <v>979</v>
+        <v>1292</v>
       </c>
       <c r="N80" s="3">
         <f t="shared" si="55"/>
-        <v>2876</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3">
-        <v>179</v>
+        <v>434</v>
       </c>
       <c r="C81" s="3">
-        <v>195</v>
+        <v>587</v>
       </c>
       <c r="D81" s="3">
-        <v>163</v>
+        <v>704</v>
       </c>
       <c r="E81" s="3">
-        <v>136</v>
+        <v>979</v>
       </c>
       <c r="F81" s="3">
-        <v>103</v>
+        <v>977</v>
       </c>
       <c r="G81" s="3">
-        <v>133</v>
+        <v>942</v>
       </c>
       <c r="H81" s="3">
-        <v>159</v>
+        <v>957</v>
       </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L81" s="9"/>
       <c r="M81" s="3">
         <f t="shared" si="54"/>
-        <v>136</v>
+        <v>979</v>
       </c>
       <c r="N81" s="3">
         <f t="shared" si="55"/>
-        <v>395</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="3">
-        <v>1463</v>
+        <v>179</v>
       </c>
       <c r="C82" s="3">
-        <v>1352</v>
+        <v>195</v>
       </c>
       <c r="D82" s="3">
-        <v>1035</v>
+        <v>163</v>
       </c>
       <c r="E82" s="3">
-        <v>1085</v>
+        <v>136</v>
       </c>
       <c r="F82" s="3">
-        <v>1289</v>
+        <v>103</v>
       </c>
       <c r="G82" s="3">
-        <v>1218</v>
+        <v>133</v>
       </c>
       <c r="H82" s="3">
-        <v>1205</v>
+        <v>159</v>
       </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L82" s="9"/>
       <c r="M82" s="3">
         <f t="shared" si="54"/>
-        <v>1085</v>
+        <v>136</v>
       </c>
       <c r="N82" s="3">
         <f t="shared" si="55"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1463</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1352</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1035</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1085</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1289</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1218</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1205</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="3">
+        <f t="shared" si="54"/>
+        <v>1085</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" si="55"/>
         <v>3712</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="4">
-        <f t="shared" ref="B83:C83" si="56">SUM(B74:B82)</f>
+      <c r="B84" s="4">
+        <f t="shared" ref="B84:C84" si="56">SUM(B75:B83)</f>
         <v>40566</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C84" s="4">
         <f t="shared" si="56"/>
         <v>42687</v>
       </c>
-      <c r="D83" s="4">
-        <f t="shared" ref="D83:I83" si="57">SUM(D74:D82)</f>
+      <c r="D84" s="4">
+        <f t="shared" ref="D84:I84" si="57">SUM(D75:D83)</f>
         <v>43041</v>
       </c>
-      <c r="E83" s="4">
-        <f t="shared" ref="E83" si="58">SUM(E74:E82)</f>
+      <c r="E84" s="4">
+        <f t="shared" ref="E84" si="58">SUM(E75:E83)</f>
         <v>46351</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <f t="shared" si="57"/>
         <v>45726</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <f t="shared" si="57"/>
         <v>43959</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <f t="shared" si="57"/>
         <v>44033</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="4">
-        <f>SUM(M74:M82)</f>
+      <c r="J84" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="4">
+        <f>SUM(M75:M83)</f>
         <v>46351</v>
       </c>
-      <c r="N83" s="4">
-        <f>SUM(N74:N82)</f>
+      <c r="N84" s="4">
+        <f>SUM(N75:N83)</f>
         <v>133718</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J85" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="3">
-        <v>23552</v>
-      </c>
-      <c r="C86" s="3">
-        <v>24870</v>
-      </c>
-      <c r="D86" s="3">
-        <v>24958</v>
-      </c>
-      <c r="E86" s="3">
-        <v>27326</v>
-      </c>
-      <c r="F86" s="3">
-        <v>27780</v>
-      </c>
-      <c r="G86" s="3">
-        <v>26808</v>
-      </c>
-      <c r="H86" s="3">
-        <v>27300</v>
-      </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="M86" s="3">
-        <f t="shared" ref="M86:M92" si="59">E86</f>
-        <v>27326</v>
-      </c>
-      <c r="N86" s="3">
-        <f t="shared" ref="N86:N92" si="60">SUM(F86:I86)</f>
-        <v>81888</v>
-      </c>
+      <c r="J86" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="3">
+        <v>23552</v>
+      </c>
+      <c r="C87" s="3">
+        <v>24870</v>
+      </c>
+      <c r="D87" s="3">
+        <v>24958</v>
+      </c>
+      <c r="E87" s="3">
+        <v>27326</v>
+      </c>
+      <c r="F87" s="3">
+        <v>27780</v>
+      </c>
+      <c r="G87" s="3">
+        <v>26808</v>
+      </c>
+      <c r="H87" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" ref="M87:M93" si="59">E87</f>
+        <v>27326</v>
+      </c>
+      <c r="N87" s="3">
+        <f t="shared" ref="N87:N93" si="60">SUM(F87:I87)</f>
+        <v>81888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>57</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C88" s="3">
         <v>111</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="3">
         <v>76</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E88" s="3">
         <v>146</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F88" s="3">
         <v>70</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G88" s="3">
         <v>60</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H88" s="3">
         <v>48</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="M87" s="3">
+      <c r="I88" s="3"/>
+      <c r="J88" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M88" s="3">
         <f t="shared" si="59"/>
         <v>146</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N88" s="3">
         <f t="shared" si="60"/>
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B89" s="3">
         <v>3897</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C89" s="3">
         <v>3937</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D89" s="3">
         <v>3574</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E89" s="3">
         <v>3611</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F89" s="3">
         <v>3225</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G89" s="3">
         <v>2911</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H89" s="3">
         <v>2409</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="M88" s="3">
+      <c r="I89" s="3"/>
+      <c r="J89" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M89" s="3">
         <f t="shared" si="59"/>
         <v>3611</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N89" s="3">
         <f t="shared" si="60"/>
         <v>8545</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B90" s="3">
         <v>44</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C90" s="3">
         <v>37</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D90" s="3">
         <v>26</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E90" s="3">
         <v>35</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F90" s="3">
         <v>39</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G90" s="3">
         <v>44</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H90" s="3">
         <v>36</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="M89" s="3">
+      <c r="I90" s="3"/>
+      <c r="J90" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M90" s="3">
         <f t="shared" si="59"/>
         <v>35</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N90" s="3">
         <f t="shared" si="60"/>
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B91" s="3">
         <v>449</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C91" s="3">
         <v>442</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D91" s="3">
         <v>421</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E91" s="3">
         <v>476</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F91" s="3">
         <v>458</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G91" s="3">
         <v>443</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H91" s="3">
         <v>450</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="M90" s="3">
+      <c r="I91" s="3"/>
+      <c r="J91" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M91" s="3">
         <f t="shared" si="59"/>
         <v>476</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N91" s="3">
         <f t="shared" si="60"/>
         <v>1351</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B92" s="3">
         <v>177</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C92" s="3">
         <v>243</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D92" s="3">
         <v>246</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E92" s="3">
         <v>216</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F92" s="3">
         <v>175</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G92" s="3">
         <v>178</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H92" s="3">
         <v>145</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="M91" s="3">
+      <c r="I92" s="3"/>
+      <c r="J92" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M92" s="3">
         <f t="shared" si="59"/>
         <v>216</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N92" s="3">
         <f t="shared" si="60"/>
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B93" s="3">
         <v>4939</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C93" s="3">
         <v>5417</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>5625</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E93" s="3">
         <v>6307</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <v>5967</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G93" s="3">
         <v>5853</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H93" s="3">
         <v>5876</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="M92" s="3">
+      <c r="I93" s="3"/>
+      <c r="J93" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M93" s="3">
         <f t="shared" si="59"/>
         <v>6307</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N93" s="3">
         <f t="shared" si="60"/>
         <v>17696</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="4">
-        <f t="shared" ref="B93:C93" si="61">SUM(B86:B92)</f>
+      <c r="B94" s="4">
+        <f t="shared" ref="B94:C94" si="61">SUM(B87:B93)</f>
         <v>33115</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C94" s="4">
         <f t="shared" si="61"/>
         <v>35057</v>
       </c>
-      <c r="D93" s="4">
-        <f>SUM(D86:D92)</f>
+      <c r="D94" s="4">
+        <f>SUM(D87:D93)</f>
         <v>34926</v>
       </c>
-      <c r="E93" s="4">
-        <f>SUM(E86:E92)</f>
+      <c r="E94" s="4">
+        <f>SUM(E87:E93)</f>
         <v>38117</v>
       </c>
-      <c r="F93" s="4">
-        <f t="shared" ref="F93:N93" si="62">SUM(F86:F92)</f>
+      <c r="F94" s="4">
+        <f t="shared" ref="F94:N94" si="62">SUM(F87:F93)</f>
         <v>37714</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G94" s="4">
         <f t="shared" si="62"/>
         <v>36297</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H94" s="4">
         <f t="shared" si="62"/>
         <v>36264</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I94" s="4">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="4">
+      <c r="J94" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="4">
         <f t="shared" si="62"/>
         <v>38117</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N94" s="4">
         <f t="shared" si="62"/>
         <v>110275</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B95" s="3">
         <v>52</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C95" s="3">
         <v>55</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <v>58</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E95" s="3">
         <v>54</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F95" s="3">
         <v>57</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3">
+      <c r="G95" s="3"/>
+      <c r="H95" s="3">
         <v>57</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="M94" s="3">
-        <f t="shared" ref="M94" si="63">E94</f>
+      <c r="I95" s="3"/>
+      <c r="J95" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" ref="M95" si="63">E95</f>
         <v>54</v>
       </c>
-      <c r="N94" s="3">
-        <f>SUM(F94:I94)</f>
+      <c r="N95" s="3">
+        <f>SUM(F95:I95)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="4">
-        <f t="shared" ref="B96:C96" si="64">B83-B93-B94</f>
+      <c r="B97" s="4">
+        <f t="shared" ref="B97:C97" si="64">B84-B94-B95</f>
         <v>7399</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C97" s="4">
         <f t="shared" si="64"/>
         <v>7575</v>
       </c>
-      <c r="D96" s="4">
-        <f>D83-D93-D94</f>
+      <c r="D97" s="4">
+        <f>D84-D94-D95</f>
         <v>8057</v>
       </c>
-      <c r="E96" s="4">
-        <f t="shared" ref="E96:N96" si="65">E83-E93-E94</f>
+      <c r="E97" s="4">
+        <f t="shared" ref="E97:N97" si="65">E84-E94-E95</f>
         <v>8180</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F97" s="4">
         <f t="shared" si="65"/>
         <v>7955</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G97" s="4">
         <f t="shared" si="65"/>
         <v>7662</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H97" s="4">
         <f t="shared" si="65"/>
         <v>7712</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I97" s="4">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="4">
+      <c r="J97" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="4">
         <f t="shared" si="65"/>
         <v>8180</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N97" s="4">
         <f t="shared" si="65"/>
         <v>23329</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="3">
-        <v>25</v>
-      </c>
-      <c r="C98" s="3">
-        <v>25</v>
-      </c>
-      <c r="D98" s="3">
-        <v>25</v>
-      </c>
-      <c r="E98" s="3">
-        <v>25</v>
-      </c>
-      <c r="F98" s="3">
-        <v>25</v>
-      </c>
-      <c r="G98" s="3">
-        <v>25</v>
-      </c>
-      <c r="H98" s="3">
-        <v>25</v>
-      </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="M98" s="3">
-        <f t="shared" ref="M98:M103" si="66">E98</f>
-        <v>25</v>
-      </c>
-      <c r="N98" s="3">
-        <f t="shared" ref="N98:N103" si="67">SUM(F98:I98)</f>
-        <v>75</v>
-      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L98" s="6"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="3">
+        <v>25</v>
+      </c>
+      <c r="C99" s="3">
+        <v>25</v>
+      </c>
+      <c r="D99" s="3">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3">
+        <v>25</v>
+      </c>
+      <c r="F99" s="3">
+        <v>25</v>
+      </c>
+      <c r="G99" s="3">
+        <v>25</v>
+      </c>
+      <c r="H99" s="3">
+        <v>25</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" ref="M99:M104" si="66">E99</f>
+        <v>25</v>
+      </c>
+      <c r="N99" s="3">
+        <f t="shared" ref="N99:N104" si="67">SUM(F99:I99)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>54</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B100" s="3">
         <v>-301</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C100" s="3">
         <v>-382</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D100" s="3">
         <v>-437</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E100" s="3">
         <v>-865</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F100" s="3">
         <v>-1276</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G100" s="3">
         <v>-1317</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H100" s="3">
         <v>-1376</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="M99" s="3">
+      <c r="I100" s="3"/>
+      <c r="J100" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M100" s="3">
         <f t="shared" si="66"/>
         <v>-865</v>
       </c>
-      <c r="N99" s="3">
+      <c r="N100" s="3">
         <f t="shared" si="67"/>
         <v>-3969</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>55</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B101" s="3">
         <v>1528</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C101" s="3">
         <v>1536</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D101" s="3">
         <v>1563</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E101" s="3">
         <v>1578</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F101" s="3">
         <v>1415</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G101" s="3">
         <v>1401</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H101" s="3">
         <v>1415</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="M100" s="3">
+      <c r="I101" s="3"/>
+      <c r="J101" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M101" s="3">
         <f t="shared" si="66"/>
         <v>1578</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N101" s="3">
         <f t="shared" si="67"/>
         <v>4231</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B102" s="3">
         <v>8388</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C102" s="3">
         <v>8567</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="3">
         <v>9134</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E102" s="3">
         <v>9654</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F102" s="3">
         <v>10151</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G102" s="3">
         <v>9993</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H102" s="3">
         <v>10136</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="M101" s="3">
+      <c r="I102" s="3"/>
+      <c r="J102" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M102" s="3">
         <f t="shared" si="66"/>
         <v>9654</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N102" s="3">
         <f t="shared" si="67"/>
         <v>30280</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>57</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B103" s="3">
         <v>-2316</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C103" s="3">
         <v>-2246</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D103" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E103" s="3">
         <v>-2362</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F103" s="3">
         <v>-2423</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G103" s="3">
         <v>-2564</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H103" s="3">
         <v>-2557</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="M102" s="3">
+      <c r="I103" s="3"/>
+      <c r="J103" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M103" s="3">
         <f t="shared" si="66"/>
         <v>-2362</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N103" s="3">
         <f t="shared" si="67"/>
         <v>-7544</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B104" s="3">
         <v>75</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C104" s="3">
         <v>75</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D104" s="3">
         <v>72</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E104" s="3">
         <v>66</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F104" s="3">
         <v>63</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G104" s="3">
         <v>64</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H104" s="3">
         <v>69</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="M103" s="3">
+      <c r="I104" s="3"/>
+      <c r="J104" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M104" s="3">
         <f t="shared" si="66"/>
         <v>66</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N104" s="3">
         <f t="shared" si="67"/>
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B104" s="4">
-        <f t="shared" ref="B104:C104" si="68">SUM(B98:B103)</f>
+      <c r="B105" s="4">
+        <f t="shared" ref="B105:C105" si="68">SUM(B99:B104)</f>
         <v>7399</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C105" s="4">
         <f t="shared" si="68"/>
         <v>7575</v>
       </c>
-      <c r="D104" s="4">
-        <f>SUM(D98:D103)</f>
+      <c r="D105" s="4">
+        <f>SUM(D99:D104)</f>
         <v>8057</v>
       </c>
-      <c r="E104" s="4">
-        <f t="shared" ref="E104:N104" si="69">SUM(E98:E103)</f>
+      <c r="E105" s="4">
+        <f t="shared" ref="E105:N105" si="69">SUM(E99:E104)</f>
         <v>8096</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F105" s="4">
         <f t="shared" si="69"/>
         <v>7955</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G105" s="4">
         <f t="shared" si="69"/>
         <v>7602</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H105" s="4">
         <f t="shared" si="69"/>
         <v>7712</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I105" s="4">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="4">
-        <f t="shared" si="69"/>
-        <v>8096</v>
-      </c>
-      <c r="N104" s="4">
-        <f t="shared" si="69"/>
-        <v>23269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="4">
-        <f t="shared" ref="B105:C105" si="70">B104+B94+B93</f>
-        <v>40566</v>
-      </c>
-      <c r="C105" s="4">
-        <f t="shared" si="70"/>
-        <v>42687</v>
-      </c>
-      <c r="D105" s="4">
-        <f>D104+D94+D93</f>
-        <v>43041</v>
-      </c>
-      <c r="E105" s="4">
-        <f t="shared" ref="E105:N105" si="71">E104+E94+E93</f>
-        <v>46267</v>
-      </c>
-      <c r="F105" s="4">
-        <f t="shared" si="71"/>
-        <v>45726</v>
-      </c>
-      <c r="G105" s="4">
-        <f t="shared" si="71"/>
-        <v>43899</v>
-      </c>
-      <c r="H105" s="4">
-        <f t="shared" si="71"/>
-        <v>44033</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="4"/>
+      <c r="J105" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="K105" s="4"/>
       <c r="L105" s="8"/>
       <c r="M105" s="4">
+        <f t="shared" si="69"/>
+        <v>8096</v>
+      </c>
+      <c r="N105" s="4">
+        <f t="shared" si="69"/>
+        <v>23269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="4">
+        <f t="shared" ref="B106:C106" si="70">B105+B95+B94</f>
+        <v>40566</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="70"/>
+        <v>42687</v>
+      </c>
+      <c r="D106" s="4">
+        <f>D105+D95+D94</f>
+        <v>43041</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" ref="E106:N106" si="71">E105+E95+E94</f>
+        <v>46267</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="71"/>
+        <v>45726</v>
+      </c>
+      <c r="G106" s="4">
+        <f t="shared" si="71"/>
+        <v>43899</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" si="71"/>
+        <v>44033</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K106" s="4"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="4">
         <f t="shared" si="71"/>
         <v>46267</v>
       </c>
-      <c r="N105" s="4">
+      <c r="N106" s="4">
         <f t="shared" si="71"/>
         <v>133658</v>
       </c>
@@ -5002,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A4ED89-0403-4F67-9A5F-2AAFDE394116}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1106" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706A8081-6CBB-46FA-800C-5378CD8DD3AF}"/>
+  <xr:revisionPtr revIDLastSave="1110" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95AEB0F-3471-4ED8-ADA3-BDDEF56173C0}"/>
   <bookViews>
     <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="155">
   <si>
     <t>Revenues</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,37 +1074,37 @@
         <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
         <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/CNH/CNH.xlsx
+++ b/CNH/CNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/CNH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1110" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95AEB0F-3471-4ED8-ADA3-BDDEF56173C0}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E40E4-888F-4685-AED0-B7B840858D16}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="860" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>SGA</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
     <t>Restructuring Exp</t>
   </si>
   <si>
@@ -498,13 +495,16 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>RnD</t>
   </si>
 </sst>
 </file>
@@ -866,187 +866,187 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,72 +1071,72 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" t="s">
-        <v>150</v>
-      </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K2" s="1">
         <v>2022</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>3927</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K3" s="3">
         <v>17969</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3">
         <v>849</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" s="3">
         <v>3572</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:C5" si="2">SUM(B3:B4)</f>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="3"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3">
         <v>549</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6" s="3">
         <v>1996</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3">
         <v>17</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="3">
         <v>14</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ref="B8:C8" si="6">SUM(B5:B7)</f>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="7"/>
@@ -1453,7 +1453,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="7"/>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1473,7 +1473,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="7"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3">
         <v>1488</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" s="3">
         <v>6769</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3">
         <v>1347</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12" s="3">
         <v>5776</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3">
         <v>730</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="3">
         <v>3738</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3">
         <v>362</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" s="3">
         <v>1686</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" ref="B15:C15" si="10">SUM(B11:B14)</f>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ref="K15:N15" si="12">SUM(K11:K14)</f>
@@ -1726,7 +1726,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="7"/>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3">
         <v>4767</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="7"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="7"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ref="B19:C19" si="14">B17+B18</f>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="15"/>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3">
         <v>402</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="7"/>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3">
         <v>164</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="7"/>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:C22" si="17">+B20+B21+B19</f>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="18"/>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J23" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="9"/>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="9"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" s="3">
         <v>21541</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K26" s="3">
         <v>2010</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" ref="K27" si="21">SUM(K25:K26)</f>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K28" s="3">
         <v>16797</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" ref="K29" si="24">K27-K28</f>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K30" s="3">
         <v>1752</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="B31" s="4">
         <v>231</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="3">
         <v>866</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K32" s="3">
         <v>31</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4">
         <v>272</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="3">
         <v>734</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>163</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K34" s="3">
         <v>689</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ref="B35:C35" si="26">SUM(B30:B34)+B28</f>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ref="K35:L35" si="29">SUM(K30:K34)+K28</f>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" ref="B36:C36" si="30">B27-B35</f>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ref="K36:L36" si="33">K27-K35</f>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="4">
         <v>-173</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K37" s="3">
         <v>-747</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="4">
         <v>33</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K38" s="3">
         <v>104</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4">
         <v>4</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" ref="B40:C40" si="35">B36+B37+B38-B39</f>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" ref="K40" si="37">K36+K37+K38-K39</f>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J41" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ref="B42:C42" si="38">B40/B45</f>
@@ -2832,7 +2832,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K42" s="2" t="e">
         <f t="shared" ref="K42:L42" si="40">K40/K45</f>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ref="B43:C43" si="41">B40/B46</f>
@@ -2888,7 +2888,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K43" s="2" t="e">
         <f t="shared" ref="K43:L43" si="43">K40/K46</f>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J44" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>1342</v>
@@ -2936,7 +2936,7 @@
         <v>1332</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45">
@@ -2950,7 +2950,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>1359</v>
@@ -2971,7 +2971,7 @@
         <v>1351</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46">
@@ -2985,13 +2985,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J47" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48">
@@ -3020,7 +3020,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L49" s="9"/>
     </row>
@@ -3058,7 +3058,7 @@
         <v>Q424</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="9"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J51" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="3">
         <v>486</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="7">
@@ -3126,7 +3126,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="3">
         <v>86</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="7">
@@ -3173,7 +3173,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
         <v>46</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="7">
@@ -3220,7 +3220,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3">
         <v>6</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="7">
@@ -3267,7 +3267,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
         <v>9</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="7">
@@ -3314,7 +3314,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3">
         <v>32</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="7">
@@ -3361,7 +3361,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3">
         <v>113</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="7">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
         <v>-52</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="7">
@@ -3455,7 +3455,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3">
         <v>-355</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="7">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
         <v>-1057</v>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="7">
@@ -3549,7 +3549,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
         <v>172</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="7">
@@ -3596,7 +3596,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3">
         <v>-187</v>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="7">
@@ -3643,7 +3643,7 @@
     </row>
     <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4">
         <f t="shared" ref="B64:C64" si="48">SUM(B52:B63)</f>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="8">
@@ -3696,7 +3696,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J65" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L65" s="9"/>
     </row>
@@ -3734,7 +3734,7 @@
         <v>Q424</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="9"/>
@@ -3749,23 +3749,23 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J67" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3">
         <v>3213</v>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="3">
@@ -3804,7 +3804,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <v>159</v>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="3">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="3">
         <v>19974</v>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="3">
@@ -3882,7 +3882,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3">
         <v>255</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="3">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="3">
         <v>5983</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="3">
@@ -3960,7 +3960,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="3">
         <v>1470</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="3">
@@ -3999,7 +3999,7 @@
     </row>
     <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="4">
         <f t="shared" ref="B75:I75" si="53">SUM(B69:B74)</f>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="7"/>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="3">
         <v>792</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="3">
@@ -4088,7 +4088,7 @@
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="3">
         <v>1574</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="9"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3">
         <v>357</v>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="3">
@@ -4167,7 +4167,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="3">
         <v>3514</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="3">
@@ -4206,7 +4206,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="3">
         <v>1199</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="3">
@@ -4245,7 +4245,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="3">
         <v>434</v>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="3">
@@ -4284,7 +4284,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" s="3">
         <v>179</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="3">
@@ -4323,7 +4323,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="3">
         <v>1463</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="3">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="84" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="4">
         <f t="shared" ref="B84:C84" si="56">SUM(B75:B83)</f>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="7"/>
@@ -4412,22 +4412,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J85" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L86" s="6"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" s="3">
         <v>23552</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M87" s="3">
         <f t="shared" ref="M87:M93" si="59">E87</f>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" s="3">
         <v>57</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M88" s="3">
         <f t="shared" si="59"/>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="3">
         <v>3897</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M89" s="3">
         <f t="shared" si="59"/>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3">
         <v>44</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M90" s="3">
         <f t="shared" si="59"/>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="3">
         <v>449</v>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M91" s="3">
         <f t="shared" si="59"/>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B92" s="3">
         <v>177</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M92" s="3">
         <f t="shared" si="59"/>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93" s="3">
         <v>4939</v>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M93" s="3">
         <f t="shared" si="59"/>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" s="4">
         <f t="shared" ref="B94:C94" si="61">SUM(B87:B93)</f>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="8"/>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="3">
         <v>52</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M95" s="3">
         <f t="shared" ref="M95" si="63">E95</f>
@@ -4787,14 +4787,14 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="4">
         <f t="shared" ref="B97:C97" si="64">B84-B94-B95</f>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="8"/>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -4855,7 +4855,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="4"/>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
         <v>25</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M99" s="3">
         <f t="shared" ref="M99:M104" si="66">E99</f>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" s="3">
         <v>-301</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M100" s="3">
         <f t="shared" si="66"/>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3">
         <v>1528</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M101" s="3">
         <f t="shared" si="66"/>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B102" s="3">
         <v>8388</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M102" s="3">
         <f t="shared" si="66"/>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B103" s="3">
         <v>-2316</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M103" s="3">
         <f t="shared" si="66"/>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B104" s="3">
         <v>75</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M104" s="3">
         <f t="shared" si="66"/>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B105" s="4">
         <f t="shared" ref="B105:C105" si="68">SUM(B99:B104)</f>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="8"/>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" s="4">
         <f t="shared" ref="B106:C106" si="70">B105+B95+B94</f>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="8"/>
@@ -5209,58 +5209,58 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5280,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5303,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -5314,55 +5314,55 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
